--- a/Testes/PingPong/PingPong.xlsx
+++ b/Testes/PingPong/PingPong.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22416"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="9">
   <si>
     <t>Erlang</t>
   </si>
@@ -39,12 +39,6 @@
   </si>
   <si>
     <t>Scala - Normal</t>
-  </si>
-  <si>
-    <t>Tempo Médio</t>
-  </si>
-  <si>
-    <t>Tempo Total</t>
   </si>
   <si>
     <t>ooErlang</t>
@@ -124,7 +118,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -188,25 +182,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -227,16 +221,16 @@
                   <c:v>100861.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197350.4</c:v>
+                  <c:v>197350.39999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>959775.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9097757E6</c:v>
+                  <c:v>1909775.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0876489E7</c:v>
+                  <c:v>10876489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -267,25 +261,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -309,13 +303,13 @@
                   <c:v>858739.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4476969E6</c:v>
+                  <c:v>3447696.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8994186E6</c:v>
+                  <c:v>7899418.5999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.56724573E7</c:v>
+                  <c:v>45672457.299999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -346,25 +340,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,19 +376,19 @@
                   <c:v>456776.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0558299E6</c:v>
+                  <c:v>1055829.8999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7527398E6</c:v>
+                  <c:v>1752739.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0908943E6</c:v>
+                  <c:v>7090894.2999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.39601585E7</c:v>
+                  <c:v>13960158.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.85225246E7</c:v>
+                  <c:v>68522524.599999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -425,25 +419,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -467,13 +461,13 @@
                   <c:v>222878.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0953999E6</c:v>
+                  <c:v>1095399.8999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1975754E6</c:v>
+                  <c:v>2197575.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0928377E7</c:v>
+                  <c:v>10928377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -504,25 +498,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -534,7 +528,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>66452.0</c:v>
+                  <c:v>66452</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>108172.9</c:v>
@@ -546,13 +540,13 @@
                   <c:v>656356.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5580042E6</c:v>
+                  <c:v>2558004.2000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0568285E6</c:v>
+                  <c:v>5056828.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.41375913E7</c:v>
+                  <c:v>24137591.300000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,25 +577,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,19 +613,19 @@
                   <c:v>489205.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1280232E6</c:v>
+                  <c:v>1128023.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7739475E6</c:v>
+                  <c:v>1773947.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1834318E6</c:v>
+                  <c:v>7183431.7999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.34919633E7</c:v>
+                  <c:v>13491963.300000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.44596584E7</c:v>
+                  <c:v>64459658.399999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -648,11 +642,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2099317000"/>
-        <c:axId val="2112475784"/>
+        <c:axId val="121092096"/>
+        <c:axId val="79502080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2099317000"/>
+        <c:axId val="121092096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -669,10 +663,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2112475784"/>
+        <c:crossAx val="79502080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -680,7 +674,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2112475784"/>
+        <c:axId val="79502080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -709,7 +703,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099317000"/>
+        <c:crossAx val="121092096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -733,7 +727,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -798,25 +792,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -828,25 +822,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>330489.1</c:v>
+                  <c:v>330489.09999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>502578.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3547524E6</c:v>
+                  <c:v>1354752.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2635976E6</c:v>
+                  <c:v>2263597.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6782666E6</c:v>
+                  <c:v>9678266.5999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.88507254E7</c:v>
+                  <c:v>18850725.399999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1779569E7</c:v>
+                  <c:v>91779569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -877,25 +871,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -910,22 +904,22 @@
                   <c:v>361653.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>588746.0</c:v>
+                  <c:v>588746</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3531394E6</c:v>
+                  <c:v>1353139.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2977133E6</c:v>
+                  <c:v>2297713.2999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4779213E6</c:v>
+                  <c:v>9477921.3000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.84178895E7</c:v>
+                  <c:v>18417889.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.73377674E7</c:v>
+                  <c:v>87337767.400000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -942,11 +936,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2091758728"/>
-        <c:axId val="2104002840"/>
+        <c:axId val="122941440"/>
+        <c:axId val="123137408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2091758728"/>
+        <c:axId val="122941440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,10 +957,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104002840"/>
+        <c:crossAx val="123137408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -974,7 +968,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104002840"/>
+        <c:axId val="123137408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1004,7 +998,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091758728"/>
+        <c:crossAx val="122941440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1029,7 +1023,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1093,25 +1087,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1126,22 +1120,22 @@
                   <c:v>609811.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0465922E6</c:v>
+                  <c:v>1046592.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3976784E6</c:v>
+                  <c:v>3397678.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2484707E6</c:v>
+                  <c:v>6248470.7000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.89611204E7</c:v>
+                  <c:v>28961120.399999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.72518465E7</c:v>
+                  <c:v>57251846.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.812896174E8</c:v>
+                  <c:v>281289617.39999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1172,25 +1166,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,22 +1199,22 @@
                   <c:v>681380.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0440697E6</c:v>
+                  <c:v>1044069.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3605068E6</c:v>
+                  <c:v>3360506.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1562016E6</c:v>
+                  <c:v>6156201.5999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7909408E7</c:v>
+                  <c:v>27909408</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.58697782E7</c:v>
+                  <c:v>55869778.200000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.742412761E8</c:v>
+                  <c:v>274241276.10000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1237,11 +1231,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2091959048"/>
-        <c:axId val="2104019624"/>
+        <c:axId val="122941952"/>
+        <c:axId val="123139712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2091959048"/>
+        <c:axId val="122941952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1258,10 +1252,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2104019624"/>
+        <c:crossAx val="123139712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1269,7 +1263,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2104019624"/>
+        <c:axId val="123139712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1298,7 +1292,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2091959048"/>
+        <c:crossAx val="122941952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1322,7 +1316,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1381,25 +1375,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,22 +1408,22 @@
                   <c:v>992377.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7080042E6</c:v>
+                  <c:v>1708004.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7701602E6</c:v>
+                  <c:v>5770160.2000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.08352247E7</c:v>
+                  <c:v>10835224.699999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.04129699E7</c:v>
+                  <c:v>50412969.899999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.95925455E7</c:v>
+                  <c:v>99592545.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.923662296E8</c:v>
+                  <c:v>492366229.60000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1460,25 +1454,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1493,22 +1487,22 @@
                   <c:v>726548.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.283777E6</c:v>
+                  <c:v>1283777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9908195E6</c:v>
+                  <c:v>4990819.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.06237464E7</c:v>
+                  <c:v>10623746.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.93339063E7</c:v>
+                  <c:v>49333906.299999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.71199091E7</c:v>
+                  <c:v>97119909.099999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.782181747E8</c:v>
+                  <c:v>478218174.69999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1539,25 +1533,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1569,25 +1563,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0047383E6</c:v>
+                  <c:v>1004738.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6890736E6</c:v>
+                  <c:v>1689073.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7050398E6</c:v>
+                  <c:v>5705039.7999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0655176E7</c:v>
+                  <c:v>10655176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.01155145E7</c:v>
+                  <c:v>50115514.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.86781117E7</c:v>
+                  <c:v>98678111.700000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.908514955E8</c:v>
+                  <c:v>490851495.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1604,11 +1598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2094313384"/>
-        <c:axId val="2054098056"/>
+        <c:axId val="122942464"/>
+        <c:axId val="123224064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094313384"/>
+        <c:axId val="122942464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,10 +1619,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2054098056"/>
+        <c:crossAx val="123224064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1636,7 +1630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2054098056"/>
+        <c:axId val="123224064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1665,7 +1659,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2094313384"/>
+        <c:crossAx val="122942464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1693,7 +1687,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1757,25 +1751,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1796,16 +1790,16 @@
                   <c:v>100861.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>197350.4</c:v>
+                  <c:v>197350.39999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>959775.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9097757E6</c:v>
+                  <c:v>1909775.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0876489E7</c:v>
+                  <c:v>10876489</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1836,25 +1830,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1878,13 +1872,13 @@
                   <c:v>222878.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0953999E6</c:v>
+                  <c:v>1095399.8999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1975754E6</c:v>
+                  <c:v>2197575.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0928377E7</c:v>
+                  <c:v>10928377</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1901,11 +1895,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090763832"/>
-        <c:axId val="2103992712"/>
+        <c:axId val="122942976"/>
+        <c:axId val="123226368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2090763832"/>
+        <c:axId val="122942976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1922,10 +1916,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2103992712"/>
+        <c:crossAx val="123226368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1933,7 +1927,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2103992712"/>
+        <c:axId val="123226368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1962,7 +1956,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090763832"/>
+        <c:crossAx val="122942976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1986,7 +1980,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2050,25 +2044,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2092,13 +2086,13 @@
                   <c:v>246380.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1953731E6</c:v>
+                  <c:v>1195373.1000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3891596E6</c:v>
+                  <c:v>2389159.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.35810182E7</c:v>
+                  <c:v>13581018.199999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2129,25 +2123,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2159,25 +2153,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14364.0</c:v>
+                  <c:v>14364</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>28455.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143314.7</c:v>
+                  <c:v>143314.70000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>222878.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3800455E6</c:v>
+                  <c:v>1380045.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7550645E6</c:v>
+                  <c:v>2755064.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.37520322E7</c:v>
+                  <c:v>13752032.199999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2194,11 +2188,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2103850840"/>
-        <c:axId val="2088874504"/>
+        <c:axId val="122943488"/>
+        <c:axId val="123228672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2103850840"/>
+        <c:axId val="122943488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,10 +2209,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088874504"/>
+        <c:crossAx val="123228672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2226,7 +2220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088874504"/>
+        <c:axId val="123228672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,7 +2249,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103850840"/>
+        <c:crossAx val="122943488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2279,7 +2273,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2343,25 +2337,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2382,16 +2376,16 @@
                   <c:v>446984.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>973952.0</c:v>
+                  <c:v>973952</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7003659E6</c:v>
+                  <c:v>4700365.9000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.741741E6</c:v>
+                  <c:v>8741741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.41380312E7</c:v>
+                  <c:v>54138031.200000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2422,25 +2416,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2461,16 +2455,16 @@
                   <c:v>551738.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.097152E6</c:v>
+                  <c:v>1097152</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4383557E6</c:v>
+                  <c:v>5438355.7000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.08554174E7</c:v>
+                  <c:v>10855417.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.42137279E7</c:v>
+                  <c:v>54213727.899999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2487,11 +2481,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2092115848"/>
-        <c:axId val="2091155688"/>
+        <c:axId val="122944512"/>
+        <c:axId val="123230976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2092115848"/>
+        <c:axId val="122944512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2508,10 +2502,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2091155688"/>
+        <c:crossAx val="123230976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2519,7 +2513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2091155688"/>
+        <c:axId val="123230976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2548,7 +2542,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092115848"/>
+        <c:crossAx val="122944512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2572,7 +2566,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2631,25 +2625,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2670,16 +2664,16 @@
                   <c:v>978115.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9430068E6</c:v>
+                  <c:v>1943006.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6555283E6</c:v>
+                  <c:v>9655528.3000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.92854328E7</c:v>
+                  <c:v>19285432.800000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.63793295E7</c:v>
+                  <c:v>96379329.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2710,25 +2704,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2749,16 +2743,16 @@
                   <c:v>976651.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9489683E6</c:v>
+                  <c:v>1948968.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6593039E6</c:v>
+                  <c:v>9659303.9000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.93005135E7</c:v>
+                  <c:v>19300513.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.63736808E7</c:v>
+                  <c:v>96373680.799999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2775,11 +2769,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2054046808"/>
-        <c:axId val="2096944840"/>
+        <c:axId val="122945024"/>
+        <c:axId val="123749504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2054046808"/>
+        <c:axId val="122945024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2796,10 +2790,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096944840"/>
+        <c:crossAx val="123749504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2807,7 +2801,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096944840"/>
+        <c:axId val="123749504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2836,7 +2830,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054046808"/>
+        <c:crossAx val="122945024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2860,7 +2854,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2924,25 +2918,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2966,13 +2960,13 @@
                   <c:v>858739.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4476969E6</c:v>
+                  <c:v>3447696.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8994186E6</c:v>
+                  <c:v>7899418.5999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.56724573E7</c:v>
+                  <c:v>45672457.299999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3003,25 +2997,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3039,19 +3033,19 @@
                   <c:v>456776.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0558299E6</c:v>
+                  <c:v>1055829.8999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7527398E6</c:v>
+                  <c:v>1752739.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0908943E6</c:v>
+                  <c:v>7090894.2999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.39601585E7</c:v>
+                  <c:v>13960158.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.85225246E7</c:v>
+                  <c:v>68522524.599999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3082,25 +3076,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3112,7 +3106,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>66452.0</c:v>
+                  <c:v>66452</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>108172.9</c:v>
@@ -3124,13 +3118,13 @@
                   <c:v>656356.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5580042E6</c:v>
+                  <c:v>2558004.2000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0568285E6</c:v>
+                  <c:v>5056828.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.41375913E7</c:v>
+                  <c:v>24137591.300000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3161,25 +3155,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3197,19 +3191,19 @@
                   <c:v>489205.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1280232E6</c:v>
+                  <c:v>1128023.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7739475E6</c:v>
+                  <c:v>1773947.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1834318E6</c:v>
+                  <c:v>7183431.7999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.34919633E7</c:v>
+                  <c:v>13491963.300000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.44596584E7</c:v>
+                  <c:v>64459658.399999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3226,11 +3220,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2092007432"/>
-        <c:axId val="2107097800"/>
+        <c:axId val="121093632"/>
+        <c:axId val="123752384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2092007432"/>
+        <c:axId val="121093632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3247,10 +3241,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2107097800"/>
+        <c:crossAx val="123752384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3258,7 +3252,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2107097800"/>
+        <c:axId val="123752384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3287,7 +3281,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092007432"/>
+        <c:crossAx val="121093632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3311,7 +3305,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3375,25 +3369,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3414,16 +3408,16 @@
                   <c:v>739522.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4264392E6</c:v>
+                  <c:v>1426439.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3418811E6</c:v>
+                  <c:v>8341881.0999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.80689251E7</c:v>
+                  <c:v>18068925.100000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.53276821E7</c:v>
+                  <c:v>95327682.099999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3454,25 +3448,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3484,25 +3478,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>330489.1</c:v>
+                  <c:v>330489.09999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>502578.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3547524E6</c:v>
+                  <c:v>1354752.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2635976E6</c:v>
+                  <c:v>2263597.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6782666E6</c:v>
+                  <c:v>9678266.5999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.88507254E7</c:v>
+                  <c:v>18850725.399999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1779569E7</c:v>
+                  <c:v>91779569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3533,25 +3527,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3569,19 +3563,19 @@
                   <c:v>195906.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>571017.7</c:v>
+                  <c:v>571017.69999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2160938E6</c:v>
+                  <c:v>1216093.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1026291E6</c:v>
+                  <c:v>5102629.0999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7981636E6</c:v>
+                  <c:v>9798163.5999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.81117318E7</c:v>
+                  <c:v>48111731.799999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3612,25 +3606,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3645,22 +3639,22 @@
                   <c:v>361653.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>588746.0</c:v>
+                  <c:v>588746</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3531394E6</c:v>
+                  <c:v>1353139.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2977133E6</c:v>
+                  <c:v>2297713.2999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4779213E6</c:v>
+                  <c:v>9477921.3000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.84178895E7</c:v>
+                  <c:v>18417889.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.73377674E7</c:v>
+                  <c:v>87337767.400000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3677,11 +3671,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090111656"/>
-        <c:axId val="2090519208"/>
+        <c:axId val="123490816"/>
+        <c:axId val="123754688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2090111656"/>
+        <c:axId val="123490816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3698,10 +3692,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090519208"/>
+        <c:crossAx val="123754688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3709,7 +3703,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090519208"/>
+        <c:axId val="123754688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3738,7 +3732,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2090111656"/>
+        <c:crossAx val="123490816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3762,7 +3756,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3826,25 +3820,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3862,19 +3856,19 @@
                   <c:v>771765.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4842787E6</c:v>
+                  <c:v>3484278.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1875989E6</c:v>
+                  <c:v>9187598.9000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.61431574E7</c:v>
+                  <c:v>46143157.399999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.15654253E7</c:v>
+                  <c:v>91565425.299999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.621611461E8</c:v>
+                  <c:v>462161146.10000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3905,25 +3899,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3938,22 +3932,22 @@
                   <c:v>609811.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0465922E6</c:v>
+                  <c:v>1046592.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3976784E6</c:v>
+                  <c:v>3397678.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2484707E6</c:v>
+                  <c:v>6248470.7000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.89611204E7</c:v>
+                  <c:v>28961120.399999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.72518465E7</c:v>
+                  <c:v>57251846.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.812896174E8</c:v>
+                  <c:v>281289617.39999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3984,25 +3978,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4020,19 +4014,19 @@
                   <c:v>654407.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6258984E6</c:v>
+                  <c:v>2625898.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7043431E6</c:v>
+                  <c:v>5704343.0999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.47551528E7</c:v>
+                  <c:v>24755152.800000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.85089835E7</c:v>
+                  <c:v>48508983.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.391468746E8</c:v>
+                  <c:v>239146874.59999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4063,25 +4057,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4096,22 +4090,22 @@
                   <c:v>681380.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0440697E6</c:v>
+                  <c:v>1044069.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3605068E6</c:v>
+                  <c:v>3360506.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1562016E6</c:v>
+                  <c:v>6156201.5999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7909408E7</c:v>
+                  <c:v>27909408</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.58697782E7</c:v>
+                  <c:v>55869778.200000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.742412761E8</c:v>
+                  <c:v>274241276.10000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4128,11 +4122,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2096656120"/>
-        <c:axId val="2090489928"/>
+        <c:axId val="123491840"/>
+        <c:axId val="123641856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2096656120"/>
+        <c:axId val="123491840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4149,10 +4143,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090489928"/>
+        <c:crossAx val="123641856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4160,7 +4154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090489928"/>
+        <c:axId val="123641856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4189,7 +4183,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096656120"/>
+        <c:crossAx val="123491840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4213,7 +4207,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4277,25 +4271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4319,13 +4313,13 @@
                   <c:v>246380.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1953731E6</c:v>
+                  <c:v>1195373.1000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.3891596E6</c:v>
+                  <c:v>2389159.6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.35810182E7</c:v>
+                  <c:v>13581018.199999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4356,25 +4350,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4395,16 +4389,16 @@
                   <c:v>739522.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4264392E6</c:v>
+                  <c:v>1426439.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3418811E6</c:v>
+                  <c:v>8341881.0999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.80689251E7</c:v>
+                  <c:v>18068925.100000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.53276821E7</c:v>
+                  <c:v>95327682.099999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4435,25 +4429,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4465,25 +4459,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>330489.1</c:v>
+                  <c:v>330489.09999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>502578.8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3547524E6</c:v>
+                  <c:v>1354752.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2635976E6</c:v>
+                  <c:v>2263597.6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6782666E6</c:v>
+                  <c:v>9678266.5999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.88507254E7</c:v>
+                  <c:v>18850725.399999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.1779569E7</c:v>
+                  <c:v>91779569</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4514,25 +4508,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4544,25 +4538,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14364.0</c:v>
+                  <c:v>14364</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>28455.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>143314.7</c:v>
+                  <c:v>143314.70000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>222878.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3800455E6</c:v>
+                  <c:v>1380045.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.7550645E6</c:v>
+                  <c:v>2755064.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.37520322E7</c:v>
+                  <c:v>13752032.199999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4593,25 +4587,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4629,19 +4623,19 @@
                   <c:v>195906.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>571017.7</c:v>
+                  <c:v>571017.69999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2160938E6</c:v>
+                  <c:v>1216093.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1026291E6</c:v>
+                  <c:v>5102629.0999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7981636E6</c:v>
+                  <c:v>9798163.5999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.81117318E7</c:v>
+                  <c:v>48111731.799999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4672,25 +4666,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4705,22 +4699,22 @@
                   <c:v>361653.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>588746.0</c:v>
+                  <c:v>588746</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3531394E6</c:v>
+                  <c:v>1353139.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2977133E6</c:v>
+                  <c:v>2297713.2999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.4779213E6</c:v>
+                  <c:v>9477921.3000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.84178895E7</c:v>
+                  <c:v>18417889.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.73377674E7</c:v>
+                  <c:v>87337767.400000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4737,11 +4731,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2085697160"/>
-        <c:axId val="2101670664"/>
+        <c:axId val="92136448"/>
+        <c:axId val="38856384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2085697160"/>
+        <c:axId val="92136448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4758,10 +4752,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2101670664"/>
+        <c:crossAx val="38856384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4769,7 +4763,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2101670664"/>
+        <c:axId val="38856384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4798,7 +4792,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085697160"/>
+        <c:crossAx val="92136448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4822,7 +4816,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4881,25 +4875,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4914,22 +4908,22 @@
                   <c:v>893603.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4086073E6</c:v>
+                  <c:v>1408607.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.737425E6</c:v>
+                  <c:v>7737425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.94047885E7</c:v>
+                  <c:v>19404788.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.17765318E7</c:v>
+                  <c:v>91776531.799999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.819347296E8</c:v>
+                  <c:v>181934729.59999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.111098472E8</c:v>
+                  <c:v>911109847.20000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4960,25 +4954,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4993,22 +4987,22 @@
                   <c:v>992377.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7080042E6</c:v>
+                  <c:v>1708004.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7701602E6</c:v>
+                  <c:v>5770160.2000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.08352247E7</c:v>
+                  <c:v>10835224.699999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.04129699E7</c:v>
+                  <c:v>50412969.899999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.95925455E7</c:v>
+                  <c:v>99592545.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.923662296E8</c:v>
+                  <c:v>492366229.60000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5039,25 +5033,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5072,22 +5066,22 @@
                   <c:v>726548.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.283777E6</c:v>
+                  <c:v>1283777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9908195E6</c:v>
+                  <c:v>4990819.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.06237464E7</c:v>
+                  <c:v>10623746.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.93339063E7</c:v>
+                  <c:v>49333906.299999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.71199091E7</c:v>
+                  <c:v>97119909.099999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.782181747E8</c:v>
+                  <c:v>478218174.69999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5118,25 +5112,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5148,25 +5142,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0047383E6</c:v>
+                  <c:v>1004738.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6890736E6</c:v>
+                  <c:v>1689073.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7050398E6</c:v>
+                  <c:v>5705039.7999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0655176E7</c:v>
+                  <c:v>10655176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.01155145E7</c:v>
+                  <c:v>50115514.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.86781117E7</c:v>
+                  <c:v>98678111.700000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.908514955E8</c:v>
+                  <c:v>490851495.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5183,11 +5177,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2106812152"/>
-        <c:axId val="2088837144"/>
+        <c:axId val="123492864"/>
+        <c:axId val="123644160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2106812152"/>
+        <c:axId val="123492864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5204,10 +5198,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088837144"/>
+        <c:crossAx val="123644160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5215,7 +5209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088837144"/>
+        <c:axId val="123644160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5244,7 +5238,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106812152"/>
+        <c:crossAx val="123492864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5268,7 +5262,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5332,25 +5326,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5371,16 +5365,16 @@
                   <c:v>446984.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>973952.0</c:v>
+                  <c:v>973952</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.7003659E6</c:v>
+                  <c:v>4700365.9000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.741741E6</c:v>
+                  <c:v>8741741</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.41380312E7</c:v>
+                  <c:v>54138031.200000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5411,25 +5405,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5447,19 +5441,19 @@
                   <c:v>771765.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4842787E6</c:v>
+                  <c:v>3484278.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1875989E6</c:v>
+                  <c:v>9187598.9000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.61431574E7</c:v>
+                  <c:v>46143157.399999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.15654253E7</c:v>
+                  <c:v>91565425.299999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.621611461E8</c:v>
+                  <c:v>462161146.10000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5490,25 +5484,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5523,22 +5517,22 @@
                   <c:v>609811.9</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0465922E6</c:v>
+                  <c:v>1046592.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3976784E6</c:v>
+                  <c:v>3397678.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.2484707E6</c:v>
+                  <c:v>6248470.7000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.89611204E7</c:v>
+                  <c:v>28961120.399999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.72518465E7</c:v>
+                  <c:v>57251846.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.812896174E8</c:v>
+                  <c:v>281289617.39999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5569,25 +5563,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5608,16 +5602,16 @@
                   <c:v>551738.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.097152E6</c:v>
+                  <c:v>1097152</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.4383557E6</c:v>
+                  <c:v>5438355.7000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.08554174E7</c:v>
+                  <c:v>10855417.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.42137279E7</c:v>
+                  <c:v>54213727.899999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5648,25 +5642,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5684,19 +5678,19 @@
                   <c:v>654407.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6258984E6</c:v>
+                  <c:v>2625898.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7043431E6</c:v>
+                  <c:v>5704343.0999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.47551528E7</c:v>
+                  <c:v>24755152.800000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.85089835E7</c:v>
+                  <c:v>48508983.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.391468746E8</c:v>
+                  <c:v>239146874.59999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5727,25 +5721,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5760,22 +5754,22 @@
                   <c:v>681380.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0440697E6</c:v>
+                  <c:v>1044069.7</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3605068E6</c:v>
+                  <c:v>3360506.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.1562016E6</c:v>
+                  <c:v>6156201.5999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.7909408E7</c:v>
+                  <c:v>27909408</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.58697782E7</c:v>
+                  <c:v>55869778.200000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.742412761E8</c:v>
+                  <c:v>274241276.10000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5792,11 +5786,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2100129992"/>
-        <c:axId val="2082249656"/>
+        <c:axId val="122429952"/>
+        <c:axId val="38858112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2100129992"/>
+        <c:axId val="122429952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5813,10 +5807,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2082249656"/>
+        <c:crossAx val="38858112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5824,7 +5818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082249656"/>
+        <c:axId val="38858112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5853,7 +5847,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2100129992"/>
+        <c:crossAx val="122429952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5877,7 +5871,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5936,25 +5930,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5975,16 +5969,16 @@
                   <c:v>978115.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9430068E6</c:v>
+                  <c:v>1943006.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6555283E6</c:v>
+                  <c:v>9655528.3000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.92854328E7</c:v>
+                  <c:v>19285432.800000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.63793295E7</c:v>
+                  <c:v>96379329.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6015,25 +6009,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6048,22 +6042,22 @@
                   <c:v>893603.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4086073E6</c:v>
+                  <c:v>1408607.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.737425E6</c:v>
+                  <c:v>7737425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.94047885E7</c:v>
+                  <c:v>19404788.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.17765318E7</c:v>
+                  <c:v>91776531.799999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.819347296E8</c:v>
+                  <c:v>181934729.59999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.111098472E8</c:v>
+                  <c:v>911109847.20000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6094,25 +6088,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6127,22 +6121,22 @@
                   <c:v>992377.2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.7080042E6</c:v>
+                  <c:v>1708004.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7701602E6</c:v>
+                  <c:v>5770160.2000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.08352247E7</c:v>
+                  <c:v>10835224.699999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.04129699E7</c:v>
+                  <c:v>50412969.899999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.95925455E7</c:v>
+                  <c:v>99592545.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.923662296E8</c:v>
+                  <c:v>492366229.60000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6173,25 +6167,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6212,16 +6206,16 @@
                   <c:v>976651.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9489683E6</c:v>
+                  <c:v>1948968.3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.6593039E6</c:v>
+                  <c:v>9659303.9000000004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.93005135E7</c:v>
+                  <c:v>19300513.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.63736808E7</c:v>
+                  <c:v>96373680.799999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6252,25 +6246,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6285,22 +6279,22 @@
                   <c:v>726548.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.283777E6</c:v>
+                  <c:v>1283777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9908195E6</c:v>
+                  <c:v>4990819.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.06237464E7</c:v>
+                  <c:v>10623746.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.93339063E7</c:v>
+                  <c:v>49333906.299999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.71199091E7</c:v>
+                  <c:v>97119909.099999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.782181747E8</c:v>
+                  <c:v>478218174.69999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6331,25 +6325,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6361,25 +6355,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1.0047383E6</c:v>
+                  <c:v>1004738.3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6890736E6</c:v>
+                  <c:v>1689073.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.7050398E6</c:v>
+                  <c:v>5705039.7999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0655176E7</c:v>
+                  <c:v>10655176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.01155145E7</c:v>
+                  <c:v>50115514.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.86781117E7</c:v>
+                  <c:v>98678111.700000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.908514955E8</c:v>
+                  <c:v>490851495.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6396,11 +6390,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2087894856"/>
-        <c:axId val="2065973096"/>
+        <c:axId val="122430976"/>
+        <c:axId val="38860416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2087894856"/>
+        <c:axId val="122430976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6417,10 +6411,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2065973096"/>
+        <c:crossAx val="38860416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6428,7 +6422,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2065973096"/>
+        <c:axId val="38860416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6457,7 +6451,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087894856"/>
+        <c:crossAx val="122430976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6481,7 +6475,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6546,25 +6540,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6588,13 +6582,13 @@
                   <c:v>858739.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4476969E6</c:v>
+                  <c:v>3447696.9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.8994186E6</c:v>
+                  <c:v>7899418.5999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.56724573E7</c:v>
+                  <c:v>45672457.299999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6625,25 +6619,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6655,7 +6649,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>66452.0</c:v>
+                  <c:v>66452</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>108172.9</c:v>
@@ -6667,13 +6661,13 @@
                   <c:v>656356.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.5580042E6</c:v>
+                  <c:v>2558004.2000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0568285E6</c:v>
+                  <c:v>5056828.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.41375913E7</c:v>
+                  <c:v>24137591.300000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6690,11 +6684,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2088101496"/>
-        <c:axId val="2081478776"/>
+        <c:axId val="121093120"/>
+        <c:axId val="122601472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2088101496"/>
+        <c:axId val="121093120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6711,10 +6705,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2081478776"/>
+        <c:crossAx val="122601472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6722,7 +6716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081478776"/>
+        <c:axId val="122601472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6752,7 +6746,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088101496"/>
+        <c:crossAx val="121093120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6777,7 +6771,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6842,25 +6836,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6881,16 +6875,16 @@
                   <c:v>739522.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.4264392E6</c:v>
+                  <c:v>1426439.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.3418811E6</c:v>
+                  <c:v>8341881.0999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.80689251E7</c:v>
+                  <c:v>18068925.100000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.53276821E7</c:v>
+                  <c:v>95327682.099999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6921,25 +6915,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6957,19 +6951,19 @@
                   <c:v>195906.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>571017.7</c:v>
+                  <c:v>571017.69999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.2160938E6</c:v>
+                  <c:v>1216093.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1026291E6</c:v>
+                  <c:v>5102629.0999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7981636E6</c:v>
+                  <c:v>9798163.5999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.81117318E7</c:v>
+                  <c:v>48111731.799999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6986,11 +6980,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2103443976"/>
-        <c:axId val="2088967048"/>
+        <c:axId val="122432000"/>
+        <c:axId val="122603776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2103443976"/>
+        <c:axId val="122432000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7007,10 +7001,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2088967048"/>
+        <c:crossAx val="122603776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7018,7 +7012,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2088967048"/>
+        <c:axId val="122603776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7048,7 +7042,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2103443976"/>
+        <c:crossAx val="122432000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7073,7 +7067,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7137,25 +7131,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7173,19 +7167,19 @@
                   <c:v>771765.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4842787E6</c:v>
+                  <c:v>3484278.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.1875989E6</c:v>
+                  <c:v>9187598.9000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.61431574E7</c:v>
+                  <c:v>46143157.399999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.15654253E7</c:v>
+                  <c:v>91565425.299999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.621611461E8</c:v>
+                  <c:v>462161146.10000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7216,25 +7210,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7252,19 +7246,19 @@
                   <c:v>654407.6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.6258984E6</c:v>
+                  <c:v>2625898.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.7043431E6</c:v>
+                  <c:v>5704343.0999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.47551528E7</c:v>
+                  <c:v>24755152.800000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.85089835E7</c:v>
+                  <c:v>48508983.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.391468746E8</c:v>
+                  <c:v>239146874.59999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7281,11 +7275,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2096976248"/>
-        <c:axId val="2089177048"/>
+        <c:axId val="122432512"/>
+        <c:axId val="122606080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2096976248"/>
+        <c:axId val="122432512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7302,10 +7296,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2089177048"/>
+        <c:crossAx val="122606080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7313,7 +7307,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2089177048"/>
+        <c:axId val="122606080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7342,7 +7336,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2096976248"/>
+        <c:crossAx val="122432512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7366,7 +7360,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7425,25 +7419,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7458,22 +7452,22 @@
                   <c:v>893603.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4086073E6</c:v>
+                  <c:v>1408607.3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.737425E6</c:v>
+                  <c:v>7737425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.94047885E7</c:v>
+                  <c:v>19404788.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.17765318E7</c:v>
+                  <c:v>91776531.799999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.819347296E8</c:v>
+                  <c:v>181934729.59999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>9.111098472E8</c:v>
+                  <c:v>911109847.20000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7504,25 +7498,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7537,22 +7531,22 @@
                   <c:v>726548.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.283777E6</c:v>
+                  <c:v>1283777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.9908195E6</c:v>
+                  <c:v>4990819.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.06237464E7</c:v>
+                  <c:v>10623746.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.93339063E7</c:v>
+                  <c:v>49333906.299999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.71199091E7</c:v>
+                  <c:v>97119909.099999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.782181747E8</c:v>
+                  <c:v>478218174.69999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7569,11 +7563,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2092443704"/>
-        <c:axId val="2096782296"/>
+        <c:axId val="122433024"/>
+        <c:axId val="122608384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2092443704"/>
+        <c:axId val="122433024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7590,10 +7584,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2096782296"/>
+        <c:crossAx val="122608384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7601,7 +7595,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2096782296"/>
+        <c:axId val="122608384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7630,7 +7624,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092443704"/>
+        <c:crossAx val="122433024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7654,7 +7648,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7719,25 +7713,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7755,19 +7749,19 @@
                   <c:v>456776.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.0558299E6</c:v>
+                  <c:v>1055829.8999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7527398E6</c:v>
+                  <c:v>1752739.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.0908943E6</c:v>
+                  <c:v>7090894.2999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.39601585E7</c:v>
+                  <c:v>13960158.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.85225246E7</c:v>
+                  <c:v>68522524.599999994</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7798,25 +7792,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>5000.0</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10000.0</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50000.0</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100000.0</c:v>
+                  <c:v>100000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>500000.0</c:v>
+                  <c:v>500000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0E6</c:v>
+                  <c:v>1000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0E6</c:v>
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7834,19 +7828,19 @@
                   <c:v>489205.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.1280232E6</c:v>
+                  <c:v>1128023.2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.7739475E6</c:v>
+                  <c:v>1773947.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.1834318E6</c:v>
+                  <c:v>7183431.7999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.34919633E7</c:v>
+                  <c:v>13491963.300000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.44596584E7</c:v>
+                  <c:v>64459658.399999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7863,11 +7857,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2092567832"/>
-        <c:axId val="2084485336"/>
+        <c:axId val="92139008"/>
+        <c:axId val="123135104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2092567832"/>
+        <c:axId val="92139008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7884,10 +7878,10 @@
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2084485336"/>
+        <c:crossAx val="123135104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7895,7 +7889,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2084485336"/>
+        <c:axId val="123135104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7925,7 +7919,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2092567832"/>
+        <c:crossAx val="92139008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8873,52 +8867,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BA163"/>
+  <dimension ref="A1:BA154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T55" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
-      <selection activeCell="AL55" sqref="AL55"/>
+    <sheetView tabSelected="1" topLeftCell="D70" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="L91" sqref="L91:S163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="8.83203125" customWidth="1"/>
+    <col min="1" max="3" width="8.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" customWidth="1"/>
-    <col min="7" max="7" width="21.5" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="20.1640625" customWidth="1"/>
-    <col min="14" max="14" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="14" max="14" width="23.85546875" customWidth="1"/>
     <col min="15" max="15" width="22" customWidth="1"/>
-    <col min="16" max="16" width="29.6640625" customWidth="1"/>
-    <col min="17" max="17" width="27.6640625" customWidth="1"/>
-    <col min="18" max="18" width="23.83203125" customWidth="1"/>
-    <col min="19" max="19" width="24.5" customWidth="1"/>
-    <col min="20" max="20" width="10.1640625" customWidth="1"/>
-    <col min="22" max="22" width="15.6640625" customWidth="1"/>
-    <col min="23" max="23" width="18.1640625" customWidth="1"/>
+    <col min="16" max="16" width="29.7109375" customWidth="1"/>
+    <col min="17" max="17" width="27.7109375" customWidth="1"/>
+    <col min="18" max="18" width="23.85546875" customWidth="1"/>
+    <col min="19" max="19" width="24.42578125" customWidth="1"/>
+    <col min="20" max="20" width="10.140625" customWidth="1"/>
+    <col min="22" max="22" width="15.7109375" customWidth="1"/>
+    <col min="23" max="23" width="18.140625" customWidth="1"/>
     <col min="25" max="25" width="24" customWidth="1"/>
-    <col min="26" max="26" width="21.6640625" customWidth="1"/>
-    <col min="28" max="28" width="22.1640625" customWidth="1"/>
-    <col min="29" max="29" width="24.5" customWidth="1"/>
-    <col min="31" max="31" width="18.6640625" customWidth="1"/>
-    <col min="32" max="32" width="20.1640625" customWidth="1"/>
-    <col min="34" max="34" width="21.5" customWidth="1"/>
-    <col min="35" max="35" width="21.6640625" customWidth="1"/>
+    <col min="26" max="26" width="21.7109375" customWidth="1"/>
+    <col min="28" max="28" width="22.140625" customWidth="1"/>
+    <col min="29" max="29" width="24.42578125" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" customWidth="1"/>
+    <col min="32" max="32" width="20.140625" customWidth="1"/>
+    <col min="34" max="34" width="21.42578125" customWidth="1"/>
+    <col min="35" max="35" width="21.7109375" customWidth="1"/>
     <col min="36" max="36" width="10" customWidth="1"/>
     <col min="37" max="37" width="11" customWidth="1"/>
-    <col min="38" max="38" width="9.1640625" customWidth="1"/>
-    <col min="40" max="40" width="18.33203125" customWidth="1"/>
-    <col min="41" max="41" width="19.33203125" customWidth="1"/>
-    <col min="43" max="43" width="20.5" customWidth="1"/>
+    <col min="38" max="38" width="9.140625" customWidth="1"/>
+    <col min="40" max="40" width="18.28515625" customWidth="1"/>
+    <col min="41" max="41" width="19.28515625" customWidth="1"/>
+    <col min="43" max="43" width="20.42578125" customWidth="1"/>
     <col min="44" max="44" width="21" customWidth="1"/>
-    <col min="49" max="49" width="16.5" customWidth="1"/>
+    <col min="49" max="49" width="16.42578125" customWidth="1"/>
     <col min="50" max="50" width="17" customWidth="1"/>
-    <col min="52" max="52" width="23.83203125" customWidth="1"/>
-    <col min="53" max="53" width="25.5" customWidth="1"/>
+    <col min="52" max="52" width="23.85546875" customWidth="1"/>
+    <col min="53" max="53" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -8935,13 +8929,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -8959,13 +8953,13 @@
         <v>5</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>2</v>
@@ -8983,16 +8977,16 @@
         <v>5</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5000</v>
       </c>
@@ -9081,13 +9075,13 @@
         <v>5</v>
       </c>
       <c r="AG2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="AK2" s="1" t="s">
         <v>2</v>
@@ -9105,13 +9099,13 @@
         <v>5</v>
       </c>
       <c r="AP2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AR2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="AT2" s="4" t="s">
         <v>2</v>
@@ -9129,16 +9123,16 @@
         <v>5</v>
       </c>
       <c r="AY2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="BA2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AZ2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5000</v>
       </c>
@@ -9302,7 +9296,7 @@
         <v>681380.3</v>
       </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5000</v>
       </c>
@@ -9466,7 +9460,7 @@
         <v>1044069.7</v>
       </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5000</v>
       </c>
@@ -9630,7 +9624,7 @@
         <v>3360506.8</v>
       </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5000</v>
       </c>
@@ -9794,7 +9788,7 @@
         <v>6156201.5999999996</v>
       </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5000</v>
       </c>
@@ -9958,7 +9952,7 @@
         <v>27909408</v>
       </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5000</v>
       </c>
@@ -10122,7 +10116,7 @@
         <v>55869778.200000003</v>
       </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5000</v>
       </c>
@@ -10286,7 +10280,7 @@
         <v>274241276.10000002</v>
       </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5000</v>
       </c>
@@ -10363,7 +10357,7 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5000</v>
       </c>
@@ -10437,7 +10431,7 @@
         <v>672271</v>
       </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5000</v>
       </c>
@@ -10511,7 +10505,7 @@
         <v>1036335</v>
       </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5000</v>
       </c>
@@ -10588,7 +10582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5000</v>
       </c>
@@ -10665,7 +10659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5000</v>
       </c>
@@ -10742,7 +10736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5000</v>
       </c>
@@ -10816,7 +10810,7 @@
         <v>1012126</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5000</v>
       </c>
@@ -10890,7 +10884,7 @@
         <v>1056502</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5000</v>
       </c>
@@ -10964,7 +10958,7 @@
         <v>1043235</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5000</v>
       </c>
@@ -11038,7 +11032,7 @@
         <v>1037183</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5000</v>
       </c>
@@ -11112,7 +11106,7 @@
         <v>1055795</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5000</v>
       </c>
@@ -11186,7 +11180,7 @@
         <v>1038573</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5000</v>
       </c>
@@ -11260,7 +11254,7 @@
         <v>3411708</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5000</v>
       </c>
@@ -11334,7 +11328,7 @@
         <v>3341581</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5000</v>
       </c>
@@ -11408,7 +11402,7 @@
         <v>3287559</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5000</v>
       </c>
@@ -11482,7 +11476,7 @@
         <v>3352353</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5000</v>
       </c>
@@ -11556,7 +11550,7 @@
         <v>3321504</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5000</v>
       </c>
@@ -11630,7 +11624,7 @@
         <v>3353213</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5000</v>
       </c>
@@ -11704,7 +11698,7 @@
         <v>3370698</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5000</v>
       </c>
@@ -11778,7 +11772,7 @@
         <v>3330054</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5000</v>
       </c>
@@ -11852,7 +11846,7 @@
         <v>3381637</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5000</v>
       </c>
@@ -11926,7 +11920,7 @@
         <v>3454761</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5000</v>
       </c>
@@ -12000,7 +11994,7 @@
         <v>6073247</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5000</v>
       </c>
@@ -12074,7 +12068,7 @@
         <v>6321968</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5000</v>
       </c>
@@ -12148,7 +12142,7 @@
         <v>6212274</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5000</v>
       </c>
@@ -12222,7 +12216,7 @@
         <v>6008254</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5000</v>
       </c>
@@ -12296,7 +12290,7 @@
         <v>6132584</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5000</v>
       </c>
@@ -12370,7 +12364,7 @@
         <v>6256256</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5000</v>
       </c>
@@ -12444,7 +12438,7 @@
         <v>6209185</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5000</v>
       </c>
@@ -12518,7 +12512,7 @@
         <v>6027775</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5000</v>
       </c>
@@ -12592,7 +12586,7 @@
         <v>6163654</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5000</v>
       </c>
@@ -12666,7 +12660,7 @@
         <v>6156819</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5000</v>
       </c>
@@ -12740,7 +12734,7 @@
         <v>27754250</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5000</v>
       </c>
@@ -12814,7 +12808,7 @@
         <v>28089209</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5000</v>
       </c>
@@ -12888,7 +12882,7 @@
         <v>27977738</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5000</v>
       </c>
@@ -12962,7 +12956,7 @@
         <v>27746427</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5000</v>
       </c>
@@ -13036,7 +13030,7 @@
         <v>27912549</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5000</v>
       </c>
@@ -13110,7 +13104,7 @@
         <v>27817733</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5000</v>
       </c>
@@ -13184,7 +13178,7 @@
         <v>27957544</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5000</v>
       </c>
@@ -13258,7 +13252,7 @@
         <v>28034715</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5000</v>
       </c>
@@ -13332,7 +13326,7 @@
         <v>28020034</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5000</v>
       </c>
@@ -13406,7 +13400,7 @@
         <v>27783881</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5000</v>
       </c>
@@ -13484,7 +13478,7 @@
       </c>
       <c r="AL57" s="2"/>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5000</v>
       </c>
@@ -13561,7 +13555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5000</v>
       </c>
@@ -13638,7 +13632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5000</v>
       </c>
@@ -13715,7 +13709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5000</v>
       </c>
@@ -13792,7 +13786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5000</v>
       </c>
@@ -13866,7 +13860,7 @@
         <v>55624079</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5000</v>
       </c>
@@ -13940,7 +13934,7 @@
         <v>60545829</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5000</v>
       </c>
@@ -14014,7 +14008,7 @@
         <v>54765365</v>
       </c>
     </row>
-    <row r="65" spans="1:29">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5000</v>
       </c>
@@ -14088,7 +14082,7 @@
         <v>55140946</v>
       </c>
     </row>
-    <row r="66" spans="1:29">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5000</v>
       </c>
@@ -14162,7 +14156,7 @@
         <v>55056798</v>
       </c>
     </row>
-    <row r="68" spans="1:29">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5000</v>
       </c>
@@ -14236,7 +14230,7 @@
         <v>275696515</v>
       </c>
     </row>
-    <row r="69" spans="1:29">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5000</v>
       </c>
@@ -14310,7 +14304,7 @@
         <v>280426750</v>
       </c>
     </row>
-    <row r="70" spans="1:29">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5000</v>
       </c>
@@ -14384,7 +14378,7 @@
         <v>271612410</v>
       </c>
     </row>
-    <row r="71" spans="1:29">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5000</v>
       </c>
@@ -14458,7 +14452,7 @@
         <v>276296512</v>
       </c>
     </row>
-    <row r="72" spans="1:29">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5000</v>
       </c>
@@ -14532,7 +14526,7 @@
         <v>269268645</v>
       </c>
     </row>
-    <row r="73" spans="1:29">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5000</v>
       </c>
@@ -14606,7 +14600,7 @@
         <v>276394806</v>
       </c>
     </row>
-    <row r="74" spans="1:29">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5000</v>
       </c>
@@ -14680,7 +14674,7 @@
         <v>271823507</v>
       </c>
     </row>
-    <row r="75" spans="1:29">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5000</v>
       </c>
@@ -14754,7 +14748,7 @@
         <v>276530266</v>
       </c>
     </row>
-    <row r="76" spans="1:29">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5000</v>
       </c>
@@ -14828,7 +14822,7 @@
         <v>272497178</v>
       </c>
     </row>
-    <row r="77" spans="1:29">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5000</v>
       </c>
@@ -14902,7 +14896,7 @@
         <v>271866172</v>
       </c>
     </row>
-    <row r="79" spans="1:29">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>100000</v>
       </c>
@@ -14943,16 +14937,16 @@
         <v>5</v>
       </c>
       <c r="AA79" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC79" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AB79" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC79" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="80" spans="1:29">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>100000</v>
       </c>
@@ -15008,7 +15002,7 @@
         <v>1004738.3</v>
       </c>
     </row>
-    <row r="81" spans="1:29">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>100000</v>
       </c>
@@ -15064,7 +15058,7 @@
         <v>1689073.6</v>
       </c>
     </row>
-    <row r="82" spans="1:29">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>100000</v>
       </c>
@@ -15120,7 +15114,7 @@
         <v>5705039.7999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:29">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>100000</v>
       </c>
@@ -15176,7 +15170,7 @@
         <v>10655176</v>
       </c>
     </row>
-    <row r="84" spans="1:29">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>100000</v>
       </c>
@@ -15232,7 +15226,7 @@
         <v>50115514.5</v>
       </c>
     </row>
-    <row r="85" spans="1:29">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>100000</v>
       </c>
@@ -15288,7 +15282,7 @@
         <v>98678111.700000003</v>
       </c>
     </row>
-    <row r="86" spans="1:29">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>100000</v>
       </c>
@@ -15344,7 +15338,7 @@
         <v>490851495.5</v>
       </c>
     </row>
-    <row r="87" spans="1:29">
+    <row r="87" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>100000</v>
       </c>
@@ -15370,7 +15364,7 @@
         <v>988319</v>
       </c>
     </row>
-    <row r="88" spans="1:29">
+    <row r="88" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>100000</v>
       </c>
@@ -15396,7 +15390,7 @@
         <v>1002233</v>
       </c>
     </row>
-    <row r="90" spans="1:29">
+    <row r="90" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>100000</v>
       </c>
@@ -15422,7 +15416,7 @@
         <v>1674627</v>
       </c>
     </row>
-    <row r="91" spans="1:29">
+    <row r="91" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>100000</v>
       </c>
@@ -15447,11 +15441,9 @@
       <c r="H91">
         <v>1624101</v>
       </c>
-      <c r="L91" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:29">
+    <row r="92" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>100000</v>
       </c>
@@ -15476,32 +15468,8 @@
       <c r="H92">
         <v>1724961</v>
       </c>
-      <c r="L92" t="s">
-        <v>2</v>
-      </c>
-      <c r="M92" t="s">
-        <v>3</v>
-      </c>
-      <c r="N92" t="s">
-        <v>0</v>
-      </c>
-      <c r="O92" t="s">
-        <v>4</v>
-      </c>
-      <c r="P92" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q92" t="s">
-        <v>8</v>
-      </c>
-      <c r="R92" t="s">
-        <v>9</v>
-      </c>
-      <c r="S92" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="93" spans="1:29">
+    <row r="93" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>100000</v>
       </c>
@@ -15526,32 +15494,8 @@
       <c r="H93">
         <v>1729578</v>
       </c>
-      <c r="L93">
-        <v>5000</v>
-      </c>
-      <c r="M93">
-        <v>5000</v>
-      </c>
-      <c r="N93">
-        <v>9970.9</v>
-      </c>
-      <c r="O93">
-        <v>79772.5</v>
-      </c>
-      <c r="P93">
-        <v>291606.2</v>
-      </c>
-      <c r="Q93">
-        <v>11517.8</v>
-      </c>
-      <c r="R93">
-        <v>66452</v>
-      </c>
-      <c r="S93">
-        <v>322002.2</v>
-      </c>
     </row>
-    <row r="94" spans="1:29">
+    <row r="94" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>100000</v>
       </c>
@@ -15576,32 +15520,8 @@
       <c r="H94">
         <v>1695313</v>
       </c>
-      <c r="L94">
-        <v>5000</v>
-      </c>
-      <c r="M94">
-        <v>10000</v>
-      </c>
-      <c r="N94">
-        <v>19880.3</v>
-      </c>
-      <c r="O94">
-        <v>146110.9</v>
-      </c>
-      <c r="P94">
-        <v>456776.9</v>
-      </c>
-      <c r="Q94">
-        <v>23117.3</v>
-      </c>
-      <c r="R94">
-        <v>108172.9</v>
-      </c>
-      <c r="S94">
-        <v>489205.4</v>
-      </c>
     </row>
-    <row r="95" spans="1:29">
+    <row r="95" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>100000</v>
       </c>
@@ -15626,32 +15546,8 @@
       <c r="H95">
         <v>1677779</v>
       </c>
-      <c r="L95">
-        <v>5000</v>
-      </c>
-      <c r="M95">
-        <v>50000</v>
-      </c>
-      <c r="N95">
-        <v>100861.7</v>
-      </c>
-      <c r="O95">
-        <v>467058.6</v>
-      </c>
-      <c r="P95">
-        <v>1055829.8999999999</v>
-      </c>
-      <c r="Q95">
-        <v>116490.9</v>
-      </c>
-      <c r="R95">
-        <v>361150.3</v>
-      </c>
-      <c r="S95">
-        <v>1128023.2</v>
-      </c>
     </row>
-    <row r="96" spans="1:29">
+    <row r="96" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>100000</v>
       </c>
@@ -15676,32 +15572,8 @@
       <c r="H96">
         <v>1700144</v>
       </c>
-      <c r="L96">
-        <v>5000</v>
-      </c>
-      <c r="M96">
-        <v>100000</v>
-      </c>
-      <c r="N96">
-        <v>197350.39999999999</v>
-      </c>
-      <c r="O96">
-        <v>858739.5</v>
-      </c>
-      <c r="P96">
-        <v>1752739.8</v>
-      </c>
-      <c r="Q96">
-        <v>222878.5</v>
-      </c>
-      <c r="R96">
-        <v>656356.1</v>
-      </c>
-      <c r="S96">
-        <v>1773947.5</v>
-      </c>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>100000</v>
       </c>
@@ -15726,32 +15598,8 @@
       <c r="H97">
         <v>1679213</v>
       </c>
-      <c r="L97">
-        <v>5000</v>
-      </c>
-      <c r="M97">
-        <v>500000</v>
-      </c>
-      <c r="N97">
-        <v>959775.5</v>
-      </c>
-      <c r="O97">
-        <v>3447696.9</v>
-      </c>
-      <c r="P97">
-        <v>7090894.2999999998</v>
-      </c>
-      <c r="Q97">
-        <v>1095399.8999999999</v>
-      </c>
-      <c r="R97">
-        <v>2558004.2000000002</v>
-      </c>
-      <c r="S97">
-        <v>7183431.7999999998</v>
-      </c>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>100000</v>
       </c>
@@ -15776,32 +15624,8 @@
       <c r="H98">
         <v>1721474</v>
       </c>
-      <c r="L98">
-        <v>5000</v>
-      </c>
-      <c r="M98">
-        <v>1000000</v>
-      </c>
-      <c r="N98">
-        <v>1909775.7</v>
-      </c>
-      <c r="O98">
-        <v>7899418.5999999996</v>
-      </c>
-      <c r="P98">
-        <v>13960158.5</v>
-      </c>
-      <c r="Q98">
-        <v>2197575.4</v>
-      </c>
-      <c r="R98">
-        <v>5056828.5</v>
-      </c>
-      <c r="S98">
-        <v>13491963.300000001</v>
-      </c>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>100000</v>
       </c>
@@ -15826,32 +15650,8 @@
       <c r="H99">
         <v>1663546</v>
       </c>
-      <c r="L99">
-        <v>5000</v>
-      </c>
-      <c r="M99">
-        <v>5000000</v>
-      </c>
-      <c r="N99">
-        <v>10876489</v>
-      </c>
-      <c r="O99">
-        <v>45672457.299999997</v>
-      </c>
-      <c r="P99">
-        <v>68522524.599999994</v>
-      </c>
-      <c r="Q99">
-        <v>10928377</v>
-      </c>
-      <c r="R99">
-        <v>24137591.300000001</v>
-      </c>
-      <c r="S99">
-        <v>64459658.399999999</v>
-      </c>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100000</v>
       </c>
@@ -15876,32 +15676,8 @@
       <c r="H101">
         <v>5719639</v>
       </c>
-      <c r="L101" t="s">
-        <v>2</v>
-      </c>
-      <c r="M101" t="s">
-        <v>3</v>
-      </c>
-      <c r="N101" t="s">
-        <v>0</v>
-      </c>
-      <c r="O101" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>8</v>
-      </c>
-      <c r="R101" t="s">
-        <v>9</v>
-      </c>
-      <c r="S101" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100000</v>
       </c>
@@ -15926,32 +15702,8 @@
       <c r="H102">
         <v>5639699</v>
       </c>
-      <c r="L102">
-        <v>10000</v>
-      </c>
-      <c r="M102">
-        <v>5000</v>
-      </c>
-      <c r="N102">
-        <v>12299.2</v>
-      </c>
-      <c r="O102">
-        <v>208239.3</v>
-      </c>
-      <c r="P102">
-        <v>330489.09999999998</v>
-      </c>
-      <c r="Q102">
-        <v>14364</v>
-      </c>
-      <c r="R102">
-        <v>113546.1</v>
-      </c>
-      <c r="S102">
-        <v>361653.5</v>
-      </c>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>100000</v>
       </c>
@@ -15976,32 +15728,8 @@
       <c r="H103">
         <v>5699282</v>
       </c>
-      <c r="L103">
-        <v>10000</v>
-      </c>
-      <c r="M103">
-        <v>10000</v>
-      </c>
-      <c r="N103">
-        <v>24400.7</v>
-      </c>
-      <c r="O103">
-        <v>271224.7</v>
-      </c>
-      <c r="P103">
-        <v>502578.8</v>
-      </c>
-      <c r="Q103">
-        <v>28455.3</v>
-      </c>
-      <c r="R103">
-        <v>195906.5</v>
-      </c>
-      <c r="S103">
-        <v>588746</v>
-      </c>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>100000</v>
       </c>
@@ -16026,32 +15754,8 @@
       <c r="H104">
         <v>5720975</v>
       </c>
-      <c r="L104">
-        <v>10000</v>
-      </c>
-      <c r="M104">
-        <v>50000</v>
-      </c>
-      <c r="N104">
-        <v>122362.5</v>
-      </c>
-      <c r="O104">
-        <v>739522.9</v>
-      </c>
-      <c r="P104">
-        <v>1354752.4</v>
-      </c>
-      <c r="Q104">
-        <v>143314.70000000001</v>
-      </c>
-      <c r="R104">
-        <v>571017.69999999995</v>
-      </c>
-      <c r="S104">
-        <v>1353139.4</v>
-      </c>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>100000</v>
       </c>
@@ -16076,32 +15780,8 @@
       <c r="H105">
         <v>5596788</v>
       </c>
-      <c r="L105">
-        <v>10000</v>
-      </c>
-      <c r="M105">
-        <v>100000</v>
-      </c>
-      <c r="N105">
-        <v>246380.5</v>
-      </c>
-      <c r="O105">
-        <v>1426439.2</v>
-      </c>
-      <c r="P105">
-        <v>2263597.6</v>
-      </c>
-      <c r="Q105">
-        <v>222878.5</v>
-      </c>
-      <c r="R105">
-        <v>1216093.8</v>
-      </c>
-      <c r="S105">
-        <v>2297713.2999999998</v>
-      </c>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>100000</v>
       </c>
@@ -16126,32 +15806,8 @@
       <c r="H106">
         <v>5869032</v>
       </c>
-      <c r="L106">
-        <v>10000</v>
-      </c>
-      <c r="M106">
-        <v>500000</v>
-      </c>
-      <c r="N106">
-        <v>1195373.1000000001</v>
-      </c>
-      <c r="O106">
-        <v>8341881.0999999996</v>
-      </c>
-      <c r="P106">
-        <v>9678266.5999999996</v>
-      </c>
-      <c r="Q106">
-        <v>1380045.5</v>
-      </c>
-      <c r="R106">
-        <v>5102629.0999999996</v>
-      </c>
-      <c r="S106">
-        <v>9477921.3000000007</v>
-      </c>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>100000</v>
       </c>
@@ -16176,32 +15832,8 @@
       <c r="H107">
         <v>5756962</v>
       </c>
-      <c r="L107">
-        <v>10000</v>
-      </c>
-      <c r="M107">
-        <v>1000000</v>
-      </c>
-      <c r="N107">
-        <v>2389159.6</v>
-      </c>
-      <c r="O107">
-        <v>18068925.100000001</v>
-      </c>
-      <c r="P107">
-        <v>18850725.399999999</v>
-      </c>
-      <c r="Q107">
-        <v>2755064.5</v>
-      </c>
-      <c r="R107">
-        <v>9798163.5999999996</v>
-      </c>
-      <c r="S107">
-        <v>18417889.5</v>
-      </c>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>100000</v>
       </c>
@@ -16226,32 +15858,8 @@
       <c r="H108">
         <v>5700358</v>
       </c>
-      <c r="L108">
-        <v>10000</v>
-      </c>
-      <c r="M108">
-        <v>5000000</v>
-      </c>
-      <c r="N108">
-        <v>13581018.199999999</v>
-      </c>
-      <c r="O108">
-        <v>95327682.099999994</v>
-      </c>
-      <c r="P108">
-        <v>91779569</v>
-      </c>
-      <c r="Q108">
-        <v>13752032.199999999</v>
-      </c>
-      <c r="R108">
-        <v>48111731.799999997</v>
-      </c>
-      <c r="S108">
-        <v>87337767.400000006</v>
-      </c>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>100000</v>
       </c>
@@ -16277,7 +15885,7 @@
         <v>5608190</v>
       </c>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>100000</v>
       </c>
@@ -16302,58 +15910,8 @@
       <c r="H110">
         <v>5739473</v>
       </c>
-      <c r="L110" t="s">
-        <v>2</v>
-      </c>
-      <c r="M110" t="s">
-        <v>3</v>
-      </c>
-      <c r="N110" t="s">
-        <v>0</v>
-      </c>
-      <c r="O110" t="s">
-        <v>4</v>
-      </c>
-      <c r="P110" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q110" t="s">
-        <v>8</v>
-      </c>
-      <c r="R110" t="s">
-        <v>9</v>
-      </c>
-      <c r="S110" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="111" spans="1:19">
-      <c r="L111">
-        <v>50000</v>
-      </c>
-      <c r="M111">
-        <v>5000</v>
-      </c>
-      <c r="N111">
-        <v>44120.9</v>
-      </c>
-      <c r="O111">
-        <v>466016.6</v>
-      </c>
-      <c r="P111">
-        <v>609811.9</v>
-      </c>
-      <c r="Q111">
-        <v>54956.9</v>
-      </c>
-      <c r="R111">
-        <v>431898.3</v>
-      </c>
-      <c r="S111">
-        <v>681380.3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:19">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>100000</v>
       </c>
@@ -16378,32 +15936,8 @@
       <c r="H112">
         <v>10597983</v>
       </c>
-      <c r="L112">
-        <v>50000</v>
-      </c>
-      <c r="M112">
-        <v>10000</v>
-      </c>
-      <c r="N112">
-        <v>88472.5</v>
-      </c>
-      <c r="O112">
-        <v>771765.4</v>
-      </c>
-      <c r="P112">
-        <v>1046592.2</v>
-      </c>
-      <c r="Q112">
-        <v>110117.9</v>
-      </c>
-      <c r="R112">
-        <v>654407.6</v>
-      </c>
-      <c r="S112">
-        <v>1044069.7</v>
-      </c>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>100000</v>
       </c>
@@ -16428,32 +15962,8 @@
       <c r="H113">
         <v>10725091</v>
       </c>
-      <c r="L113">
-        <v>50000</v>
-      </c>
-      <c r="M113">
-        <v>50000</v>
-      </c>
-      <c r="N113">
-        <v>446984.4</v>
-      </c>
-      <c r="O113">
-        <v>3484278.7</v>
-      </c>
-      <c r="P113">
-        <v>3397678.4</v>
-      </c>
-      <c r="Q113">
-        <v>551738.1</v>
-      </c>
-      <c r="R113">
-        <v>2625898.4</v>
-      </c>
-      <c r="S113">
-        <v>3360506.8</v>
-      </c>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>100000</v>
       </c>
@@ -16478,32 +15988,8 @@
       <c r="H114">
         <v>10676681</v>
       </c>
-      <c r="L114">
-        <v>50000</v>
-      </c>
-      <c r="M114">
-        <v>100000</v>
-      </c>
-      <c r="N114">
-        <v>973952</v>
-      </c>
-      <c r="O114">
-        <v>9187598.9000000004</v>
-      </c>
-      <c r="P114">
-        <v>6248470.7000000002</v>
-      </c>
-      <c r="Q114">
-        <v>1097152</v>
-      </c>
-      <c r="R114">
-        <v>5704343.0999999996</v>
-      </c>
-      <c r="S114">
-        <v>6156201.5999999996</v>
-      </c>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>100000</v>
       </c>
@@ -16528,32 +16014,8 @@
       <c r="H115">
         <v>10683472</v>
       </c>
-      <c r="L115">
-        <v>50000</v>
-      </c>
-      <c r="M115">
-        <v>500000</v>
-      </c>
-      <c r="N115">
-        <v>4700365.9000000004</v>
-      </c>
-      <c r="O115">
-        <v>46143157.399999999</v>
-      </c>
-      <c r="P115">
-        <v>28961120.399999999</v>
-      </c>
-      <c r="Q115">
-        <v>5438355.7000000002</v>
-      </c>
-      <c r="R115">
-        <v>24755152.800000001</v>
-      </c>
-      <c r="S115">
-        <v>27909408</v>
-      </c>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>100000</v>
       </c>
@@ -16578,32 +16040,8 @@
       <c r="H116">
         <v>10586291</v>
       </c>
-      <c r="L116">
-        <v>50000</v>
-      </c>
-      <c r="M116">
-        <v>1000000</v>
-      </c>
-      <c r="N116">
-        <v>8741741</v>
-      </c>
-      <c r="O116">
-        <v>91565425.299999997</v>
-      </c>
-      <c r="P116">
-        <v>57251846.5</v>
-      </c>
-      <c r="Q116">
-        <v>10855417.4</v>
-      </c>
-      <c r="R116">
-        <v>48508983.5</v>
-      </c>
-      <c r="S116">
-        <v>55869778.200000003</v>
-      </c>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>100000</v>
       </c>
@@ -16628,32 +16066,8 @@
       <c r="H117">
         <v>10632097</v>
       </c>
-      <c r="L117">
-        <v>50000</v>
-      </c>
-      <c r="M117">
-        <v>5000000</v>
-      </c>
-      <c r="N117">
-        <v>54138031.200000003</v>
-      </c>
-      <c r="O117">
-        <v>462161146.10000002</v>
-      </c>
-      <c r="P117">
-        <v>281289617.39999998</v>
-      </c>
-      <c r="Q117">
-        <v>54213727.899999999</v>
-      </c>
-      <c r="R117">
-        <v>239146874.59999999</v>
-      </c>
-      <c r="S117">
-        <v>274241276.10000002</v>
-      </c>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>100000</v>
       </c>
@@ -16679,7 +16093,7 @@
         <v>10666095</v>
       </c>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>100000</v>
       </c>
@@ -16704,32 +16118,8 @@
       <c r="H119">
         <v>10762224</v>
       </c>
-      <c r="L119" t="s">
-        <v>2</v>
-      </c>
-      <c r="M119" t="s">
-        <v>3</v>
-      </c>
-      <c r="N119" t="s">
-        <v>0</v>
-      </c>
-      <c r="O119" t="s">
-        <v>4</v>
-      </c>
-      <c r="P119" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>8</v>
-      </c>
-      <c r="R119" t="s">
-        <v>9</v>
-      </c>
-      <c r="S119" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>100000</v>
       </c>
@@ -16754,32 +16144,8 @@
       <c r="H120">
         <v>10571417</v>
       </c>
-      <c r="L120">
-        <v>100000</v>
-      </c>
-      <c r="M120">
-        <v>5000</v>
-      </c>
-      <c r="N120">
-        <v>97381.5</v>
-      </c>
-      <c r="O120">
-        <v>893603.1</v>
-      </c>
-      <c r="P120">
-        <v>992377.2</v>
-      </c>
-      <c r="Q120">
-        <v>97357.7</v>
-      </c>
-      <c r="R120">
-        <v>726548.6</v>
-      </c>
-      <c r="S120">
-        <v>1004738.3</v>
-      </c>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>100000</v>
       </c>
@@ -16804,58 +16170,8 @@
       <c r="H121">
         <v>10650409</v>
       </c>
-      <c r="L121">
-        <v>100000</v>
-      </c>
-      <c r="M121">
-        <v>10000</v>
-      </c>
-      <c r="N121">
-        <v>194961.7</v>
-      </c>
-      <c r="O121">
-        <v>1408607.3</v>
-      </c>
-      <c r="P121">
-        <v>1708004.2</v>
-      </c>
-      <c r="Q121">
-        <v>197475.8</v>
-      </c>
-      <c r="R121">
-        <v>1283777</v>
-      </c>
-      <c r="S121">
-        <v>1689073.6</v>
-      </c>
     </row>
-    <row r="122" spans="1:19">
-      <c r="L122">
-        <v>100000</v>
-      </c>
-      <c r="M122">
-        <v>50000</v>
-      </c>
-      <c r="N122">
-        <v>978115.5</v>
-      </c>
-      <c r="O122">
-        <v>7737425</v>
-      </c>
-      <c r="P122">
-        <v>5770160.2000000002</v>
-      </c>
-      <c r="Q122">
-        <v>976651.6</v>
-      </c>
-      <c r="R122">
-        <v>4990819.5</v>
-      </c>
-      <c r="S122">
-        <v>5705039.7999999998</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>100000</v>
       </c>
@@ -16880,32 +16196,8 @@
       <c r="H123">
         <v>49636566</v>
       </c>
-      <c r="L123">
-        <v>100000</v>
-      </c>
-      <c r="M123">
-        <v>100000</v>
-      </c>
-      <c r="N123">
-        <v>1943006.8</v>
-      </c>
-      <c r="O123">
-        <v>19404788.5</v>
-      </c>
-      <c r="P123">
-        <v>10835224.699999999</v>
-      </c>
-      <c r="Q123">
-        <v>1948968.3</v>
-      </c>
-      <c r="R123">
-        <v>10623746.4</v>
-      </c>
-      <c r="S123">
-        <v>10655176</v>
-      </c>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>100000</v>
       </c>
@@ -16930,32 +16222,8 @@
       <c r="H124">
         <v>50206888</v>
       </c>
-      <c r="L124">
-        <v>100000</v>
-      </c>
-      <c r="M124">
-        <v>500000</v>
-      </c>
-      <c r="N124">
-        <v>9655528.3000000007</v>
-      </c>
-      <c r="O124">
-        <v>91776531.799999997</v>
-      </c>
-      <c r="P124">
-        <v>50412969.899999999</v>
-      </c>
-      <c r="Q124">
-        <v>9659303.9000000004</v>
-      </c>
-      <c r="R124">
-        <v>49333906.299999997</v>
-      </c>
-      <c r="S124">
-        <v>50115514.5</v>
-      </c>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>100000</v>
       </c>
@@ -16980,32 +16248,8 @@
       <c r="H125">
         <v>51865714</v>
       </c>
-      <c r="L125">
-        <v>100000</v>
-      </c>
-      <c r="M125">
-        <v>1000000</v>
-      </c>
-      <c r="N125">
-        <v>19285432.800000001</v>
-      </c>
-      <c r="O125">
-        <v>181934729.59999999</v>
-      </c>
-      <c r="P125">
-        <v>99592545.5</v>
-      </c>
-      <c r="Q125">
-        <v>19300513.5</v>
-      </c>
-      <c r="R125">
-        <v>97119909.099999994</v>
-      </c>
-      <c r="S125">
-        <v>98678111.700000003</v>
-      </c>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>100000</v>
       </c>
@@ -17030,32 +16274,8 @@
       <c r="H126">
         <v>49756533</v>
       </c>
-      <c r="L126">
-        <v>100000</v>
-      </c>
-      <c r="M126">
-        <v>5000000</v>
-      </c>
-      <c r="N126">
-        <v>96379329.5</v>
-      </c>
-      <c r="O126">
-        <v>911109847.20000005</v>
-      </c>
-      <c r="P126">
-        <v>492366229.60000002</v>
-      </c>
-      <c r="Q126">
-        <v>96373680.799999997</v>
-      </c>
-      <c r="R126">
-        <v>478218174.69999999</v>
-      </c>
-      <c r="S126">
-        <v>490851495.5</v>
-      </c>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>100000</v>
       </c>
@@ -17081,7 +16301,7 @@
         <v>49800757</v>
       </c>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>100000</v>
       </c>
@@ -17106,11 +16326,9 @@
       <c r="H128">
         <v>49836332</v>
       </c>
-      <c r="L128" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>100000</v>
       </c>
@@ -17135,32 +16353,8 @@
       <c r="H129">
         <v>51193245</v>
       </c>
-      <c r="L129" t="s">
-        <v>2</v>
-      </c>
-      <c r="M129" t="s">
-        <v>3</v>
-      </c>
-      <c r="N129" t="s">
-        <v>0</v>
-      </c>
-      <c r="O129" t="s">
-        <v>4</v>
-      </c>
-      <c r="P129" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q129" t="s">
-        <v>8</v>
-      </c>
-      <c r="R129" t="s">
-        <v>9</v>
-      </c>
-      <c r="S129" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>100000</v>
       </c>
@@ -17185,38 +16379,8 @@
       <c r="H130">
         <v>49610062</v>
       </c>
-      <c r="L130">
-        <v>5000</v>
-      </c>
-      <c r="M130">
-        <v>5000</v>
-      </c>
-      <c r="N130">
-        <f>N93*10</f>
-        <v>99709</v>
-      </c>
-      <c r="O130">
-        <f t="shared" ref="O130:S130" si="28">O93*10</f>
-        <v>797725</v>
-      </c>
-      <c r="P130">
-        <f t="shared" si="28"/>
-        <v>2916062</v>
-      </c>
-      <c r="Q130">
-        <f t="shared" si="28"/>
-        <v>115178</v>
-      </c>
-      <c r="R130">
-        <f t="shared" si="28"/>
-        <v>664520</v>
-      </c>
-      <c r="S130">
-        <f t="shared" si="28"/>
-        <v>3220022</v>
-      </c>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>100000</v>
       </c>
@@ -17241,38 +16405,8 @@
       <c r="H131">
         <v>49702101</v>
       </c>
-      <c r="L131">
-        <v>5000</v>
-      </c>
-      <c r="M131">
-        <v>10000</v>
-      </c>
-      <c r="N131">
-        <f t="shared" ref="N131:S131" si="29">N94*10</f>
-        <v>198803</v>
-      </c>
-      <c r="O131">
-        <f t="shared" si="29"/>
-        <v>1461109</v>
-      </c>
-      <c r="P131">
-        <f t="shared" si="29"/>
-        <v>4567769</v>
-      </c>
-      <c r="Q131">
-        <f t="shared" si="29"/>
-        <v>231173</v>
-      </c>
-      <c r="R131">
-        <f t="shared" si="29"/>
-        <v>1081729</v>
-      </c>
-      <c r="S131">
-        <f t="shared" si="29"/>
-        <v>4892054</v>
-      </c>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>100000</v>
       </c>
@@ -17297,70 +16431,8 @@
       <c r="H132">
         <v>49546947</v>
       </c>
-      <c r="L132">
-        <v>5000</v>
-      </c>
-      <c r="M132">
-        <v>50000</v>
-      </c>
-      <c r="N132">
-        <f t="shared" ref="N132:S132" si="30">N95*10</f>
-        <v>1008617</v>
-      </c>
-      <c r="O132">
-        <f t="shared" si="30"/>
-        <v>4670586</v>
-      </c>
-      <c r="P132">
-        <f t="shared" si="30"/>
-        <v>10558299</v>
-      </c>
-      <c r="Q132">
-        <f t="shared" si="30"/>
-        <v>1164909</v>
-      </c>
-      <c r="R132">
-        <f t="shared" si="30"/>
-        <v>3611503</v>
-      </c>
-      <c r="S132">
-        <f t="shared" si="30"/>
-        <v>11280232</v>
-      </c>
     </row>
-    <row r="133" spans="1:19">
-      <c r="L133">
-        <v>5000</v>
-      </c>
-      <c r="M133">
-        <v>100000</v>
-      </c>
-      <c r="N133">
-        <f t="shared" ref="N133:S133" si="31">N96*10</f>
-        <v>1973504</v>
-      </c>
-      <c r="O133">
-        <f t="shared" si="31"/>
-        <v>8587395</v>
-      </c>
-      <c r="P133">
-        <f t="shared" si="31"/>
-        <v>17527398</v>
-      </c>
-      <c r="Q133">
-        <f t="shared" si="31"/>
-        <v>2228785</v>
-      </c>
-      <c r="R133">
-        <f t="shared" si="31"/>
-        <v>6563561</v>
-      </c>
-      <c r="S133">
-        <f t="shared" si="31"/>
-        <v>17739475</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>100000</v>
       </c>
@@ -17385,38 +16457,8 @@
       <c r="H134">
         <v>97781857</v>
       </c>
-      <c r="L134">
-        <v>5000</v>
-      </c>
-      <c r="M134">
-        <v>500000</v>
-      </c>
-      <c r="N134">
-        <f t="shared" ref="N134:S134" si="32">N97*10</f>
-        <v>9597755</v>
-      </c>
-      <c r="O134">
-        <f t="shared" si="32"/>
-        <v>34476969</v>
-      </c>
-      <c r="P134">
-        <f t="shared" si="32"/>
-        <v>70908943</v>
-      </c>
-      <c r="Q134">
-        <f t="shared" si="32"/>
-        <v>10953999</v>
-      </c>
-      <c r="R134">
-        <f t="shared" si="32"/>
-        <v>25580042</v>
-      </c>
-      <c r="S134">
-        <f t="shared" si="32"/>
-        <v>71834318</v>
-      </c>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>100000</v>
       </c>
@@ -17441,38 +16483,8 @@
       <c r="H135">
         <v>98604969</v>
       </c>
-      <c r="L135">
-        <v>5000</v>
-      </c>
-      <c r="M135">
-        <v>1000000</v>
-      </c>
-      <c r="N135">
-        <f t="shared" ref="N135:S135" si="33">N98*10</f>
-        <v>19097757</v>
-      </c>
-      <c r="O135">
-        <f t="shared" si="33"/>
-        <v>78994186</v>
-      </c>
-      <c r="P135">
-        <f t="shared" si="33"/>
-        <v>139601585</v>
-      </c>
-      <c r="Q135">
-        <f t="shared" si="33"/>
-        <v>21975754</v>
-      </c>
-      <c r="R135">
-        <f t="shared" si="33"/>
-        <v>50568285</v>
-      </c>
-      <c r="S135">
-        <f t="shared" si="33"/>
-        <v>134919633</v>
-      </c>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>100000</v>
       </c>
@@ -17497,38 +16509,8 @@
       <c r="H136">
         <v>98147004</v>
       </c>
-      <c r="L136">
-        <v>5000</v>
-      </c>
-      <c r="M136">
-        <v>5000000</v>
-      </c>
-      <c r="N136">
-        <f t="shared" ref="N136:S136" si="34">N99*10</f>
-        <v>108764890</v>
-      </c>
-      <c r="O136">
-        <f t="shared" si="34"/>
-        <v>456724573</v>
-      </c>
-      <c r="P136">
-        <f t="shared" si="34"/>
-        <v>685225246</v>
-      </c>
-      <c r="Q136">
-        <f t="shared" si="34"/>
-        <v>109283770</v>
-      </c>
-      <c r="R136">
-        <f t="shared" si="34"/>
-        <v>241375913</v>
-      </c>
-      <c r="S136">
-        <f t="shared" si="34"/>
-        <v>644596584</v>
-      </c>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>100000</v>
       </c>
@@ -17554,7 +16536,7 @@
         <v>97862168</v>
       </c>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>100000</v>
       </c>
@@ -17579,32 +16561,8 @@
       <c r="H138">
         <v>102443712</v>
       </c>
-      <c r="L138" t="s">
-        <v>2</v>
-      </c>
-      <c r="M138" t="s">
-        <v>3</v>
-      </c>
-      <c r="N138" t="s">
-        <v>0</v>
-      </c>
-      <c r="O138" t="s">
-        <v>4</v>
-      </c>
-      <c r="P138" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q138" t="s">
-        <v>8</v>
-      </c>
-      <c r="R138" t="s">
-        <v>9</v>
-      </c>
-      <c r="S138" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>100000</v>
       </c>
@@ -17629,38 +16587,8 @@
       <c r="H139">
         <v>97438882</v>
       </c>
-      <c r="L139">
-        <v>10000</v>
-      </c>
-      <c r="M139">
-        <v>5000</v>
-      </c>
-      <c r="N139">
-        <f t="shared" ref="N139:S139" si="35">N102*10</f>
-        <v>122992</v>
-      </c>
-      <c r="O139">
-        <f t="shared" si="35"/>
-        <v>2082393</v>
-      </c>
-      <c r="P139">
-        <f t="shared" si="35"/>
-        <v>3304891</v>
-      </c>
-      <c r="Q139">
-        <f t="shared" si="35"/>
-        <v>143640</v>
-      </c>
-      <c r="R139">
-        <f t="shared" si="35"/>
-        <v>1135461</v>
-      </c>
-      <c r="S139">
-        <f t="shared" si="35"/>
-        <v>3616535</v>
-      </c>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>100000</v>
       </c>
@@ -17685,38 +16613,8 @@
       <c r="H140">
         <v>98923592</v>
       </c>
-      <c r="L140">
-        <v>10000</v>
-      </c>
-      <c r="M140">
-        <v>10000</v>
-      </c>
-      <c r="N140">
-        <f t="shared" ref="N140:S140" si="36">N103*10</f>
-        <v>244007</v>
-      </c>
-      <c r="O140">
-        <f t="shared" si="36"/>
-        <v>2712247</v>
-      </c>
-      <c r="P140">
-        <f t="shared" si="36"/>
-        <v>5025788</v>
-      </c>
-      <c r="Q140">
-        <f t="shared" si="36"/>
-        <v>284553</v>
-      </c>
-      <c r="R140">
-        <f t="shared" si="36"/>
-        <v>1959065</v>
-      </c>
-      <c r="S140">
-        <f t="shared" si="36"/>
-        <v>5887460</v>
-      </c>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>100000</v>
       </c>
@@ -17741,38 +16639,8 @@
       <c r="H141">
         <v>97926298</v>
       </c>
-      <c r="L141">
-        <v>10000</v>
-      </c>
-      <c r="M141">
-        <v>50000</v>
-      </c>
-      <c r="N141">
-        <f t="shared" ref="N141:S141" si="37">N104*10</f>
-        <v>1223625</v>
-      </c>
-      <c r="O141">
-        <f t="shared" si="37"/>
-        <v>7395229</v>
-      </c>
-      <c r="P141">
-        <f t="shared" si="37"/>
-        <v>13547524</v>
-      </c>
-      <c r="Q141">
-        <f t="shared" si="37"/>
-        <v>1433147</v>
-      </c>
-      <c r="R141">
-        <f t="shared" si="37"/>
-        <v>5710177</v>
-      </c>
-      <c r="S141">
-        <f t="shared" si="37"/>
-        <v>13531394</v>
-      </c>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>100000</v>
       </c>
@@ -17797,38 +16665,8 @@
       <c r="H142">
         <v>99474869</v>
       </c>
-      <c r="L142">
-        <v>10000</v>
-      </c>
-      <c r="M142">
-        <v>100000</v>
-      </c>
-      <c r="N142">
-        <f t="shared" ref="N142:S142" si="38">N105*10</f>
-        <v>2463805</v>
-      </c>
-      <c r="O142">
-        <f t="shared" si="38"/>
-        <v>14264392</v>
-      </c>
-      <c r="P142">
-        <f t="shared" si="38"/>
-        <v>22635976</v>
-      </c>
-      <c r="Q142">
-        <f t="shared" si="38"/>
-        <v>2228785</v>
-      </c>
-      <c r="R142">
-        <f t="shared" si="38"/>
-        <v>12160938</v>
-      </c>
-      <c r="S142">
-        <f t="shared" si="38"/>
-        <v>22977133</v>
-      </c>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>100000</v>
       </c>
@@ -17853,70 +16691,8 @@
       <c r="H143">
         <v>98177766</v>
       </c>
-      <c r="L143">
-        <v>10000</v>
-      </c>
-      <c r="M143">
-        <v>500000</v>
-      </c>
-      <c r="N143">
-        <f t="shared" ref="N143:S143" si="39">N106*10</f>
-        <v>11953731</v>
-      </c>
-      <c r="O143">
-        <f t="shared" si="39"/>
-        <v>83418811</v>
-      </c>
-      <c r="P143">
-        <f t="shared" si="39"/>
-        <v>96782666</v>
-      </c>
-      <c r="Q143">
-        <f t="shared" si="39"/>
-        <v>13800455</v>
-      </c>
-      <c r="R143">
-        <f t="shared" si="39"/>
-        <v>51026291</v>
-      </c>
-      <c r="S143">
-        <f t="shared" si="39"/>
-        <v>94779213</v>
-      </c>
     </row>
-    <row r="144" spans="1:19">
-      <c r="L144">
-        <v>10000</v>
-      </c>
-      <c r="M144">
-        <v>1000000</v>
-      </c>
-      <c r="N144">
-        <f t="shared" ref="N144:S144" si="40">N107*10</f>
-        <v>23891596</v>
-      </c>
-      <c r="O144">
-        <f t="shared" si="40"/>
-        <v>180689251</v>
-      </c>
-      <c r="P144">
-        <f t="shared" si="40"/>
-        <v>188507254</v>
-      </c>
-      <c r="Q144">
-        <f t="shared" si="40"/>
-        <v>27550645</v>
-      </c>
-      <c r="R144">
-        <f t="shared" si="40"/>
-        <v>97981636</v>
-      </c>
-      <c r="S144">
-        <f t="shared" si="40"/>
-        <v>184178895</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>100000</v>
       </c>
@@ -17941,38 +16717,8 @@
       <c r="H145">
         <v>507276304</v>
       </c>
-      <c r="L145">
-        <v>10000</v>
-      </c>
-      <c r="M145">
-        <v>5000000</v>
-      </c>
-      <c r="N145">
-        <f t="shared" ref="N145:S145" si="41">N108*10</f>
-        <v>135810182</v>
-      </c>
-      <c r="O145">
-        <f t="shared" si="41"/>
-        <v>953276821</v>
-      </c>
-      <c r="P145">
-        <f t="shared" si="41"/>
-        <v>917795690</v>
-      </c>
-      <c r="Q145">
-        <f t="shared" si="41"/>
-        <v>137520322</v>
-      </c>
-      <c r="R145">
-        <f t="shared" si="41"/>
-        <v>481117318</v>
-      </c>
-      <c r="S145">
-        <f t="shared" si="41"/>
-        <v>873377674</v>
-      </c>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>100000</v>
       </c>
@@ -17998,7 +16744,7 @@
         <v>485025822</v>
       </c>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>100000</v>
       </c>
@@ -18023,32 +16769,8 @@
       <c r="H147">
         <v>483142398</v>
       </c>
-      <c r="L147" t="s">
-        <v>2</v>
-      </c>
-      <c r="M147" t="s">
-        <v>3</v>
-      </c>
-      <c r="N147" t="s">
-        <v>0</v>
-      </c>
-      <c r="O147" t="s">
-        <v>4</v>
-      </c>
-      <c r="P147" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q147" t="s">
-        <v>8</v>
-      </c>
-      <c r="R147" t="s">
-        <v>9</v>
-      </c>
-      <c r="S147" t="s">
-        <v>10</v>
-      </c>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>100000</v>
       </c>
@@ -18073,38 +16795,8 @@
       <c r="H148">
         <v>498426628</v>
       </c>
-      <c r="L148">
-        <v>50000</v>
-      </c>
-      <c r="M148">
-        <v>5000</v>
-      </c>
-      <c r="N148">
-        <f t="shared" ref="N148:S148" si="42">N111*10</f>
-        <v>441209</v>
-      </c>
-      <c r="O148">
-        <f t="shared" si="42"/>
-        <v>4660166</v>
-      </c>
-      <c r="P148">
-        <f t="shared" si="42"/>
-        <v>6098119</v>
-      </c>
-      <c r="Q148">
-        <f t="shared" si="42"/>
-        <v>549569</v>
-      </c>
-      <c r="R148">
-        <f t="shared" si="42"/>
-        <v>4318983</v>
-      </c>
-      <c r="S148">
-        <f t="shared" si="42"/>
-        <v>6813803</v>
-      </c>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>100000</v>
       </c>
@@ -18129,38 +16821,8 @@
       <c r="H149">
         <v>484277051</v>
       </c>
-      <c r="L149">
-        <v>50000</v>
-      </c>
-      <c r="M149">
-        <v>10000</v>
-      </c>
-      <c r="N149">
-        <f t="shared" ref="N149:S149" si="43">N112*10</f>
-        <v>884725</v>
-      </c>
-      <c r="O149">
-        <f t="shared" si="43"/>
-        <v>7717654</v>
-      </c>
-      <c r="P149">
-        <f t="shared" si="43"/>
-        <v>10465922</v>
-      </c>
-      <c r="Q149">
-        <f t="shared" si="43"/>
-        <v>1101179</v>
-      </c>
-      <c r="R149">
-        <f t="shared" si="43"/>
-        <v>6544076</v>
-      </c>
-      <c r="S149">
-        <f t="shared" si="43"/>
-        <v>10440697</v>
-      </c>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>100000</v>
       </c>
@@ -18185,38 +16847,8 @@
       <c r="H150">
         <v>489446116</v>
       </c>
-      <c r="L150">
-        <v>50000</v>
-      </c>
-      <c r="M150">
-        <v>50000</v>
-      </c>
-      <c r="N150">
-        <f t="shared" ref="N150:S150" si="44">N113*10</f>
-        <v>4469844</v>
-      </c>
-      <c r="O150">
-        <f t="shared" si="44"/>
-        <v>34842787</v>
-      </c>
-      <c r="P150">
-        <f t="shared" si="44"/>
-        <v>33976784</v>
-      </c>
-      <c r="Q150">
-        <f t="shared" si="44"/>
-        <v>5517381</v>
-      </c>
-      <c r="R150">
-        <f t="shared" si="44"/>
-        <v>26258984</v>
-      </c>
-      <c r="S150">
-        <f t="shared" si="44"/>
-        <v>33605068</v>
-      </c>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>100000</v>
       </c>
@@ -18241,38 +16873,8 @@
       <c r="H151">
         <v>484600389</v>
       </c>
-      <c r="L151">
-        <v>50000</v>
-      </c>
-      <c r="M151">
-        <v>100000</v>
-      </c>
-      <c r="N151">
-        <f t="shared" ref="N151:S151" si="45">N114*10</f>
-        <v>9739520</v>
-      </c>
-      <c r="O151">
-        <f t="shared" si="45"/>
-        <v>91875989</v>
-      </c>
-      <c r="P151">
-        <f t="shared" si="45"/>
-        <v>62484707</v>
-      </c>
-      <c r="Q151">
-        <f t="shared" si="45"/>
-        <v>10971520</v>
-      </c>
-      <c r="R151">
-        <f t="shared" si="45"/>
-        <v>57043431</v>
-      </c>
-      <c r="S151">
-        <f t="shared" si="45"/>
-        <v>61562016</v>
-      </c>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>100000</v>
       </c>
@@ -18297,38 +16899,8 @@
       <c r="H152">
         <v>501924530</v>
       </c>
-      <c r="L152">
-        <v>50000</v>
-      </c>
-      <c r="M152">
-        <v>500000</v>
-      </c>
-      <c r="N152">
-        <f t="shared" ref="N152:S152" si="46">N115*10</f>
-        <v>47003659</v>
-      </c>
-      <c r="O152">
-        <f t="shared" si="46"/>
-        <v>461431574</v>
-      </c>
-      <c r="P152">
-        <f t="shared" si="46"/>
-        <v>289611204</v>
-      </c>
-      <c r="Q152">
-        <f t="shared" si="46"/>
-        <v>54383557</v>
-      </c>
-      <c r="R152">
-        <f t="shared" si="46"/>
-        <v>247551528</v>
-      </c>
-      <c r="S152">
-        <f t="shared" si="46"/>
-        <v>279094080</v>
-      </c>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>100000</v>
       </c>
@@ -18353,38 +16925,8 @@
       <c r="H153">
         <v>491099893</v>
       </c>
-      <c r="L153">
-        <v>50000</v>
-      </c>
-      <c r="M153">
-        <v>1000000</v>
-      </c>
-      <c r="N153">
-        <f t="shared" ref="N153:S153" si="47">N116*10</f>
-        <v>87417410</v>
-      </c>
-      <c r="O153">
-        <f t="shared" si="47"/>
-        <v>915654253</v>
-      </c>
-      <c r="P153">
-        <f t="shared" si="47"/>
-        <v>572518465</v>
-      </c>
-      <c r="Q153">
-        <f t="shared" si="47"/>
-        <v>108554174</v>
-      </c>
-      <c r="R153">
-        <f t="shared" si="47"/>
-        <v>485089835</v>
-      </c>
-      <c r="S153">
-        <f t="shared" si="47"/>
-        <v>558697782</v>
-      </c>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>100000</v>
       </c>
@@ -18408,286 +16950,6 @@
       </c>
       <c r="H154">
         <v>483295824</v>
-      </c>
-      <c r="L154">
-        <v>50000</v>
-      </c>
-      <c r="M154">
-        <v>5000000</v>
-      </c>
-      <c r="N154">
-        <f t="shared" ref="N154:S154" si="48">N117*10</f>
-        <v>541380312</v>
-      </c>
-      <c r="O154">
-        <f t="shared" si="48"/>
-        <v>4621611461</v>
-      </c>
-      <c r="P154">
-        <f t="shared" si="48"/>
-        <v>2812896174</v>
-      </c>
-      <c r="Q154">
-        <f t="shared" si="48"/>
-        <v>542137279</v>
-      </c>
-      <c r="R154">
-        <f t="shared" si="48"/>
-        <v>2391468746</v>
-      </c>
-      <c r="S154">
-        <f t="shared" si="48"/>
-        <v>2742412761</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19">
-      <c r="L156" t="s">
-        <v>2</v>
-      </c>
-      <c r="M156" t="s">
-        <v>3</v>
-      </c>
-      <c r="N156" t="s">
-        <v>0</v>
-      </c>
-      <c r="O156" t="s">
-        <v>4</v>
-      </c>
-      <c r="P156" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q156" t="s">
-        <v>8</v>
-      </c>
-      <c r="R156" t="s">
-        <v>9</v>
-      </c>
-      <c r="S156" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="157" spans="1:19">
-      <c r="L157">
-        <v>100000</v>
-      </c>
-      <c r="M157">
-        <v>5000</v>
-      </c>
-      <c r="N157">
-        <f t="shared" ref="N157:S157" si="49">N120*10</f>
-        <v>973815</v>
-      </c>
-      <c r="O157">
-        <f t="shared" si="49"/>
-        <v>8936031</v>
-      </c>
-      <c r="P157">
-        <f t="shared" si="49"/>
-        <v>9923772</v>
-      </c>
-      <c r="Q157">
-        <f t="shared" si="49"/>
-        <v>973577</v>
-      </c>
-      <c r="R157">
-        <f t="shared" si="49"/>
-        <v>7265486</v>
-      </c>
-      <c r="S157">
-        <f t="shared" si="49"/>
-        <v>10047383</v>
-      </c>
-    </row>
-    <row r="158" spans="1:19">
-      <c r="L158">
-        <v>100000</v>
-      </c>
-      <c r="M158">
-        <v>10000</v>
-      </c>
-      <c r="N158">
-        <f t="shared" ref="N158:S158" si="50">N121*10</f>
-        <v>1949617</v>
-      </c>
-      <c r="O158">
-        <f t="shared" si="50"/>
-        <v>14086073</v>
-      </c>
-      <c r="P158">
-        <f t="shared" si="50"/>
-        <v>17080042</v>
-      </c>
-      <c r="Q158">
-        <f t="shared" si="50"/>
-        <v>1974758</v>
-      </c>
-      <c r="R158">
-        <f t="shared" si="50"/>
-        <v>12837770</v>
-      </c>
-      <c r="S158">
-        <f t="shared" si="50"/>
-        <v>16890736</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19">
-      <c r="L159">
-        <v>100000</v>
-      </c>
-      <c r="M159">
-        <v>50000</v>
-      </c>
-      <c r="N159">
-        <f t="shared" ref="N159:S159" si="51">N122*10</f>
-        <v>9781155</v>
-      </c>
-      <c r="O159">
-        <f t="shared" si="51"/>
-        <v>77374250</v>
-      </c>
-      <c r="P159">
-        <f t="shared" si="51"/>
-        <v>57701602</v>
-      </c>
-      <c r="Q159">
-        <f t="shared" si="51"/>
-        <v>9766516</v>
-      </c>
-      <c r="R159">
-        <f t="shared" si="51"/>
-        <v>49908195</v>
-      </c>
-      <c r="S159">
-        <f t="shared" si="51"/>
-        <v>57050398</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19">
-      <c r="L160">
-        <v>100000</v>
-      </c>
-      <c r="M160">
-        <v>100000</v>
-      </c>
-      <c r="N160">
-        <f t="shared" ref="N160:S160" si="52">N123*10</f>
-        <v>19430068</v>
-      </c>
-      <c r="O160">
-        <f t="shared" si="52"/>
-        <v>194047885</v>
-      </c>
-      <c r="P160">
-        <f t="shared" si="52"/>
-        <v>108352247</v>
-      </c>
-      <c r="Q160">
-        <f t="shared" si="52"/>
-        <v>19489683</v>
-      </c>
-      <c r="R160">
-        <f t="shared" si="52"/>
-        <v>106237464</v>
-      </c>
-      <c r="S160">
-        <f t="shared" si="52"/>
-        <v>106551760</v>
-      </c>
-    </row>
-    <row r="161" spans="12:19">
-      <c r="L161">
-        <v>100000</v>
-      </c>
-      <c r="M161">
-        <v>500000</v>
-      </c>
-      <c r="N161">
-        <f t="shared" ref="N161:S161" si="53">N124*10</f>
-        <v>96555283</v>
-      </c>
-      <c r="O161">
-        <f t="shared" si="53"/>
-        <v>917765318</v>
-      </c>
-      <c r="P161">
-        <f t="shared" si="53"/>
-        <v>504129699</v>
-      </c>
-      <c r="Q161">
-        <f t="shared" si="53"/>
-        <v>96593039</v>
-      </c>
-      <c r="R161">
-        <f t="shared" si="53"/>
-        <v>493339063</v>
-      </c>
-      <c r="S161">
-        <f t="shared" si="53"/>
-        <v>501155145</v>
-      </c>
-    </row>
-    <row r="162" spans="12:19">
-      <c r="L162">
-        <v>100000</v>
-      </c>
-      <c r="M162">
-        <v>1000000</v>
-      </c>
-      <c r="N162">
-        <f t="shared" ref="N162:S162" si="54">N125*10</f>
-        <v>192854328</v>
-      </c>
-      <c r="O162">
-        <f t="shared" si="54"/>
-        <v>1819347296</v>
-      </c>
-      <c r="P162">
-        <f t="shared" si="54"/>
-        <v>995925455</v>
-      </c>
-      <c r="Q162">
-        <f t="shared" si="54"/>
-        <v>193005135</v>
-      </c>
-      <c r="R162">
-        <f t="shared" si="54"/>
-        <v>971199091</v>
-      </c>
-      <c r="S162">
-        <f t="shared" si="54"/>
-        <v>986781117</v>
-      </c>
-    </row>
-    <row r="163" spans="12:19">
-      <c r="L163">
-        <v>100000</v>
-      </c>
-      <c r="M163">
-        <v>5000000</v>
-      </c>
-      <c r="N163">
-        <f t="shared" ref="N163:S163" si="55">N126*10</f>
-        <v>963793295</v>
-      </c>
-      <c r="O163">
-        <f t="shared" si="55"/>
-        <v>9111098472</v>
-      </c>
-      <c r="P163">
-        <f t="shared" si="55"/>
-        <v>4923662296</v>
-      </c>
-      <c r="Q163">
-        <f t="shared" si="55"/>
-        <v>963736808</v>
-      </c>
-      <c r="R163">
-        <f t="shared" si="55"/>
-        <v>4782181747</v>
-      </c>
-      <c r="S163">
-        <f t="shared" si="55"/>
-        <v>4908514955</v>
       </c>
     </row>
   </sheetData>
@@ -18708,7 +16970,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -18725,7 +16987,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>

--- a/Testes/PingPong/PingPong.xlsx
+++ b/Testes/PingPong/PingPong.xlsx
@@ -65,8 +65,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="GENERAL" numFmtId="165"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -107,8 +108,9 @@
       <sz val="18"/>
     </font>
     <font>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
   </fonts>
@@ -154,7 +156,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
@@ -169,6 +171,10 @@
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="165" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -885,11 +891,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="54031265"/>
-        <c:axId val="85806383"/>
+        <c:axId val="41801760"/>
+        <c:axId val="74015316"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54031265"/>
+        <c:axId val="41801760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -897,7 +903,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85806383"/>
+        <c:crossAx val="74015316"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -912,7 +918,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85806383"/>
+        <c:axId val="74015316"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +936,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54031265"/>
+        <c:crossAx val="41801760"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1050,25 +1056,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>97381.5</c:v>
+                  <c:v>0.0973815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>194961.7</c:v>
+                  <c:v>0.1949617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>978115.5</c:v>
+                  <c:v>0.9781155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1943006.8</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9655528.3</c:v>
+                  <c:v>9.6555283</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19285432.8</c:v>
+                  <c:v>19.2854328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96379329.5</c:v>
+                  <c:v>96.3793295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1136,25 +1142,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>893603.1</c:v>
+                  <c:v>0.8936031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1408607.3</c:v>
+                  <c:v>1.4086073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7737425</c:v>
+                  <c:v>7.737425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19404788.5</c:v>
+                  <c:v>19.4047885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91776531.8</c:v>
+                  <c:v>91.7765318</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>181934729.6</c:v>
+                  <c:v>181.9347296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>911109847.2</c:v>
+                  <c:v>911.1098472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1222,25 +1228,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>992377.2</c:v>
+                  <c:v>0.9923772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1708004.2</c:v>
+                  <c:v>1.7080042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5770160.2</c:v>
+                  <c:v>5.7701602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10835224.7</c:v>
+                  <c:v>10.8352247</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50412969.9</c:v>
+                  <c:v>50.4129699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99592545.5</c:v>
+                  <c:v>99.5925455</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>492366229.6</c:v>
+                  <c:v>492.3662296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1308,25 +1314,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>97357.7</c:v>
+                  <c:v>0.0973577</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>197475.8</c:v>
+                  <c:v>0.1974758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>976651.6</c:v>
+                  <c:v>0.9766516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1948968.3</c:v>
+                  <c:v>1.9489683</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9659303.9</c:v>
+                  <c:v>9.6593039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19300513.5</c:v>
+                  <c:v>19.3005135</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96373680.8</c:v>
+                  <c:v>96.3736808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,25 +1400,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>726548.6</c:v>
+                  <c:v>0.7265486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1283777</c:v>
+                  <c:v>1.283777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4990819.5</c:v>
+                  <c:v>4.9908195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10623746.4</c:v>
+                  <c:v>10.6237464</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49333906.3</c:v>
+                  <c:v>49.3339063</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97119909.1</c:v>
+                  <c:v>97.1199091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>478218174.7</c:v>
+                  <c:v>478.2181747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1480,36 +1486,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1004738.3</c:v>
+                  <c:v>1.0047383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1689073.6</c:v>
+                  <c:v>1.6890736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5705039.8</c:v>
+                  <c:v>5.7050398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10655176</c:v>
+                  <c:v>10.655176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50115514.5</c:v>
+                  <c:v>50.1155145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98678111.7</c:v>
+                  <c:v>98.6781117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>490851495.5</c:v>
+                  <c:v>490.8514955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="25115700"/>
-        <c:axId val="20197217"/>
+        <c:axId val="19853963"/>
+        <c:axId val="26727754"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="25115700"/>
+        <c:axId val="19853963"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1517,7 +1523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="20197217"/>
+        <c:crossAx val="26727754"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1532,7 +1538,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="20197217"/>
+        <c:axId val="26727754"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,7 +1556,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="25115700"/>
+        <c:crossAx val="19853963"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -1670,25 +1676,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>97381.5</c:v>
+                  <c:v>0.0973815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>194961.7</c:v>
+                  <c:v>0.1949617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>978115.5</c:v>
+                  <c:v>0.9781155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1943006.8</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9655528.3</c:v>
+                  <c:v>9.6555283</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19285432.8</c:v>
+                  <c:v>19.2854328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96379329.5</c:v>
+                  <c:v>96.3793295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1756,25 +1762,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>992377.2</c:v>
+                  <c:v>0.9923772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1708004.2</c:v>
+                  <c:v>1.7080042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5770160.2</c:v>
+                  <c:v>5.7701602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10835224.7</c:v>
+                  <c:v>10.8352247</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50412969.9</c:v>
+                  <c:v>50.4129699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99592545.5</c:v>
+                  <c:v>99.5925455</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>492366229.6</c:v>
+                  <c:v>492.3662296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1842,25 +1848,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>97357.7</c:v>
+                  <c:v>0.0973577</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>197475.8</c:v>
+                  <c:v>0.1974758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>976651.6</c:v>
+                  <c:v>0.9766516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1948968.3</c:v>
+                  <c:v>1.9489683</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9659303.9</c:v>
+                  <c:v>9.6593039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19300513.5</c:v>
+                  <c:v>19.3005135</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96373680.8</c:v>
+                  <c:v>96.3736808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1928,36 +1934,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1004738.3</c:v>
+                  <c:v>1.0047383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1689073.6</c:v>
+                  <c:v>1.6890736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5705039.8</c:v>
+                  <c:v>5.7050398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10655176</c:v>
+                  <c:v>10.655176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50115514.5</c:v>
+                  <c:v>50.1155145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98678111.7</c:v>
+                  <c:v>98.6781117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>490851495.5</c:v>
+                  <c:v>490.8514955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="40148774"/>
-        <c:axId val="33517275"/>
+        <c:axId val="98360319"/>
+        <c:axId val="82637074"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40148774"/>
+        <c:axId val="98360319"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,7 +1971,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33517275"/>
+        <c:crossAx val="82637074"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -1980,7 +1986,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33517275"/>
+        <c:axId val="82637074"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +2004,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40148774"/>
+        <c:crossAx val="98360319"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -2118,25 +2124,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>97381.5</c:v>
+                  <c:v>0.0973815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>194961.7</c:v>
+                  <c:v>0.1949617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>978115.5</c:v>
+                  <c:v>0.9781155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1943006.8</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9655528.3</c:v>
+                  <c:v>9.6555283</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19285432.8</c:v>
+                  <c:v>19.2854328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96379329.5</c:v>
+                  <c:v>96.3793295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2204,36 +2210,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>97357.7</c:v>
+                  <c:v>0.0973577</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>197475.8</c:v>
+                  <c:v>0.1974758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>976651.6</c:v>
+                  <c:v>0.9766516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1948968.3</c:v>
+                  <c:v>1.9489683</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9659303.9</c:v>
+                  <c:v>9.6593039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19300513.5</c:v>
+                  <c:v>19.3005135</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96373680.8</c:v>
+                  <c:v>96.3736808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="84898119"/>
-        <c:axId val="75225859"/>
+        <c:axId val="74894928"/>
+        <c:axId val="82351287"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84898119"/>
+        <c:axId val="74894928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2241,7 +2247,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75225859"/>
+        <c:crossAx val="82351287"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -2256,7 +2262,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75225859"/>
+        <c:axId val="82351287"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2274,7 +2280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84898119"/>
+        <c:crossAx val="74894928"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -2935,11 +2941,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="26867751"/>
-        <c:axId val="71784677"/>
+        <c:axId val="66623603"/>
+        <c:axId val="70082029"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="26867751"/>
+        <c:axId val="66623603"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2947,7 +2953,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71784677"/>
+        <c:crossAx val="70082029"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -2962,7 +2968,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71784677"/>
+        <c:axId val="70082029"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2980,7 +2986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="26867751"/>
+        <c:crossAx val="66623603"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -3555,11 +3561,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="31614759"/>
-        <c:axId val="17593879"/>
+        <c:axId val="42949532"/>
+        <c:axId val="32714535"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31614759"/>
+        <c:axId val="42949532"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3567,7 +3573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17593879"/>
+        <c:crossAx val="32714535"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -3582,7 +3588,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="17593879"/>
+        <c:axId val="32714535"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3600,7 +3606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="31614759"/>
+        <c:crossAx val="42949532"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -4003,11 +4009,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="91141578"/>
-        <c:axId val="63034011"/>
+        <c:axId val="57681769"/>
+        <c:axId val="17740565"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="91141578"/>
+        <c:axId val="57681769"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4015,7 +4021,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="63034011"/>
+        <c:crossAx val="17740565"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -4030,7 +4036,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="63034011"/>
+        <c:axId val="17740565"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4048,7 +4054,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="91141578"/>
+        <c:crossAx val="57681769"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -4279,11 +4285,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="13546405"/>
-        <c:axId val="97689195"/>
+        <c:axId val="73722292"/>
+        <c:axId val="51999881"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13546405"/>
+        <c:axId val="73722292"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4291,7 +4297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97689195"/>
+        <c:crossAx val="51999881"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -4306,7 +4312,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97689195"/>
+        <c:axId val="51999881"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4324,7 +4330,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13546405"/>
+        <c:crossAx val="73722292"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -4899,11 +4905,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="17079143"/>
-        <c:axId val="33682092"/>
+        <c:axId val="14908277"/>
+        <c:axId val="67571740"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="17079143"/>
+        <c:axId val="14908277"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4911,7 +4917,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33682092"/>
+        <c:crossAx val="67571740"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -4926,7 +4932,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="33682092"/>
+        <c:axId val="67571740"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4944,7 +4950,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="17079143"/>
+        <c:crossAx val="14908277"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -5347,11 +5353,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="19717533"/>
-        <c:axId val="54234697"/>
+        <c:axId val="41993295"/>
+        <c:axId val="24376388"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="19717533"/>
+        <c:axId val="41993295"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5359,7 +5365,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54234697"/>
+        <c:crossAx val="24376388"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -5374,7 +5380,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="54234697"/>
+        <c:axId val="24376388"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5392,7 +5398,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="19717533"/>
+        <c:crossAx val="41993295"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -5623,11 +5629,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="13183820"/>
-        <c:axId val="14491238"/>
+        <c:axId val="85083713"/>
+        <c:axId val="13796518"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="13183820"/>
+        <c:axId val="85083713"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5635,7 +5641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="14491238"/>
+        <c:crossAx val="13796518"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -5650,7 +5656,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="14491238"/>
+        <c:axId val="13796518"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5668,7 +5674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="13183820"/>
+        <c:crossAx val="85083713"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -6329,11 +6335,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="24556191"/>
-        <c:axId val="23103387"/>
+        <c:axId val="29729968"/>
+        <c:axId val="4101354"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="24556191"/>
+        <c:axId val="29729968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6341,7 +6347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="23103387"/>
+        <c:crossAx val="4101354"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -6356,7 +6362,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="23103387"/>
+        <c:axId val="4101354"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6374,7 +6380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="24556191"/>
+        <c:crossAx val="29729968"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -6949,11 +6955,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="31339511"/>
-        <c:axId val="90025019"/>
+        <c:axId val="83614389"/>
+        <c:axId val="26876606"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="31339511"/>
+        <c:axId val="83614389"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6961,7 +6967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="90025019"/>
+        <c:crossAx val="26876606"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -6976,7 +6982,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="90025019"/>
+        <c:axId val="26876606"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6994,7 +7000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="31339511"/>
+        <c:crossAx val="83614389"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -7397,11 +7403,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="50568348"/>
-        <c:axId val="66565295"/>
+        <c:axId val="20699935"/>
+        <c:axId val="53368459"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="50568348"/>
+        <c:axId val="20699935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7409,7 +7415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66565295"/>
+        <c:crossAx val="53368459"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -7424,7 +7430,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66565295"/>
+        <c:axId val="53368459"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7442,7 +7448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50568348"/>
+        <c:crossAx val="20699935"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -7673,11 +7679,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="92190101"/>
-        <c:axId val="41756349"/>
+        <c:axId val="88933943"/>
+        <c:axId val="61170988"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92190101"/>
+        <c:axId val="88933943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7685,7 +7691,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41756349"/>
+        <c:crossAx val="61170988"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -7700,7 +7706,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41756349"/>
+        <c:axId val="61170988"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7718,7 +7724,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92190101"/>
+        <c:crossAx val="88933943"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -7838,25 +7844,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>97381.5</c:v>
+                  <c:v>0.0973815</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>194961.7</c:v>
+                  <c:v>0.1949617</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>978115.5</c:v>
+                  <c:v>0.9781155</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1943006.8</c:v>
+                  <c:v/>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9655528.3</c:v>
+                  <c:v>9.6555283</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19285432.8</c:v>
+                  <c:v>19.2854328</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96379329.5</c:v>
+                  <c:v>96.3793295</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7924,25 +7930,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>893603.1</c:v>
+                  <c:v>0.8936031</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1408607.3</c:v>
+                  <c:v>1.4086073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7737425</c:v>
+                  <c:v>7.737425</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>19404788.5</c:v>
+                  <c:v>19.4047885</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>91776531.8</c:v>
+                  <c:v>91.7765318</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>181934729.6</c:v>
+                  <c:v>181.9347296</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>911109847.2</c:v>
+                  <c:v>911.1098472</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8010,25 +8016,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>992377.2</c:v>
+                  <c:v>0.9923772</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1708004.2</c:v>
+                  <c:v>1.7080042</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5770160.2</c:v>
+                  <c:v>5.7701602</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10835224.7</c:v>
+                  <c:v>10.8352247</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50412969.9</c:v>
+                  <c:v>50.4129699</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>99592545.5</c:v>
+                  <c:v>99.5925455</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>492366229.6</c:v>
+                  <c:v>492.3662296</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8096,25 +8102,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>97357.7</c:v>
+                  <c:v>0.0973577</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>197475.8</c:v>
+                  <c:v>0.1974758</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>976651.6</c:v>
+                  <c:v>0.9766516</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1948968.3</c:v>
+                  <c:v>1.9489683</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9659303.9</c:v>
+                  <c:v>9.6593039</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19300513.5</c:v>
+                  <c:v>19.3005135</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>96373680.8</c:v>
+                  <c:v>96.3736808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8182,25 +8188,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>726548.6</c:v>
+                  <c:v>0.7265486</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1283777</c:v>
+                  <c:v>1.283777</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4990819.5</c:v>
+                  <c:v>4.9908195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10623746.4</c:v>
+                  <c:v>10.6237464</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49333906.3</c:v>
+                  <c:v>49.3339063</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97119909.1</c:v>
+                  <c:v>97.1199091</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>478218174.7</c:v>
+                  <c:v>478.2181747</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8268,25 +8274,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1004738.3</c:v>
+                  <c:v>1.0047383</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1689073.6</c:v>
+                  <c:v>1.6890736</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5705039.8</c:v>
+                  <c:v>5.7050398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10655176</c:v>
+                  <c:v>10.655176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50115514.5</c:v>
+                  <c:v>50.1155145</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>98678111.7</c:v>
+                  <c:v>98.6781117</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>490851495.5</c:v>
+                  <c:v>490.8514955</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8354,36 +8360,36 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>885689.9</c:v>
+                  <c:v>0.8856899</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1218750.4</c:v>
+                  <c:v>1.2187504</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11779373.6</c:v>
+                  <c:v>11.7793736</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>17830750.1</c:v>
+                  <c:v>17.8307501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>145111666.1</c:v>
+                  <c:v>145.1116661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>216013215.6</c:v>
+                  <c:v>216.0132156</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1297884649.8</c:v>
+                  <c:v>1297.8846498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="8259004"/>
-        <c:axId val="86139492"/>
+        <c:axId val="76095724"/>
+        <c:axId val="56719416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="8259004"/>
+        <c:axId val="76095724"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8391,7 +8397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86139492"/>
+        <c:crossAx val="56719416"/>
         <c:crossesAt val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:auto val="1"/>
@@ -8406,7 +8412,7 @@
         </c:spPr>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86139492"/>
+        <c:axId val="56719416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8424,7 +8430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="8259004"/>
+        <c:crossAx val="76095724"/>
         <c:crossesAt val="0"/>
         <c:spPr>
           <a:ln w="9360">
@@ -8456,15 +8462,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>128880</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:colOff>155880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>778680</xdr:colOff>
+      <xdr:colOff>805320</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>182160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8472,8 +8478,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="95777640" y="2004840"/>
-        <a:ext cx="13212000" cy="5460840"/>
+        <a:off x="95783400" y="2189880"/>
+        <a:ext cx="13211640" cy="5460840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8486,15 +8492,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>128880</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:colOff>155880</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>778680</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:colOff>805320</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8502,8 +8508,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="95777640" y="7608960"/>
-        <a:ext cx="13212000" cy="5460480"/>
+        <a:off x="95783400" y="7794360"/>
+        <a:ext cx="13211640" cy="5460120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8516,15 +8522,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:colOff>124200</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>747000</xdr:colOff>
+      <xdr:colOff>773640</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8532,8 +8538,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="95745960" y="13403160"/>
-        <a:ext cx="13212000" cy="5007600"/>
+        <a:off x="95751720" y="13588200"/>
+        <a:ext cx="13211640" cy="5460840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8546,15 +8552,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>81360</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:colOff>108360</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>63</xdr:col>
-      <xdr:colOff>731160</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:colOff>757800</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>70560</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8562,8 +8568,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="95730120" y="18732960"/>
-        <a:ext cx="13212000" cy="5330880"/>
+        <a:off x="95735880" y="19393200"/>
+        <a:ext cx="13211640" cy="5481720"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8576,15 +8582,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>668880</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:colOff>695880</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>763200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:colOff>789840</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8592,8 +8598,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="111546720" y="2052360"/>
-        <a:ext cx="13875840" cy="5460840"/>
+        <a:off x="111552840" y="2237400"/>
+        <a:ext cx="13875120" cy="5460840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8606,15 +8612,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>668880</xdr:colOff>
+      <xdr:colOff>695880</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>763200</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>151200</xdr:rowOff>
+      <xdr:colOff>789840</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>102600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8622,8 +8628,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="111546720" y="7640280"/>
-        <a:ext cx="13875840" cy="5460840"/>
+        <a:off x="111552840" y="7825320"/>
+        <a:ext cx="13875120" cy="5460840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8636,15 +8642,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>636840</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:colOff>663840</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>731160</xdr:colOff>
+      <xdr:colOff>757800</xdr:colOff>
       <xdr:row>100</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8652,8 +8658,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="111514680" y="13403160"/>
-        <a:ext cx="13875840" cy="5007600"/>
+        <a:off x="111520800" y="13588200"/>
+        <a:ext cx="13875120" cy="5460840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8666,15 +8672,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>65</xdr:col>
-      <xdr:colOff>636840</xdr:colOff>
+      <xdr:colOff>663840</xdr:colOff>
       <xdr:row>102</xdr:row>
-      <xdr:rowOff>40680</xdr:rowOff>
+      <xdr:rowOff>182880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>74</xdr:col>
-      <xdr:colOff>731160</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>167040</xdr:rowOff>
+      <xdr:colOff>757800</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8682,8 +8688,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="111514680" y="18780480"/>
-        <a:ext cx="13875840" cy="5330880"/>
+        <a:off x="111520800" y="19462680"/>
+        <a:ext cx="13875120" cy="5459760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8696,15 +8702,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>113040</xdr:colOff>
+      <xdr:colOff>140040</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>318240</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>147240</xdr:rowOff>
+      <xdr:colOff>344880</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>98640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8712,8 +8718,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="128125080" y="1921680"/>
-        <a:ext cx="13897080" cy="5460480"/>
+        <a:off x="128131200" y="2106720"/>
+        <a:ext cx="13896720" cy="5460480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8726,15 +8732,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>77</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>163800</xdr:rowOff>
+      <xdr:colOff>124200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>302400</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>99720</xdr:rowOff>
+      <xdr:colOff>329040</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8742,8 +8748,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="128109240" y="7779960"/>
-        <a:ext cx="13897080" cy="5460120"/>
+        <a:off x="128115360" y="7965000"/>
+        <a:ext cx="13896720" cy="5460120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8756,15 +8762,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>636840</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>147600</xdr:rowOff>
+      <xdr:colOff>663840</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>99000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>254880</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>83880</xdr:rowOff>
+      <xdr:colOff>281520</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8772,8 +8778,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="127861560" y="13478760"/>
-        <a:ext cx="14097240" cy="5007240"/>
+        <a:off x="127867320" y="13663800"/>
+        <a:ext cx="14097240" cy="5460480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8786,15 +8792,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>636840</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>69120</xdr:rowOff>
+      <xdr:colOff>663840</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>86</xdr:col>
-      <xdr:colOff>254880</xdr:colOff>
+      <xdr:colOff>281520</xdr:colOff>
       <xdr:row>130</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:rowOff>146520</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8802,8 +8808,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="127861560" y="18640080"/>
-        <a:ext cx="14097240" cy="5308920"/>
+        <a:off x="127867320" y="19300320"/>
+        <a:ext cx="14097240" cy="5459760"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8816,15 +8822,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>113040</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:colOff>140040</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>1334160</xdr:colOff>
+      <xdr:colOff>1360800</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>8640</xdr:rowOff>
+      <xdr:rowOff>150480</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8832,7 +8838,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="78906960" y="1973160"/>
+        <a:off x="78912720" y="2158200"/>
         <a:ext cx="13020480" cy="5460840"/>
       </xdr:xfrm>
       <a:graphic>
@@ -8846,15 +8852,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>160560</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:colOff>187560</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>112320</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>119520</xdr:rowOff>
+      <xdr:colOff>138960</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>70920</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8862,8 +8868,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="78954480" y="7608960"/>
-        <a:ext cx="13452840" cy="5460480"/>
+        <a:off x="78960240" y="7794360"/>
+        <a:ext cx="13452840" cy="5460120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8876,15 +8882,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>144720</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:colOff>171720</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>87840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>53</xdr:col>
-      <xdr:colOff>96480</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>71280</xdr:rowOff>
+      <xdr:colOff>123120</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8892,8 +8898,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="78938640" y="13276800"/>
-        <a:ext cx="13452840" cy="5027760"/>
+        <a:off x="78944400" y="13462200"/>
+        <a:ext cx="13452840" cy="5459040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8906,15 +8912,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>44</xdr:col>
-      <xdr:colOff>113040</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:colOff>140040</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>52</xdr:col>
-      <xdr:colOff>1334160</xdr:colOff>
-      <xdr:row>130</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:colOff>1360800</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -8922,8 +8928,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="78906960" y="18691200"/>
-        <a:ext cx="13020480" cy="5309280"/>
+        <a:off x="78912720" y="19351440"/>
+        <a:ext cx="13020480" cy="5460120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -8943,46 +8949,46 @@
   </sheetPr>
   <dimension ref="A1:CI108"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A51" view="normal" windowProtection="false" workbookViewId="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100">
-      <selection activeCell="A100" activeCellId="0" pane="topLeft" sqref="A100"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="BX97" view="normal" windowProtection="false" workbookViewId="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100">
+      <selection activeCell="CH132" activeCellId="0" pane="topLeft" sqref="CH132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="11.7125506072874"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4534412955466"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.0445344129555"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.0080971659919"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.4858299595142"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28.0283400809717"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.6234817813765"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.8097165991903"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="25.4210526315789"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="22.004048582996"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="26.4210526315789"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="28"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.5708502024291"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="20.8542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="0" width="15.1376518218623"/>
     <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.8542510121458"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="0" width="10.995951417004"/>
     <col collapsed="false" hidden="false" max="13" min="13" style="0" width="16.5668016194332"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.251012145749"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.8097165991903"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="24.7651821862348"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.4655870445344"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.7935222672065"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="24.2793522267206"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="0" width="20.8542510121457"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="0" width="24.7165991902834"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="0" width="20.4251012145749"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="0" width="25.8502024291498"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="0" width="25.2793522267206"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.8380566801619"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="0" width="21.8542510121457"/>
     <col collapsed="false" hidden="false" max="21" min="21" style="0" width="12.1417004048583"/>
     <col collapsed="false" hidden="false" max="22" min="22" style="0" width="15.7125506072875"/>
-    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.8825910931174"/>
+    <col collapsed="false" hidden="false" max="23" min="23" style="0" width="17.8542510121458"/>
     <col collapsed="false" hidden="false" max="24" min="24" style="0" width="12.1417004048583"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.4331983805668"/>
-    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="28.0283400809717"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="0" width="19.4251012145749"/>
+    <col collapsed="false" hidden="false" max="26" min="26" style="0" width="28"/>
     <col collapsed="false" hidden="false" max="27" min="27" style="0" width="27"/>
     <col collapsed="false" hidden="false" max="28" min="28" style="0" width="24.4251012145749"/>
-    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="28.5506072874494"/>
-    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="27.1740890688259"/>
-    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="23.7287449392713"/>
+    <col collapsed="false" hidden="false" max="29" min="29" style="0" width="28.5708502024291"/>
+    <col collapsed="false" hidden="false" max="30" min="30" style="0" width="27.1457489878542"/>
+    <col collapsed="false" hidden="false" max="31" min="31" style="0" width="23.7165991902834"/>
     <col collapsed="false" hidden="false" max="32" min="32" style="0" width="20.1376518218623"/>
     <col collapsed="false" hidden="false" max="33" min="33" style="0" width="16.5668016194332"/>
-    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.1943319838057"/>
+    <col collapsed="false" hidden="false" max="34" min="34" style="0" width="17.1376518218624"/>
     <col collapsed="false" hidden="false" max="35" min="35" style="0" width="13.5668016194332"/>
     <col collapsed="false" hidden="false" max="36" min="36" style="0" width="15.7125506072875"/>
     <col collapsed="false" hidden="false" max="37" min="37" style="0" width="16.5668016194332"/>
@@ -9038,7 +9044,7 @@
     <col collapsed="false" hidden="false" max="1025" min="88" style="0" width="8.85425101214575"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="1">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9172,7 +9178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="2">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
         <v>5000</v>
       </c>
@@ -9517,32 +9523,32 @@
       <c r="AT3" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="AU3" s="0" t="n">
-        <f aca="false">SUM(C2:C11)/10000000</f>
+      <c r="AU3" s="4" t="n">
+        <f aca="false">SOMA(C2:C11)/10000000</f>
         <v>0.0099709</v>
       </c>
-      <c r="AV3" s="0" t="n">
-        <f aca="false">SUM(D2:D11)/10000000</f>
+      <c r="AV3" s="4" t="n">
+        <f aca="false">SOMA(D2:D11)/10000000</f>
         <v>0.0797725</v>
       </c>
-      <c r="AW3" s="0" t="n">
-        <f aca="false">SUM(E2:E11)/10000000</f>
+      <c r="AW3" s="4" t="n">
+        <f aca="false">SOMA(E2:E11)/10000000</f>
         <v>0.2916062</v>
       </c>
-      <c r="AX3" s="0" t="n">
-        <f aca="false">SUM(F2:F11)/10000000</f>
+      <c r="AX3" s="4" t="n">
+        <f aca="false">SOMA(F2:F11)/10000000</f>
         <v>0.0115178</v>
       </c>
-      <c r="AY3" s="0" t="n">
-        <f aca="false">SUM(G2:G11)/10000000</f>
+      <c r="AY3" s="4" t="n">
+        <f aca="false">SOMA(G2:G11)/10000000</f>
         <v>0.066452</v>
       </c>
-      <c r="AZ3" s="0" t="n">
-        <f aca="false">SUM(H2:H11)/10000000</f>
+      <c r="AZ3" s="4" t="n">
+        <f aca="false">SOMA(H2:H11)/10000000</f>
         <v>0.3220022</v>
       </c>
-      <c r="BA3" s="0" t="n">
-        <f aca="false">SUM(I2:I11)/10000000</f>
+      <c r="BA3" s="4" t="n">
+        <f aca="false">SOMA(I2:I11)/10000000</f>
         <v>0.8047232</v>
       </c>
       <c r="BD3" s="0" t="n">
@@ -9551,32 +9557,32 @@
       <c r="BE3" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="BF3" s="0" t="n">
-        <f aca="false">SUM(N2:N11)/10000000</f>
+      <c r="BF3" s="4" t="n">
+        <f aca="false">SOMA(N2:N11)/10000000</f>
         <v>0.0122992</v>
       </c>
-      <c r="BG3" s="0" t="n">
-        <f aca="false">SUM(O2:O11)/10000000</f>
+      <c r="BG3" s="4" t="n">
+        <f aca="false">SOMA(O2:O11)/10000000</f>
         <v>0.2082393</v>
       </c>
-      <c r="BH3" s="0" t="n">
-        <f aca="false">SUM(P2:P11)/10000000</f>
+      <c r="BH3" s="4" t="n">
+        <f aca="false">SOMA(P2:P11)/10000000</f>
         <v>0.3304891</v>
       </c>
-      <c r="BI3" s="0" t="n">
-        <f aca="false">SUM(Q2:Q11)/10000000</f>
+      <c r="BI3" s="4" t="n">
+        <f aca="false">SOMA(Q2:Q11)/10000000</f>
         <v>0.014364</v>
       </c>
-      <c r="BJ3" s="0" t="n">
-        <f aca="false">SUM(R2:R11)/10000000</f>
+      <c r="BJ3" s="4" t="n">
+        <f aca="false">SOMA(R2:R11)/10000000</f>
         <v>0.1135461</v>
       </c>
-      <c r="BK3" s="0" t="n">
-        <f aca="false">SUM(S2:S11)/10000000</f>
+      <c r="BK3" s="4" t="n">
+        <f aca="false">SOMA(S2:S11)/10000000</f>
         <v>0.3616535</v>
       </c>
-      <c r="BL3" s="0" t="n">
-        <f aca="false">SUM(T2:T11)/10000000</f>
+      <c r="BL3" s="4" t="n">
+        <f aca="false">SOMA(T2:T11)/10000000</f>
         <v>0.8693473</v>
       </c>
       <c r="BO3" s="0" t="n">
@@ -9585,32 +9591,32 @@
       <c r="BP3" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="BQ3" s="0" t="n">
-        <f aca="false">SUM(Y2:Y11)/10000000</f>
+      <c r="BQ3" s="4" t="n">
+        <f aca="false">SOMA(Y2:Y11)/10000000</f>
         <v>0.0441209</v>
       </c>
-      <c r="BR3" s="0" t="n">
-        <f aca="false">SUM(Z2:Z11)/10000000</f>
+      <c r="BR3" s="4" t="n">
+        <f aca="false">SOMA(Z2:Z11)/10000000</f>
         <v>0.4660166</v>
       </c>
-      <c r="BS3" s="0" t="n">
-        <f aca="false">SUM(AA2:AA11)/10000000</f>
+      <c r="BS3" s="4" t="n">
+        <f aca="false">SOMA(AA2:AA11)/10000000</f>
         <v>0.6098119</v>
       </c>
-      <c r="BT3" s="0" t="n">
-        <f aca="false">SUM(AB2:AB11)/10000000</f>
+      <c r="BT3" s="4" t="n">
+        <f aca="false">SOMA(AB2:AB11)/10000000</f>
         <v>0.0549569</v>
       </c>
-      <c r="BU3" s="0" t="n">
-        <f aca="false">SUM(AC2:AC11)/10000000</f>
+      <c r="BU3" s="4" t="n">
+        <f aca="false">SOMA(AC2:AC11)/10000000</f>
         <v>0.4318983</v>
       </c>
-      <c r="BV3" s="0" t="n">
-        <f aca="false">SUM(AD2:AD11)/10000000</f>
+      <c r="BV3" s="4" t="n">
+        <f aca="false">SOMA(AD2:AD11)/10000000</f>
         <v>0.6813803</v>
       </c>
-      <c r="BW3" s="0" t="n">
-        <f aca="false">SUM(AE2:AE11)/10000000</f>
+      <c r="BW3" s="4" t="n">
+        <f aca="false">SOMA(AE2:AE11)/10000000</f>
         <v>0.9341009</v>
       </c>
       <c r="BZ3" s="0" t="n">
@@ -9619,33 +9625,33 @@
       <c r="CA3" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="CB3" s="0" t="n">
-        <f aca="false">soma(AJ2:AJ11)/10</f>
-        <v>97381.5</v>
-      </c>
-      <c r="CC3" s="0" t="n">
-        <f aca="false">soma(AK2:AK11)/10</f>
-        <v>893603.1</v>
-      </c>
-      <c r="CD3" s="0" t="n">
-        <f aca="false">soma(AL2:AL11)/10</f>
-        <v>992377.2</v>
-      </c>
-      <c r="CE3" s="0" t="n">
-        <f aca="false">soma(AM2:AM11)/10</f>
-        <v>97357.7</v>
-      </c>
-      <c r="CF3" s="0" t="n">
-        <f aca="false">soma(AN2:AN11)/10</f>
-        <v>726548.6</v>
-      </c>
-      <c r="CG3" s="0" t="n">
-        <f aca="false">soma(AO2:AO11)/10</f>
-        <v>1004738.3</v>
-      </c>
-      <c r="CH3" s="0" t="n">
-        <f aca="false">soma(AP2:AP11)/10</f>
-        <v>885689.9</v>
+      <c r="CB3" s="4" t="n">
+        <f aca="false">SOMA(AJ2:AJ11)/10000000</f>
+        <v>0.0973815</v>
+      </c>
+      <c r="CC3" s="4" t="n">
+        <f aca="false">SOMA(AK2:AK11)/10000000</f>
+        <v>0.8936031</v>
+      </c>
+      <c r="CD3" s="4" t="n">
+        <f aca="false">SOMA(AL2:AL11)/10000000</f>
+        <v>0.9923772</v>
+      </c>
+      <c r="CE3" s="4" t="n">
+        <f aca="false">SOMA(AM2:AM11)/10000000</f>
+        <v>0.0973577</v>
+      </c>
+      <c r="CF3" s="4" t="n">
+        <f aca="false">SOMA(AN2:AN11)/10000000</f>
+        <v>0.7265486</v>
+      </c>
+      <c r="CG3" s="4" t="n">
+        <f aca="false">SOMA(AO2:AO11)/10000000</f>
+        <v>1.0047383</v>
+      </c>
+      <c r="CH3" s="4" t="n">
+        <f aca="false">SOMA(AP2:AP11)/10000000</f>
+        <v>0.8856899</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="4">
@@ -9763,32 +9769,32 @@
       <c r="AT4" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="AU4" s="0" t="n">
-        <f aca="false">SUM(C13:C22)/10000000</f>
+      <c r="AU4" s="4" t="n">
+        <f aca="false">SOMA(C13:C22)/10000000</f>
         <v>0.0198803</v>
       </c>
-      <c r="AV4" s="0" t="n">
-        <f aca="false">SUM(D13:D22)/10000000</f>
+      <c r="AV4" s="4" t="n">
+        <f aca="false">SOMA(D13:D22)/10000000</f>
         <v>0.1461109</v>
       </c>
-      <c r="AW4" s="0" t="n">
-        <f aca="false">SUM(E13:E22)/10000000</f>
+      <c r="AW4" s="4" t="n">
+        <f aca="false">SOMA(E13:E22)/10000000</f>
         <v>0.4567769</v>
       </c>
-      <c r="AX4" s="0" t="n">
-        <f aca="false">SUM(F13:F22)/10000000</f>
+      <c r="AX4" s="4" t="n">
+        <f aca="false">SOMA(F13:F22)/10000000</f>
         <v>0.0231173</v>
       </c>
-      <c r="AY4" s="0" t="n">
-        <f aca="false">SUM(G13:G22)/10000000</f>
+      <c r="AY4" s="4" t="n">
+        <f aca="false">SOMA(G13:G22)/10000000</f>
         <v>0.1081729</v>
       </c>
-      <c r="AZ4" s="0" t="n">
-        <f aca="false">SUM(H13:H22)/10000000</f>
+      <c r="AZ4" s="4" t="n">
+        <f aca="false">SOMA(H13:H22)/10000000</f>
         <v>0.4892054</v>
       </c>
-      <c r="BA4" s="0" t="n">
-        <f aca="false">SUM(I13:I22)/10000000</f>
+      <c r="BA4" s="4" t="n">
+        <f aca="false">SOMA(I13:I22)/10000000</f>
         <v>2.8960251</v>
       </c>
       <c r="BD4" s="0" t="n">
@@ -9797,32 +9803,32 @@
       <c r="BE4" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="BF4" s="0" t="n">
-        <f aca="false">SUM(N13:N22)/10000000</f>
+      <c r="BF4" s="4" t="n">
+        <f aca="false">SOMA(N13:N22)/10000000</f>
         <v>0.0244007</v>
       </c>
-      <c r="BG4" s="0" t="n">
-        <f aca="false">SUM(O13:O22)/10000000</f>
+      <c r="BG4" s="4" t="n">
+        <f aca="false">SOMA(O13:O22)/10000000</f>
         <v>0.2712247</v>
       </c>
-      <c r="BH4" s="0" t="n">
-        <f aca="false">SUM(P13:P22)/10000000</f>
+      <c r="BH4" s="4" t="n">
+        <f aca="false">SOMA(P13:P22)/10000000</f>
         <v>0.5025788</v>
       </c>
-      <c r="BI4" s="0" t="n">
-        <f aca="false">SUM(Q13:Q22)/10000000</f>
+      <c r="BI4" s="4" t="n">
+        <f aca="false">SOMA(Q13:Q22)/10000000</f>
         <v>0.0284553</v>
       </c>
-      <c r="BJ4" s="0" t="n">
-        <f aca="false">SUM(R13:R22)/10000000</f>
+      <c r="BJ4" s="4" t="n">
+        <f aca="false">SOMA(R13:R22)/10000000</f>
         <v>0.1959065</v>
       </c>
-      <c r="BK4" s="0" t="n">
-        <f aca="false">SUM(S13:S22)/10000000</f>
+      <c r="BK4" s="4" t="n">
+        <f aca="false">SOMA(S13:S22)/10000000</f>
         <v>0.588746</v>
       </c>
-      <c r="BL4" s="0" t="n">
-        <f aca="false">SUM(T13:T22)/10000000</f>
+      <c r="BL4" s="4" t="n">
+        <f aca="false">SOMA(T13:T22)/10000000</f>
         <v>1.8444104</v>
       </c>
       <c r="BO4" s="0" t="n">
@@ -9831,32 +9837,32 @@
       <c r="BP4" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="BQ4" s="0" t="n">
-        <f aca="false">SUM(Y13:Y22)/10000000</f>
+      <c r="BQ4" s="4" t="n">
+        <f aca="false">SOMA(Y13:Y22)/10000000</f>
         <v>0.0884725</v>
       </c>
-      <c r="BR4" s="0" t="n">
-        <f aca="false">SUM(Z13:Z22)/10000000</f>
+      <c r="BR4" s="4" t="n">
+        <f aca="false">SOMA(Z13:Z22)/10000000</f>
         <v>0.7717654</v>
       </c>
-      <c r="BS4" s="0" t="n">
-        <f aca="false">SUM(AA13:AA22)/10000000</f>
+      <c r="BS4" s="4" t="n">
+        <f aca="false">SOMA(AA13:AA22)/10000000</f>
         <v>1.0465922</v>
       </c>
-      <c r="BT4" s="0" t="n">
-        <f aca="false">SUM(AB13:AB22)/10000000</f>
+      <c r="BT4" s="4" t="n">
+        <f aca="false">SOMA(AB13:AB22)/10000000</f>
         <v>0.1101179</v>
       </c>
-      <c r="BU4" s="0" t="n">
-        <f aca="false">SUM(AC13:AC22)/10000000</f>
+      <c r="BU4" s="4" t="n">
+        <f aca="false">SOMA(AC13:AC22)/10000000</f>
         <v>0.6544076</v>
       </c>
-      <c r="BV4" s="0" t="n">
-        <f aca="false">SUM(AD13:AD22)/10000000</f>
+      <c r="BV4" s="4" t="n">
+        <f aca="false">SOMA(AD13:AD22)/10000000</f>
         <v>1.0440697</v>
       </c>
-      <c r="BW4" s="0" t="n">
-        <f aca="false">SUM(AE13:AE22)/10000000</f>
+      <c r="BW4" s="4" t="n">
+        <f aca="false">SOMA(AE13:AE22)/10000000</f>
         <v>3.8384848</v>
       </c>
       <c r="BZ4" s="0" t="n">
@@ -9865,33 +9871,33 @@
       <c r="CA4" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="CB4" s="0" t="n">
-        <f aca="false">soma(AJ13:AJ22)/10</f>
-        <v>194961.7</v>
-      </c>
-      <c r="CC4" s="0" t="n">
-        <f aca="false">soma(AK13:AK22)/10</f>
-        <v>1408607.3</v>
-      </c>
-      <c r="CD4" s="0" t="n">
-        <f aca="false">soma(AL13:AL22)/10</f>
-        <v>1708004.2</v>
-      </c>
-      <c r="CE4" s="0" t="n">
-        <f aca="false">soma(AM13:AM22)/10</f>
-        <v>197475.8</v>
-      </c>
-      <c r="CF4" s="0" t="n">
-        <f aca="false">soma(AN13:AN22)/10</f>
-        <v>1283777</v>
-      </c>
-      <c r="CG4" s="0" t="n">
-        <f aca="false">soma(AO13:AO22)/10</f>
-        <v>1689073.6</v>
-      </c>
-      <c r="CH4" s="0" t="n">
-        <f aca="false">soma(AP13:AP22)/10</f>
-        <v>1218750.4</v>
+      <c r="CB4" s="4" t="n">
+        <f aca="false">SOMA(AJ13:AJ22)/10000000</f>
+        <v>0.1949617</v>
+      </c>
+      <c r="CC4" s="4" t="n">
+        <f aca="false">SOMA(AK13:AK22)/10000000</f>
+        <v>1.4086073</v>
+      </c>
+      <c r="CD4" s="4" t="n">
+        <f aca="false">SOMA(AL13:AL22)/10000000</f>
+        <v>1.7080042</v>
+      </c>
+      <c r="CE4" s="4" t="n">
+        <f aca="false">SOMA(AM13:AM22)/10000000</f>
+        <v>0.1974758</v>
+      </c>
+      <c r="CF4" s="4" t="n">
+        <f aca="false">SOMA(AN13:AN22)/10000000</f>
+        <v>1.283777</v>
+      </c>
+      <c r="CG4" s="4" t="n">
+        <f aca="false">SOMA(AO13:AO22)/10000000</f>
+        <v>1.6890736</v>
+      </c>
+      <c r="CH4" s="4" t="n">
+        <f aca="false">SOMA(AP13:AP22)/10000000</f>
+        <v>1.2187504</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="5">
@@ -10009,32 +10015,32 @@
       <c r="AT5" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="AU5" s="0" t="n">
-        <f aca="false">SUM(C24:C33)/10000000</f>
+      <c r="AU5" s="4" t="n">
+        <f aca="false">SOMA(C24:C33)/10000000</f>
         <v>0.1008617</v>
       </c>
-      <c r="AV5" s="0" t="n">
-        <f aca="false">SUM(D24:D33)/10000000</f>
+      <c r="AV5" s="4" t="n">
+        <f aca="false">SOMA(D24:D33)/10000000</f>
         <v>0.4670586</v>
       </c>
-      <c r="AW5" s="0" t="n">
-        <f aca="false">SUM(E24:E33)/10000000</f>
+      <c r="AW5" s="4" t="n">
+        <f aca="false">SOMA(E24:E33)/10000000</f>
         <v>1.0558299</v>
       </c>
-      <c r="AX5" s="0" t="n">
-        <f aca="false">SUM(F24:F33)/10000000</f>
+      <c r="AX5" s="4" t="n">
+        <f aca="false">SOMA(F24:F33)/10000000</f>
         <v>0.1164909</v>
       </c>
-      <c r="AY5" s="0" t="n">
-        <f aca="false">SUM(G24:G33)/10000000</f>
+      <c r="AY5" s="4" t="n">
+        <f aca="false">SOMA(G24:G33)/10000000</f>
         <v>0.3611503</v>
       </c>
-      <c r="AZ5" s="0" t="n">
-        <f aca="false">SUM(H24:H33)/10000000</f>
+      <c r="AZ5" s="4" t="n">
+        <f aca="false">SOMA(H24:H33)/10000000</f>
         <v>1.1280232</v>
       </c>
-      <c r="BA5" s="0" t="n">
-        <f aca="false">SUM(I24:I33)/10000000</f>
+      <c r="BA5" s="4" t="n">
+        <f aca="false">SOMA(I24:I33)/10000000</f>
         <v>12.4309331</v>
       </c>
       <c r="BD5" s="0" t="n">
@@ -10043,32 +10049,32 @@
       <c r="BE5" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="BF5" s="0" t="n">
-        <f aca="false">SUM(N24:N33)/10000000</f>
+      <c r="BF5" s="4" t="n">
+        <f aca="false">SOMA(N24:N33)/10000000</f>
         <v>0.1223625</v>
       </c>
-      <c r="BG5" s="0" t="n">
-        <f aca="false">SUM(O24:O33)/10000000</f>
+      <c r="BG5" s="4" t="n">
+        <f aca="false">SOMA(O24:O33)/10000000</f>
         <v>0.7395229</v>
       </c>
-      <c r="BH5" s="0" t="n">
-        <f aca="false">SUM(P24:P33)/10000000</f>
+      <c r="BH5" s="4" t="n">
+        <f aca="false">SOMA(P24:P33)/10000000</f>
         <v>1.3547524</v>
       </c>
-      <c r="BI5" s="0" t="n">
-        <f aca="false">SUM(Q24:Q33)/10000000</f>
+      <c r="BI5" s="4" t="n">
+        <f aca="false">SOMA(Q24:Q33)/10000000</f>
         <v>0.1433147</v>
       </c>
-      <c r="BJ5" s="0" t="n">
-        <f aca="false">SUM(R24:R33)/10000000</f>
+      <c r="BJ5" s="4" t="n">
+        <f aca="false">SOMA(R24:R33)/10000000</f>
         <v>0.5710177</v>
       </c>
-      <c r="BK5" s="0" t="n">
-        <f aca="false">SUM(S24:S33)/10000000</f>
+      <c r="BK5" s="4" t="n">
+        <f aca="false">SOMA(S24:S33)/10000000</f>
         <v>1.3531394</v>
       </c>
-      <c r="BL5" s="0" t="n">
-        <f aca="false">SUM(T24:T33)/10000000</f>
+      <c r="BL5" s="4" t="n">
+        <f aca="false">SOMA(T24:T33)/10000000</f>
         <v>10.9646408</v>
       </c>
       <c r="BO5" s="0" t="n">
@@ -10077,32 +10083,32 @@
       <c r="BP5" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="BQ5" s="0" t="n">
-        <f aca="false">SUM(Y24:Y33)/10000000</f>
+      <c r="BQ5" s="4" t="n">
+        <f aca="false">SOMA(Y24:Y33)/10000000</f>
         <v>0.4469844</v>
       </c>
-      <c r="BR5" s="0" t="n">
-        <f aca="false">SUM(Z24:Z33)/10000000</f>
+      <c r="BR5" s="4" t="n">
+        <f aca="false">SOMA(Z24:Z33)/10000000</f>
         <v>3.4842787</v>
       </c>
-      <c r="BS5" s="0" t="n">
-        <f aca="false">SUM(AA24:AA33)/10000000</f>
+      <c r="BS5" s="4" t="n">
+        <f aca="false">SOMA(AA24:AA33)/10000000</f>
         <v>3.3976784</v>
       </c>
-      <c r="BT5" s="0" t="n">
-        <f aca="false">SUM(AB24:AB33)/10000000</f>
+      <c r="BT5" s="4" t="n">
+        <f aca="false">SOMA(AB24:AB33)/10000000</f>
         <v>0.5517381</v>
       </c>
-      <c r="BU5" s="0" t="n">
-        <f aca="false">SUM(AC24:AC33)/10000000</f>
+      <c r="BU5" s="4" t="n">
+        <f aca="false">SOMA(AC24:AC33)/10000000</f>
         <v>2.6258984</v>
       </c>
-      <c r="BV5" s="0" t="n">
-        <f aca="false">SUM(AD24:AD33)/10000000</f>
+      <c r="BV5" s="4" t="n">
+        <f aca="false">SOMA(AD24:AD33)/10000000</f>
         <v>3.3605068</v>
       </c>
-      <c r="BW5" s="0" t="n">
-        <f aca="false">SUM(AE24:AE33)/10000000</f>
+      <c r="BW5" s="4" t="n">
+        <f aca="false">SOMA(AE24:AE33)/10000000</f>
         <v>18.5890093</v>
       </c>
       <c r="BZ5" s="0" t="n">
@@ -10111,33 +10117,33 @@
       <c r="CA5" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="CB5" s="0" t="n">
-        <f aca="false">soma(AJ24:AJ33)/10</f>
-        <v>978115.5</v>
-      </c>
-      <c r="CC5" s="0" t="n">
-        <f aca="false">soma(AK24:AK33)/10</f>
-        <v>7737425</v>
-      </c>
-      <c r="CD5" s="0" t="n">
-        <f aca="false">soma(AL24:AL33)/10</f>
-        <v>5770160.2</v>
-      </c>
-      <c r="CE5" s="0" t="n">
-        <f aca="false">soma(AM24:AM33)/10</f>
-        <v>976651.6</v>
-      </c>
-      <c r="CF5" s="0" t="n">
-        <f aca="false">soma(AN24:AN33)/10</f>
-        <v>4990819.5</v>
-      </c>
-      <c r="CG5" s="0" t="n">
-        <f aca="false">soma(AO24:AO33)/10</f>
-        <v>5705039.8</v>
-      </c>
-      <c r="CH5" s="0" t="n">
-        <f aca="false">soma(AP24:AP33)/10</f>
-        <v>11779373.6</v>
+      <c r="CB5" s="4" t="n">
+        <f aca="false">SOMA(AJ24:AJ33)/10000000</f>
+        <v>0.9781155</v>
+      </c>
+      <c r="CC5" s="4" t="n">
+        <f aca="false">SOMA(AK24:AK33)/10000000</f>
+        <v>7.737425</v>
+      </c>
+      <c r="CD5" s="4" t="n">
+        <f aca="false">SOMA(AL24:AL33)/10000000</f>
+        <v>5.7701602</v>
+      </c>
+      <c r="CE5" s="4" t="n">
+        <f aca="false">SOMA(AM24:AM33)/10000000</f>
+        <v>0.9766516</v>
+      </c>
+      <c r="CF5" s="4" t="n">
+        <f aca="false">SOMA(AN24:AN33)/10000000</f>
+        <v>4.9908195</v>
+      </c>
+      <c r="CG5" s="4" t="n">
+        <f aca="false">SOMA(AO24:AO33)/10000000</f>
+        <v>5.7050398</v>
+      </c>
+      <c r="CH5" s="4" t="n">
+        <f aca="false">SOMA(AP24:AP33)/10000000</f>
+        <v>11.7793736</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="6">
@@ -10255,32 +10261,32 @@
       <c r="AT6" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="AU6" s="0" t="n">
-        <f aca="false">SUM(C35:C44)/10000000</f>
+      <c r="AU6" s="4" t="n">
+        <f aca="false">SOMA(C35:C44)/10000000</f>
         <v>0.1973504</v>
       </c>
-      <c r="AV6" s="0" t="n">
-        <f aca="false">SUM(D35:D44)/10000000</f>
+      <c r="AV6" s="4" t="n">
+        <f aca="false">SOMA(D35:D44)/10000000</f>
         <v>0.8587395</v>
       </c>
-      <c r="AW6" s="0" t="n">
-        <f aca="false">SUM(E35:E44)/10000000</f>
+      <c r="AW6" s="4" t="n">
+        <f aca="false">SOMA(E35:E44)/10000000</f>
         <v>1.7527398</v>
       </c>
-      <c r="AX6" s="0" t="n">
-        <f aca="false">SUM(F35:F44)/10000000</f>
+      <c r="AX6" s="4" t="n">
+        <f aca="false">SOMA(F35:F44)/10000000</f>
         <v>0.2228785</v>
       </c>
-      <c r="AY6" s="0" t="n">
-        <f aca="false">SUM(G35:G44)/10000000</f>
+      <c r="AY6" s="4" t="n">
+        <f aca="false">SOMA(G35:G44)/10000000</f>
         <v>0.6563561</v>
       </c>
-      <c r="AZ6" s="0" t="n">
-        <f aca="false">SUM(H35:H44)/10000000</f>
+      <c r="AZ6" s="4" t="n">
+        <f aca="false">SOMA(H35:H44)/10000000</f>
         <v>1.7739475</v>
       </c>
-      <c r="BA6" s="0" t="n">
-        <f aca="false">SUM(I35:I44)/10000000</f>
+      <c r="BA6" s="4" t="n">
+        <f aca="false">SOMA(I35:I44)/10000000</f>
         <v>33.7133747</v>
       </c>
       <c r="BD6" s="0" t="n">
@@ -10289,32 +10295,32 @@
       <c r="BE6" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="BF6" s="0" t="n">
-        <f aca="false">SUM(N35:N44)/10000000</f>
+      <c r="BF6" s="4" t="n">
+        <f aca="false">SOMA(N35:N44)/10000000</f>
         <v>0.2463805</v>
       </c>
-      <c r="BG6" s="0" t="n">
-        <f aca="false">SUM(O35:O44)/10000000</f>
+      <c r="BG6" s="4" t="n">
+        <f aca="false">SOMA(O35:O44)/10000000</f>
         <v>1.4264392</v>
       </c>
-      <c r="BH6" s="0" t="n">
-        <f aca="false">SUM(P35:P44)/10000000</f>
+      <c r="BH6" s="4" t="n">
+        <f aca="false">SOMA(P35:P44)/10000000</f>
         <v>2.2635976</v>
       </c>
-      <c r="BI6" s="0" t="n">
-        <f aca="false">SUM(Q35:Q44)/10000000</f>
+      <c r="BI6" s="4" t="n">
+        <f aca="false">SOMA(Q35:Q44)/10000000</f>
         <v>0.2228785</v>
       </c>
-      <c r="BJ6" s="0" t="n">
-        <f aca="false">SUM(R35:R44)/10000000</f>
+      <c r="BJ6" s="4" t="n">
+        <f aca="false">SOMA(R35:R44)/10000000</f>
         <v>1.2160938</v>
       </c>
-      <c r="BK6" s="0" t="n">
-        <f aca="false">SUM(S35:S44)/10000000</f>
+      <c r="BK6" s="4" t="n">
+        <f aca="false">SOMA(S35:S44)/10000000</f>
         <v>2.2977133</v>
       </c>
-      <c r="BL6" s="0" t="n">
-        <f aca="false">SUM(T35:T44)/10000000</f>
+      <c r="BL6" s="4" t="n">
+        <f aca="false">SOMA(T35:T44)/10000000</f>
         <v>16.3051352</v>
       </c>
       <c r="BO6" s="0" t="n">
@@ -10323,32 +10329,32 @@
       <c r="BP6" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="BQ6" s="0" t="n">
-        <f aca="false">SUM(Y35:Y44)/10000000</f>
+      <c r="BQ6" s="4" t="n">
+        <f aca="false">SOMA(Y35:Y44)/10000000</f>
         <v>0.973952</v>
       </c>
-      <c r="BR6" s="0" t="n">
-        <f aca="false">SUM(Z35:Z44)/10000000</f>
+      <c r="BR6" s="4" t="n">
+        <f aca="false">SOMA(Z35:Z44)/10000000</f>
         <v>9.1875989</v>
       </c>
-      <c r="BS6" s="0" t="n">
-        <f aca="false">SUM(AA35:AA44)/10000000</f>
+      <c r="BS6" s="4" t="n">
+        <f aca="false">SOMA(AA35:AA44)/10000000</f>
         <v>6.2484707</v>
       </c>
-      <c r="BT6" s="0" t="n">
-        <f aca="false">SUM(AB35:AB44)/10000000</f>
+      <c r="BT6" s="4" t="n">
+        <f aca="false">SOMA(AB35:AB44)/10000000</f>
         <v>1.097152</v>
       </c>
-      <c r="BU6" s="0" t="n">
-        <f aca="false">SUM(AC35:AC44)/10000000</f>
+      <c r="BU6" s="4" t="n">
+        <f aca="false">SOMA(AC35:AC44)/10000000</f>
         <v>5.7043431</v>
       </c>
-      <c r="BV6" s="0" t="n">
-        <f aca="false">SUM(AD35:AD44)/10000000</f>
+      <c r="BV6" s="4" t="n">
+        <f aca="false">SOMA(AD35:AD44)/10000000</f>
         <v>6.1562016</v>
       </c>
-      <c r="BW6" s="0" t="n">
-        <f aca="false">SUM(AE35:AE44)/10000000</f>
+      <c r="BW6" s="4" t="n">
+        <f aca="false">SOMA(AE35:AE44)/10000000</f>
         <v>23.5714714</v>
       </c>
       <c r="BZ6" s="0" t="n">
@@ -10357,33 +10363,33 @@
       <c r="CA6" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="CB6" s="0" t="n">
+      <c r="CB6" s="4" t="e">
         <f aca="false">soma(AJ35:AJ44)/10</f>
-        <v>1943006.8</v>
-      </c>
-      <c r="CC6" s="0" t="n">
-        <f aca="false">soma(AK35:AK44)/10</f>
-        <v>19404788.5</v>
-      </c>
-      <c r="CD6" s="0" t="n">
-        <f aca="false">soma(AL35:AL44)/10</f>
-        <v>10835224.7</v>
-      </c>
-      <c r="CE6" s="0" t="n">
-        <f aca="false">soma(AM35:AM44)/10</f>
-        <v>1948968.3</v>
-      </c>
-      <c r="CF6" s="0" t="n">
-        <f aca="false">soma(AN35:AN44)/10</f>
-        <v>10623746.4</v>
-      </c>
-      <c r="CG6" s="0" t="n">
-        <f aca="false">soma(AO35:AO44)/10</f>
-        <v>10655176</v>
-      </c>
-      <c r="CH6" s="0" t="n">
-        <f aca="false">soma(AP35:AP44)/10</f>
-        <v>17830750.1</v>
+        <v>#NAME?</v>
+      </c>
+      <c r="CC6" s="4" t="n">
+        <f aca="false">SOMA(AK35:AK44)/10000000</f>
+        <v>19.4047885</v>
+      </c>
+      <c r="CD6" s="4" t="n">
+        <f aca="false">SOMA(AL35:AL44)/10000000</f>
+        <v>10.8352247</v>
+      </c>
+      <c r="CE6" s="4" t="n">
+        <f aca="false">SOMA(AM35:AM44)/10000000</f>
+        <v>1.9489683</v>
+      </c>
+      <c r="CF6" s="4" t="n">
+        <f aca="false">SOMA(AN35:AN44)/10000000</f>
+        <v>10.6237464</v>
+      </c>
+      <c r="CG6" s="4" t="n">
+        <f aca="false">SOMA(AO35:AO44)/10000000</f>
+        <v>10.655176</v>
+      </c>
+      <c r="CH6" s="4" t="n">
+        <f aca="false">SOMA(AP35:AP44)/10000000</f>
+        <v>17.8307501</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="7">
@@ -10501,32 +10507,32 @@
       <c r="AT7" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="AU7" s="0" t="n">
-        <f aca="false">SUM(C46:C55)/10000000</f>
+      <c r="AU7" s="4" t="n">
+        <f aca="false">SOMA(C46:C55)/10000000</f>
         <v>0.9597755</v>
       </c>
-      <c r="AV7" s="0" t="n">
-        <f aca="false">SUM(D46:D55)/10000000</f>
+      <c r="AV7" s="4" t="n">
+        <f aca="false">SOMA(D46:D55)/10000000</f>
         <v>3.4476969</v>
       </c>
-      <c r="AW7" s="0" t="n">
-        <f aca="false">SUM(E46:E55)/10000000</f>
+      <c r="AW7" s="4" t="n">
+        <f aca="false">SOMA(E46:E55)/10000000</f>
         <v>7.0908943</v>
       </c>
-      <c r="AX7" s="0" t="n">
-        <f aca="false">SUM(F46:F55)/10000000</f>
+      <c r="AX7" s="4" t="n">
+        <f aca="false">SOMA(F46:F55)/10000000</f>
         <v>1.0953999</v>
       </c>
-      <c r="AY7" s="0" t="n">
-        <f aca="false">SUM(G46:G55)/10000000</f>
+      <c r="AY7" s="4" t="n">
+        <f aca="false">SOMA(G46:G55)/10000000</f>
         <v>2.5580042</v>
       </c>
-      <c r="AZ7" s="0" t="n">
-        <f aca="false">SUM(H46:H55)/10000000</f>
+      <c r="AZ7" s="4" t="n">
+        <f aca="false">SOMA(H46:H55)/10000000</f>
         <v>7.1834318</v>
       </c>
-      <c r="BA7" s="0" t="n">
-        <f aca="false">SUM(I46:I55)/10000000</f>
+      <c r="BA7" s="4" t="n">
+        <f aca="false">SOMA(I46:I55)/10000000</f>
         <v>110.3048731</v>
       </c>
       <c r="BD7" s="0" t="n">
@@ -10535,32 +10541,32 @@
       <c r="BE7" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="BF7" s="0" t="n">
-        <f aca="false">SUM(N46:N55)/10000000</f>
+      <c r="BF7" s="4" t="n">
+        <f aca="false">SOMA(N46:N55)/10000000</f>
         <v>1.1953731</v>
       </c>
-      <c r="BG7" s="0" t="n">
-        <f aca="false">SUM(O46:O55)/10000000</f>
+      <c r="BG7" s="4" t="n">
+        <f aca="false">SOMA(O46:O55)/10000000</f>
         <v>8.3418811</v>
       </c>
-      <c r="BH7" s="0" t="n">
-        <f aca="false">SUM(P46:P55)/10000000</f>
+      <c r="BH7" s="4" t="n">
+        <f aca="false">SOMA(P46:P55)/10000000</f>
         <v>9.6782666</v>
       </c>
-      <c r="BI7" s="0" t="n">
-        <f aca="false">SUM(Q46:Q55)/10000000</f>
+      <c r="BI7" s="4" t="n">
+        <f aca="false">SOMA(Q46:Q55)/10000000</f>
         <v>1.3800455</v>
       </c>
-      <c r="BJ7" s="0" t="n">
-        <f aca="false">SUM(R46:R55)/10000000</f>
+      <c r="BJ7" s="4" t="n">
+        <f aca="false">SOMA(R46:R55)/10000000</f>
         <v>5.1026291</v>
       </c>
-      <c r="BK7" s="0" t="n">
-        <f aca="false">SUM(S46:S55)/10000000</f>
+      <c r="BK7" s="4" t="n">
+        <f aca="false">SOMA(S46:S55)/10000000</f>
         <v>9.4779213</v>
       </c>
-      <c r="BL7" s="0" t="n">
-        <f aca="false">SUM(T46:T55)/10000000</f>
+      <c r="BL7" s="4" t="n">
+        <f aca="false">SOMA(T46:T55)/10000000</f>
         <v>106.9159748</v>
       </c>
       <c r="BO7" s="0" t="n">
@@ -10569,32 +10575,32 @@
       <c r="BP7" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="BQ7" s="0" t="n">
-        <f aca="false">SUM(Y46:Y55)/10000000</f>
+      <c r="BQ7" s="4" t="n">
+        <f aca="false">SOMA(Y46:Y55)/10000000</f>
         <v>4.7003659</v>
       </c>
-      <c r="BR7" s="0" t="n">
-        <f aca="false">SUM(Z46:Z55)/10000000</f>
+      <c r="BR7" s="4" t="n">
+        <f aca="false">SOMA(Z46:Z55)/10000000</f>
         <v>46.1431574</v>
       </c>
-      <c r="BS7" s="0" t="n">
-        <f aca="false">SUM(AA46:AA55)/10000000</f>
+      <c r="BS7" s="4" t="n">
+        <f aca="false">SOMA(AA46:AA55)/10000000</f>
         <v>28.9611204</v>
       </c>
-      <c r="BT7" s="0" t="n">
-        <f aca="false">SUM(AB46:AB55)/10000000</f>
+      <c r="BT7" s="4" t="n">
+        <f aca="false">SOMA(AB46:AB55)/10000000</f>
         <v>5.4383557</v>
       </c>
-      <c r="BU7" s="0" t="n">
-        <f aca="false">SUM(AC46:AC55)/10000000</f>
+      <c r="BU7" s="4" t="n">
+        <f aca="false">SOMA(AC46:AC55)/10000000</f>
         <v>24.7551528</v>
       </c>
-      <c r="BV7" s="0" t="n">
-        <f aca="false">SUM(AD46:AD55)/10000000</f>
+      <c r="BV7" s="4" t="n">
+        <f aca="false">SOMA(AD46:AD55)/10000000</f>
         <v>27.909408</v>
       </c>
-      <c r="BW7" s="0" t="n">
-        <f aca="false">SUM(AE46:AE55)/10000000</f>
+      <c r="BW7" s="4" t="n">
+        <f aca="false">SOMA(AE46:AE55)/10000000</f>
         <v>79.3657426</v>
       </c>
       <c r="BZ7" s="0" t="n">
@@ -10603,33 +10609,33 @@
       <c r="CA7" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="CB7" s="0" t="n">
-        <f aca="false">soma(AJ46:AJ55)/10</f>
-        <v>9655528.3</v>
-      </c>
-      <c r="CC7" s="0" t="n">
-        <f aca="false">soma(AK46:AK55)/10</f>
-        <v>91776531.8</v>
-      </c>
-      <c r="CD7" s="0" t="n">
-        <f aca="false">soma(AL46:AL55)/10</f>
-        <v>50412969.9</v>
-      </c>
-      <c r="CE7" s="0" t="n">
-        <f aca="false">soma(AM46:AM55)/10</f>
-        <v>9659303.9</v>
-      </c>
-      <c r="CF7" s="0" t="n">
-        <f aca="false">soma(AN46:AN55)/10</f>
-        <v>49333906.3</v>
-      </c>
-      <c r="CG7" s="0" t="n">
-        <f aca="false">soma(AO46:AO55)/10</f>
-        <v>50115514.5</v>
-      </c>
-      <c r="CH7" s="0" t="n">
-        <f aca="false">soma(AP46:AP55)/10</f>
-        <v>145111666.1</v>
+      <c r="CB7" s="4" t="n">
+        <f aca="false">SOMA(AJ46:AJ55)/10000000</f>
+        <v>9.6555283</v>
+      </c>
+      <c r="CC7" s="4" t="n">
+        <f aca="false">SOMA(AK46:AK55)/10000000</f>
+        <v>91.7765318</v>
+      </c>
+      <c r="CD7" s="4" t="n">
+        <f aca="false">SOMA(AL46:AL55)/10000000</f>
+        <v>50.4129699</v>
+      </c>
+      <c r="CE7" s="4" t="n">
+        <f aca="false">SOMA(AM46:AM55)/10000000</f>
+        <v>9.6593039</v>
+      </c>
+      <c r="CF7" s="4" t="n">
+        <f aca="false">SOMA(AN46:AN55)/10000000</f>
+        <v>49.3339063</v>
+      </c>
+      <c r="CG7" s="4" t="n">
+        <f aca="false">SOMA(AO46:AO55)/10000000</f>
+        <v>50.1155145</v>
+      </c>
+      <c r="CH7" s="4" t="n">
+        <f aca="false">SOMA(AP46:AP55)/10000000</f>
+        <v>145.1116661</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="8">
@@ -10747,32 +10753,32 @@
       <c r="AT8" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="AU8" s="0" t="n">
-        <f aca="false">SUM(C57:C66)/10000000</f>
+      <c r="AU8" s="4" t="n">
+        <f aca="false">SOMA(C57:C66)/10000000</f>
         <v>1.9097757</v>
       </c>
-      <c r="AV8" s="0" t="n">
-        <f aca="false">SUM(D57:D66)/10000000</f>
+      <c r="AV8" s="4" t="n">
+        <f aca="false">SOMA(D57:D66)/10000000</f>
         <v>7.8994186</v>
       </c>
-      <c r="AW8" s="0" t="n">
-        <f aca="false">SUM(E57:E66)/10000000</f>
+      <c r="AW8" s="4" t="n">
+        <f aca="false">SOMA(E57:E66)/10000000</f>
         <v>13.9601585</v>
       </c>
-      <c r="AX8" s="0" t="n">
-        <f aca="false">SUM(F57:F66)/10000000</f>
+      <c r="AX8" s="4" t="n">
+        <f aca="false">SOMA(F57:F66)/10000000</f>
         <v>2.1975754</v>
       </c>
-      <c r="AY8" s="0" t="n">
-        <f aca="false">SUM(G57:G66)/10000000</f>
+      <c r="AY8" s="4" t="n">
+        <f aca="false">SOMA(G57:G66)/10000000</f>
         <v>5.0568285</v>
       </c>
-      <c r="AZ8" s="0" t="n">
-        <f aca="false">SUM(H57:H66)/10000000</f>
+      <c r="AZ8" s="4" t="n">
+        <f aca="false">SOMA(H57:H66)/10000000</f>
         <v>13.4919633</v>
       </c>
-      <c r="BA8" s="0" t="n">
-        <f aca="false">SUM(I57:I66)/10000000</f>
+      <c r="BA8" s="4" t="n">
+        <f aca="false">SOMA(I57:I66)/10000000</f>
         <v>380.4711697</v>
       </c>
       <c r="BD8" s="0" t="n">
@@ -10781,32 +10787,32 @@
       <c r="BE8" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="BF8" s="0" t="n">
-        <f aca="false">SUM(N57:N66)/10000000</f>
+      <c r="BF8" s="4" t="n">
+        <f aca="false">SOMA(N57:N66)/10000000</f>
         <v>2.3891596</v>
       </c>
-      <c r="BG8" s="0" t="n">
-        <f aca="false">SUM(O57:O66)/10000000</f>
+      <c r="BG8" s="4" t="n">
+        <f aca="false">SOMA(O57:O66)/10000000</f>
         <v>18.0689251</v>
       </c>
-      <c r="BH8" s="0" t="n">
-        <f aca="false">SUM(P57:P66)/10000000</f>
+      <c r="BH8" s="4" t="n">
+        <f aca="false">SOMA(P57:P66)/10000000</f>
         <v>18.8507254</v>
       </c>
-      <c r="BI8" s="0" t="n">
-        <f aca="false">SUM(Q57:Q66)/10000000</f>
+      <c r="BI8" s="4" t="n">
+        <f aca="false">SOMA(Q57:Q66)/10000000</f>
         <v>2.7550645</v>
       </c>
-      <c r="BJ8" s="0" t="n">
-        <f aca="false">SUM(R57:R66)/10000000</f>
+      <c r="BJ8" s="4" t="n">
+        <f aca="false">SOMA(R57:R66)/10000000</f>
         <v>9.7981636</v>
       </c>
-      <c r="BK8" s="0" t="n">
-        <f aca="false">SUM(S57:S66)/10000000</f>
+      <c r="BK8" s="4" t="n">
+        <f aca="false">SOMA(S57:S66)/10000000</f>
         <v>18.4178895</v>
       </c>
-      <c r="BL8" s="0" t="n">
-        <f aca="false">SUM(T57:T66)/10000000</f>
+      <c r="BL8" s="4" t="n">
+        <f aca="false">SOMA(T57:T66)/10000000</f>
         <v>167.4438292</v>
       </c>
       <c r="BO8" s="0" t="n">
@@ -10815,32 +10821,32 @@
       <c r="BP8" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="BQ8" s="0" t="n">
-        <f aca="false">SUM(Y57:Y66)/10000000</f>
+      <c r="BQ8" s="4" t="n">
+        <f aca="false">SOMA(Y57:Y66)/10000000</f>
         <v>8.741741</v>
       </c>
-      <c r="BR8" s="0" t="n">
-        <f aca="false">SUM(Z57:Z66)/10000000</f>
+      <c r="BR8" s="4" t="n">
+        <f aca="false">SOMA(Z57:Z66)/10000000</f>
         <v>91.5654253</v>
       </c>
-      <c r="BS8" s="0" t="n">
-        <f aca="false">SUM(AA57:AA66)/10000000</f>
+      <c r="BS8" s="4" t="n">
+        <f aca="false">SOMA(AA57:AA66)/10000000</f>
         <v>57.2518465</v>
       </c>
-      <c r="BT8" s="0" t="n">
-        <f aca="false">SUM(AB57:AB66)/10000000</f>
+      <c r="BT8" s="4" t="n">
+        <f aca="false">SOMA(AB57:AB66)/10000000</f>
         <v>10.8554174</v>
       </c>
-      <c r="BU8" s="0" t="n">
-        <f aca="false">SUM(AC57:AC66)/10000000</f>
+      <c r="BU8" s="4" t="n">
+        <f aca="false">SOMA(AC57:AC66)/10000000</f>
         <v>48.5089835</v>
       </c>
-      <c r="BV8" s="0" t="n">
-        <f aca="false">SUM(AD57:AD66)/10000000</f>
+      <c r="BV8" s="4" t="n">
+        <f aca="false">SOMA(AD57:AD66)/10000000</f>
         <v>55.8697782</v>
       </c>
-      <c r="BW8" s="0" t="n">
-        <f aca="false">SUM(AE57:AE66)/10000000</f>
+      <c r="BW8" s="4" t="n">
+        <f aca="false">SOMA(AE57:AE66)/10000000</f>
         <v>178.4298196</v>
       </c>
       <c r="BZ8" s="0" t="n">
@@ -10849,33 +10855,33 @@
       <c r="CA8" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="CB8" s="0" t="n">
-        <f aca="false">soma(AJ57:AJ66)/10</f>
-        <v>19285432.8</v>
-      </c>
-      <c r="CC8" s="0" t="n">
-        <f aca="false">soma(AK57:AK66)/10</f>
-        <v>181934729.6</v>
-      </c>
-      <c r="CD8" s="0" t="n">
-        <f aca="false">soma(AL57:AL66)/10</f>
-        <v>99592545.5</v>
-      </c>
-      <c r="CE8" s="0" t="n">
-        <f aca="false">soma(AM57:AM66)/10</f>
-        <v>19300513.5</v>
-      </c>
-      <c r="CF8" s="0" t="n">
-        <f aca="false">soma(AN57:AN66)/10</f>
-        <v>97119909.1</v>
-      </c>
-      <c r="CG8" s="0" t="n">
-        <f aca="false">soma(AO57:AO66)/10</f>
-        <v>98678111.7</v>
-      </c>
-      <c r="CH8" s="0" t="n">
-        <f aca="false">soma(AP57:AP66)/10</f>
-        <v>216013215.6</v>
+      <c r="CB8" s="4" t="n">
+        <f aca="false">SOMA(AJ57:AJ66)/10000000</f>
+        <v>19.2854328</v>
+      </c>
+      <c r="CC8" s="4" t="n">
+        <f aca="false">SOMA(AK57:AK66)/10000000</f>
+        <v>181.9347296</v>
+      </c>
+      <c r="CD8" s="4" t="n">
+        <f aca="false">SOMA(AL57:AL66)/10000000</f>
+        <v>99.5925455</v>
+      </c>
+      <c r="CE8" s="4" t="n">
+        <f aca="false">SOMA(AM57:AM66)/10000000</f>
+        <v>19.3005135</v>
+      </c>
+      <c r="CF8" s="4" t="n">
+        <f aca="false">SOMA(AN57:AN66)/10000000</f>
+        <v>97.1199091</v>
+      </c>
+      <c r="CG8" s="4" t="n">
+        <f aca="false">SOMA(AO57:AO66)/10000000</f>
+        <v>98.6781117</v>
+      </c>
+      <c r="CH8" s="4" t="n">
+        <f aca="false">SOMA(AP57:AP66)/10000000</f>
+        <v>216.0132156</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="9">
@@ -10993,32 +10999,32 @@
       <c r="AT9" s="0" t="n">
         <v>5000000</v>
       </c>
-      <c r="AU9" s="0" t="n">
-        <f aca="false">SUM(C68:C77)/10000000</f>
+      <c r="AU9" s="4" t="n">
+        <f aca="false">SOMA(C68:C77)/10000000</f>
         <v>10.876489</v>
       </c>
-      <c r="AV9" s="0" t="n">
-        <f aca="false">SUM(D68:D77)/10000000</f>
+      <c r="AV9" s="4" t="n">
+        <f aca="false">SOMA(D68:D77)/10000000</f>
         <v>45.6724573</v>
       </c>
-      <c r="AW9" s="0" t="n">
-        <f aca="false">SUM(E68:E77)/10000000</f>
+      <c r="AW9" s="4" t="n">
+        <f aca="false">SOMA(E68:E77)/10000000</f>
         <v>68.5225246</v>
       </c>
-      <c r="AX9" s="0" t="n">
-        <f aca="false">SUM(F68:F77)/10000000</f>
+      <c r="AX9" s="4" t="n">
+        <f aca="false">SOMA(F68:F77)/10000000</f>
         <v>10.928377</v>
       </c>
-      <c r="AY9" s="0" t="n">
-        <f aca="false">SUM(G68:G77)/10000000</f>
+      <c r="AY9" s="4" t="n">
+        <f aca="false">SOMA(G68:G77)/10000000</f>
         <v>24.1375913</v>
       </c>
-      <c r="AZ9" s="0" t="n">
-        <f aca="false">SUM(H68:H77)/10000000</f>
+      <c r="AZ9" s="4" t="n">
+        <f aca="false">SOMA(H68:H77)/10000000</f>
         <v>64.4596584</v>
       </c>
-      <c r="BA9" s="0" t="n">
-        <f aca="false">SUM(I68:I77)/10000000</f>
+      <c r="BA9" s="4" t="n">
+        <f aca="false">SOMA(I68:I77)/10000000</f>
         <v>1066.0410451</v>
       </c>
       <c r="BD9" s="0" t="n">
@@ -11027,32 +11033,32 @@
       <c r="BE9" s="0" t="n">
         <v>5000000</v>
       </c>
-      <c r="BF9" s="0" t="n">
-        <f aca="false">SUM(N68:N77)/10000000</f>
+      <c r="BF9" s="4" t="n">
+        <f aca="false">SOMA(N68:N77)/10000000</f>
         <v>13.5810182</v>
       </c>
-      <c r="BG9" s="0" t="n">
-        <f aca="false">SUM(O68:O77)/10000000</f>
+      <c r="BG9" s="4" t="n">
+        <f aca="false">SOMA(O68:O77)/10000000</f>
         <v>95.3276821</v>
       </c>
-      <c r="BH9" s="0" t="n">
-        <f aca="false">SUM(P68:P77)/10000000</f>
+      <c r="BH9" s="4" t="n">
+        <f aca="false">SOMA(P68:P77)/10000000</f>
         <v>91.779569</v>
       </c>
-      <c r="BI9" s="0" t="n">
-        <f aca="false">SUM(Q68:Q77)/10000000</f>
+      <c r="BI9" s="4" t="n">
+        <f aca="false">SOMA(Q68:Q77)/10000000</f>
         <v>13.7520322</v>
       </c>
-      <c r="BJ9" s="0" t="n">
-        <f aca="false">SUM(R68:R77)/10000000</f>
+      <c r="BJ9" s="4" t="n">
+        <f aca="false">SOMA(R68:R77)/10000000</f>
         <v>48.1117318</v>
       </c>
-      <c r="BK9" s="0" t="n">
-        <f aca="false">SUM(S68:S77)/10000000</f>
+      <c r="BK9" s="4" t="n">
+        <f aca="false">SOMA(S68:S77)/10000000</f>
         <v>87.3377674</v>
       </c>
-      <c r="BL9" s="0" t="n">
-        <f aca="false">SUM(T68:T77)/10000000</f>
+      <c r="BL9" s="4" t="n">
+        <f aca="false">SOMA(T68:T77)/10000000</f>
         <v>1230.0820803</v>
       </c>
       <c r="BO9" s="0" t="n">
@@ -11061,32 +11067,32 @@
       <c r="BP9" s="0" t="n">
         <v>5000000</v>
       </c>
-      <c r="BQ9" s="0" t="n">
-        <f aca="false">SUM(Y68:Y77)/10000000</f>
+      <c r="BQ9" s="4" t="n">
+        <f aca="false">SOMA(Y68:Y77)/10000000</f>
         <v>54.1380312</v>
       </c>
-      <c r="BR9" s="0" t="n">
-        <f aca="false">SUM(Z68:Z77)/10000000</f>
+      <c r="BR9" s="4" t="n">
+        <f aca="false">SOMA(Z68:Z77)/10000000</f>
         <v>462.1611461</v>
       </c>
-      <c r="BS9" s="0" t="n">
-        <f aca="false">SUM(AA68:AA77)/10000000</f>
+      <c r="BS9" s="4" t="n">
+        <f aca="false">SOMA(AA68:AA77)/10000000</f>
         <v>281.2896174</v>
       </c>
-      <c r="BT9" s="0" t="n">
-        <f aca="false">SUM(AB68:AB77)/10000000</f>
+      <c r="BT9" s="4" t="n">
+        <f aca="false">SOMA(AB68:AB77)/10000000</f>
         <v>54.2137279</v>
       </c>
-      <c r="BU9" s="0" t="n">
-        <f aca="false">SUM(AC68:AC77)/10000000</f>
+      <c r="BU9" s="4" t="n">
+        <f aca="false">SOMA(AC68:AC77)/10000000</f>
         <v>239.1468746</v>
       </c>
-      <c r="BV9" s="0" t="n">
-        <f aca="false">SUM(AD68:AD77)/10000000</f>
+      <c r="BV9" s="4" t="n">
+        <f aca="false">SOMA(AD68:AD77)/10000000</f>
         <v>274.2412761</v>
       </c>
-      <c r="BW9" s="0" t="n">
-        <f aca="false">SUM(AE68:AE77)/10000000</f>
+      <c r="BW9" s="4" t="n">
+        <f aca="false">SOMA(AE68:AE77)/10000000</f>
         <v>1615.8660723</v>
       </c>
       <c r="BZ9" s="0" t="n">
@@ -11095,33 +11101,33 @@
       <c r="CA9" s="0" t="n">
         <v>5000000</v>
       </c>
-      <c r="CB9" s="0" t="n">
-        <f aca="false">soma(AJ68:AJ77)/10</f>
-        <v>96379329.5</v>
-      </c>
-      <c r="CC9" s="0" t="n">
-        <f aca="false">soma(AK68:AK77)/10</f>
-        <v>911109847.2</v>
-      </c>
-      <c r="CD9" s="0" t="n">
-        <f aca="false">soma(AL68:AL77)/10</f>
-        <v>492366229.6</v>
-      </c>
-      <c r="CE9" s="0" t="n">
-        <f aca="false">soma(AM68:AM77)/10</f>
-        <v>96373680.8</v>
-      </c>
-      <c r="CF9" s="0" t="n">
-        <f aca="false">soma(AN68:AN77)/10</f>
-        <v>478218174.7</v>
-      </c>
-      <c r="CG9" s="0" t="n">
-        <f aca="false">soma(AO68:AO77)/10</f>
-        <v>490851495.5</v>
-      </c>
-      <c r="CH9" s="0" t="n">
-        <f aca="false">soma(AP68:AP77)/10</f>
-        <v>1297884649.8</v>
+      <c r="CB9" s="4" t="n">
+        <f aca="false">SOMA(AJ68:AJ77)/10000000</f>
+        <v>96.3793295</v>
+      </c>
+      <c r="CC9" s="4" t="n">
+        <f aca="false">SOMA(AK68:AK77)/10000000</f>
+        <v>911.1098472</v>
+      </c>
+      <c r="CD9" s="4" t="n">
+        <f aca="false">SOMA(AL68:AL77)/10000000</f>
+        <v>492.3662296</v>
+      </c>
+      <c r="CE9" s="4" t="n">
+        <f aca="false">SOMA(AM68:AM77)/10000000</f>
+        <v>96.3736808</v>
+      </c>
+      <c r="CF9" s="4" t="n">
+        <f aca="false">SOMA(AN68:AN77)/10000000</f>
+        <v>478.2181747</v>
+      </c>
+      <c r="CG9" s="4" t="n">
+        <f aca="false">SOMA(AO68:AO77)/10000000</f>
+        <v>490.8514955</v>
+      </c>
+      <c r="CH9" s="4" t="n">
+        <f aca="false">SOMA(AP68:AP77)/10000000</f>
+        <v>1297.8846498</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
@@ -17835,7 +17841,7 @@
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="77">
-      <c r="A77" s="4" t="n">
+      <c r="A77" s="5" t="n">
         <v>5000</v>
       </c>
       <c r="B77" s="0" t="n">
@@ -17944,7 +17950,7 @@
         <v>1128274352</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="80">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="80">
       <c r="A80" s="2" t="s">
         <v>11</v>
       </c>
@@ -17958,7 +17964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="81">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="81">
       <c r="A81" s="1" t="s">
         <v>0</v>
       </c>
@@ -18080,1011 +18086,1011 @@
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="82">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="82">
       <c r="A82" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="C82" s="4" t="n">
+      <c r="C82" s="5" t="n">
         <f aca="false">VAR(C2:C11)/1000000000000</f>
         <v>6.38787777777778E-009</v>
       </c>
-      <c r="D82" s="4" t="n">
+      <c r="D82" s="5" t="n">
         <f aca="false">VAR(D2:D11)/1000000000000</f>
         <v>0.000492035559388889</v>
       </c>
-      <c r="E82" s="4" t="n">
+      <c r="E82" s="5" t="n">
         <f aca="false">VAR(E2:E11)/1000000000000</f>
         <v>0.0002830444284</v>
       </c>
-      <c r="F82" s="4" t="n">
+      <c r="F82" s="5" t="n">
         <f aca="false">VAR(F2:F11)/1000000000000</f>
         <v>7.01955555555556E-010</v>
       </c>
-      <c r="G82" s="4" t="n">
+      <c r="G82" s="5" t="n">
         <f aca="false">VAR(G2:G11)/1000000000000</f>
         <v>2.00885188888889E-005</v>
       </c>
-      <c r="H82" s="4" t="n">
+      <c r="H82" s="5" t="n">
         <f aca="false">VAR(H2:H11)/1000000000000</f>
         <v>0.000182138399066667</v>
       </c>
-      <c r="I82" s="4" t="n">
+      <c r="I82" s="5" t="n">
         <f aca="false">VAR(I2:I11)/1000000000000</f>
         <v>0.263082896763067</v>
       </c>
-      <c r="J82" s="4"/>
+      <c r="J82" s="5"/>
       <c r="L82" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M82" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="N82" s="4" t="n">
+      <c r="N82" s="5" t="n">
         <f aca="false">VAR(N2:N11)/1000000000000</f>
         <v>3.45232888888889E-008</v>
       </c>
-      <c r="O82" s="4" t="n">
+      <c r="O82" s="5" t="n">
         <f aca="false">VAR(O2:O11)/1000000000000</f>
         <v>0.00494750419734444</v>
       </c>
-      <c r="P82" s="4" t="n">
+      <c r="P82" s="5" t="n">
         <f aca="false">VAR(P2:P11)/1000000000000</f>
         <v>0.000238723954322222</v>
       </c>
-      <c r="Q82" s="4" t="n">
+      <c r="Q82" s="5" t="n">
         <f aca="false">VAR(Q2:Q11)/1000000000000</f>
         <v>3.45733333333333E-009</v>
       </c>
-      <c r="R82" s="4" t="n">
+      <c r="R82" s="5" t="n">
         <f aca="false">VAR(R2:R11)/1000000000000</f>
         <v>1.23215433333333E-007</v>
       </c>
-      <c r="S82" s="4" t="n">
+      <c r="S82" s="5" t="n">
         <f aca="false">VAR(S2:S11)/1000000000000</f>
         <v>0.000230817662277778</v>
       </c>
-      <c r="T82" s="4" t="n">
+      <c r="T82" s="5" t="n">
         <f aca="false">VAR(T2:T11)/1000000000000</f>
         <v>0.0918559747146778</v>
       </c>
-      <c r="U82" s="4"/>
+      <c r="U82" s="5"/>
       <c r="W82" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X82" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="Y82" s="4" t="n">
+      <c r="Y82" s="5" t="n">
         <f aca="false">VAR(Y2:Y11)/1000000000000</f>
         <v>2.05785444444444E-008</v>
       </c>
-      <c r="Z82" s="4" t="n">
+      <c r="Z82" s="5" t="n">
         <f aca="false">VAR(Z2:Z11)/1000000000000</f>
         <v>0.00746463486026667</v>
       </c>
-      <c r="AA82" s="4" t="n">
+      <c r="AA82" s="5" t="n">
         <f aca="false">VAR(AA2:AA11)/1000000000000</f>
         <v>0.000516828206544445</v>
       </c>
-      <c r="AB82" s="4" t="n">
+      <c r="AB82" s="5" t="n">
         <f aca="false">VAR(AB2:AB11)/1000000000000</f>
         <v>6.81565555555556E-009</v>
       </c>
-      <c r="AC82" s="4" t="n">
+      <c r="AC82" s="5" t="n">
         <f aca="false">VAR(AC2:AC11)/1000000000000</f>
         <v>0.00111524261912222</v>
       </c>
-      <c r="AD82" s="4" t="n">
+      <c r="AD82" s="5" t="n">
         <f aca="false">VAR(AD2:AD11)/1000000000000</f>
         <v>0.000417548717566667</v>
       </c>
-      <c r="AE82" s="4" t="n">
+      <c r="AE82" s="5" t="n">
         <f aca="false">VAR(AE2:AE11)/1000000000000</f>
         <v>0.0839120799998778</v>
       </c>
-      <c r="AF82" s="4"/>
+      <c r="AF82" s="5"/>
       <c r="AH82" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI82" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="AJ82" s="4" t="n">
+      <c r="AJ82" s="5" t="n">
         <f aca="false">VAR(AJ2:AJ11)/1000000000000</f>
         <v>1.27599166666667E-007</v>
       </c>
-      <c r="AK82" s="4" t="n">
+      <c r="AK82" s="5" t="n">
         <f aca="false">VAR(AK2:AK11)/1000000000000</f>
         <v>0.00732297796143333</v>
       </c>
-      <c r="AL82" s="4" t="n">
+      <c r="AL82" s="5" t="n">
         <f aca="false">VAR(AL2:AL11)/1000000000000</f>
         <v>0.000505251149066667</v>
       </c>
-      <c r="AM82" s="4" t="n">
+      <c r="AM82" s="5" t="n">
         <f aca="false">VAR(AM2:AM11)/1000000000000</f>
         <v>1.48535666666667E-008</v>
       </c>
-      <c r="AN82" s="4" t="n">
+      <c r="AN82" s="5" t="n">
         <f aca="false">VAR(AN2:AN11)/1000000000000</f>
         <v>0.00143421787804444</v>
       </c>
-      <c r="AO82" s="4" t="n">
+      <c r="AO82" s="5" t="n">
         <f aca="false">VAR(AO2:AO11)/1000000000000</f>
         <v>0.000252811968233333</v>
       </c>
-      <c r="AP82" s="4" t="n">
+      <c r="AP82" s="5" t="n">
         <f aca="false">VAR(AP2:AP11)/1000000000000</f>
         <v>0.308682508370544</v>
       </c>
-      <c r="AQ82" s="4"/>
+      <c r="AQ82" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="83">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="83">
       <c r="A83" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="C83" s="4" t="n">
+      <c r="C83" s="5" t="n">
         <f aca="false">VAR(C13:C22)/1000000000000</f>
         <v>1.71580111111111E-008</v>
       </c>
-      <c r="D83" s="4" t="n">
+      <c r="D83" s="5" t="n">
         <f aca="false">VAR(D13:D22)/1000000000000</f>
         <v>0.00379166564343333</v>
       </c>
-      <c r="E83" s="4" t="n">
+      <c r="E83" s="5" t="n">
         <f aca="false">VAR(E13:E22)/1000000000000</f>
         <v>0.000475457772766667</v>
       </c>
-      <c r="F83" s="4" t="n">
+      <c r="F83" s="5" t="n">
         <f aca="false">VAR(F13:F22)/1000000000000</f>
         <v>1.62262333333333E-008</v>
       </c>
-      <c r="G83" s="4" t="n">
+      <c r="G83" s="5" t="n">
         <f aca="false">VAR(G13:G22)/1000000000000</f>
         <v>3.33357321111111E-006</v>
       </c>
-      <c r="H83" s="4" t="n">
+      <c r="H83" s="5" t="n">
         <f aca="false">VAR(H13:H22)/1000000000000</f>
         <v>0.000413049256266667</v>
       </c>
-      <c r="I83" s="4" t="n">
+      <c r="I83" s="5" t="n">
         <f aca="false">VAR(I13:I22)/1000000000000</f>
         <v>2.55043345241166</v>
       </c>
-      <c r="J83" s="4"/>
+      <c r="J83" s="5"/>
       <c r="L83" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M83" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="N83" s="4" t="n">
+      <c r="N83" s="5" t="n">
         <f aca="false">VAR(N13:N22)/1000000000000</f>
         <v>8.5949E-009</v>
       </c>
-      <c r="O83" s="4" t="n">
+      <c r="O83" s="5" t="n">
         <f aca="false">VAR(O13:O22)/1000000000000</f>
         <v>0.00246330431934444</v>
       </c>
-      <c r="P83" s="4" t="n">
+      <c r="P83" s="5" t="n">
         <f aca="false">VAR(P13:P22)/1000000000000</f>
         <v>0.000200577168622222</v>
       </c>
-      <c r="Q83" s="4" t="n">
+      <c r="Q83" s="5" t="n">
         <f aca="false">VAR(Q13:Q22)/1000000000000</f>
         <v>8.0129E-009</v>
       </c>
-      <c r="R83" s="4" t="n">
+      <c r="R83" s="5" t="n">
         <f aca="false">VAR(R13:R22)/1000000000000</f>
         <v>9.45938916666667E-006</v>
       </c>
-      <c r="S83" s="4" t="n">
+      <c r="S83" s="5" t="n">
         <f aca="false">VAR(S13:S22)/1000000000000</f>
         <v>0.000410463242666667</v>
       </c>
-      <c r="T83" s="4" t="n">
+      <c r="T83" s="5" t="n">
         <f aca="false">VAR(T13:T22)/1000000000000</f>
         <v>0.829922095162933</v>
       </c>
-      <c r="U83" s="4"/>
+      <c r="U83" s="5"/>
       <c r="W83" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X83" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="Y83" s="4" t="n">
+      <c r="Y83" s="5" t="n">
         <f aca="false">VAR(Y13:Y22)/1000000000000</f>
         <v>3.46097611111111E-007</v>
       </c>
-      <c r="Z83" s="4" t="n">
+      <c r="Z83" s="5" t="n">
         <f aca="false">VAR(Z13:Z22)/1000000000000</f>
         <v>0.0232567982876</v>
       </c>
-      <c r="AA83" s="4" t="n">
+      <c r="AA83" s="5" t="n">
         <f aca="false">VAR(AA13:AA22)/1000000000000</f>
         <v>0.00199177807128889</v>
       </c>
-      <c r="AB83" s="4" t="n">
+      <c r="AB83" s="5" t="n">
         <f aca="false">VAR(AB13:AB22)/1000000000000</f>
         <v>2.29379655555556E-007</v>
       </c>
-      <c r="AC83" s="4" t="n">
+      <c r="AC83" s="5" t="n">
         <f aca="false">VAR(AC13:AC22)/1000000000000</f>
         <v>0.000809557026711111</v>
       </c>
-      <c r="AD83" s="4" t="n">
+      <c r="AD83" s="5" t="n">
         <f aca="false">VAR(AD13:AD22)/1000000000000</f>
         <v>0.000446240997122222</v>
       </c>
-      <c r="AE83" s="4" t="n">
+      <c r="AE83" s="5" t="n">
         <f aca="false">VAR(AE13:AE22)/1000000000000</f>
         <v>10.8726295643611</v>
       </c>
-      <c r="AF83" s="4"/>
+      <c r="AF83" s="5"/>
       <c r="AH83" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI83" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="AJ83" s="4" t="n">
+      <c r="AJ83" s="5" t="n">
         <f aca="false">VAR(AJ13:AJ22)/1000000000000</f>
         <v>1.23669267777778E-006</v>
       </c>
-      <c r="AK83" s="4" t="n">
+      <c r="AK83" s="5" t="n">
         <f aca="false">VAR(AK13:AK22)/1000000000000</f>
         <v>0.0119601102726778</v>
       </c>
-      <c r="AL83" s="4" t="n">
+      <c r="AL83" s="5" t="n">
         <f aca="false">VAR(AL13:AL22)/1000000000000</f>
         <v>0.0013313086884</v>
       </c>
-      <c r="AM83" s="4" t="n">
+      <c r="AM83" s="5" t="n">
         <f aca="false">VAR(AM13:AM22)/1000000000000</f>
         <v>5.24500966222222E-005</v>
       </c>
-      <c r="AN83" s="4" t="n">
+      <c r="AN83" s="5" t="n">
         <f aca="false">VAR(AN13:AN22)/1000000000000</f>
         <v>0.00453492920288889</v>
       </c>
-      <c r="AO83" s="4" t="n">
+      <c r="AO83" s="5" t="n">
         <f aca="false">VAR(AO13:AO22)/1000000000000</f>
         <v>0.00104959805248889</v>
       </c>
-      <c r="AP83" s="4" t="n">
+      <c r="AP83" s="5" t="n">
         <f aca="false">VAR(AP13:AP22)/1000000000000</f>
         <v>0.243536513934044</v>
       </c>
-      <c r="AQ83" s="4"/>
+      <c r="AQ83" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="84">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="84">
       <c r="A84" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B84" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="C84" s="4" t="n">
+      <c r="C84" s="5" t="n">
         <f aca="false">VAR(C24:C33)/1000000000000</f>
         <v>5.04293466777778E-005</v>
       </c>
-      <c r="D84" s="4" t="n">
+      <c r="D84" s="5" t="n">
         <f aca="false">VAR(D24:D33)/1000000000000</f>
         <v>0.00824146175537778</v>
       </c>
-      <c r="E84" s="4" t="n">
+      <c r="E84" s="5" t="n">
         <f aca="false">VAR(E24:E33)/1000000000000</f>
         <v>0.000475773885433333</v>
       </c>
-      <c r="F84" s="4" t="n">
+      <c r="F84" s="5" t="n">
         <f aca="false">VAR(F24:F33)/1000000000000</f>
         <v>1.52353105444444E-005</v>
       </c>
-      <c r="G84" s="4" t="n">
+      <c r="G84" s="5" t="n">
         <f aca="false">VAR(G24:G33)/1000000000000</f>
         <v>0.00171417949045556</v>
       </c>
-      <c r="H84" s="4" t="n">
+      <c r="H84" s="5" t="n">
         <f aca="false">VAR(H24:H33)/1000000000000</f>
         <v>0.0021601171724</v>
       </c>
-      <c r="I84" s="4" t="n">
+      <c r="I84" s="5" t="n">
         <f aca="false">VAR(I24:I33)/1000000000000</f>
         <v>103.143659374119</v>
       </c>
-      <c r="J84" s="4"/>
+      <c r="J84" s="5"/>
       <c r="L84" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M84" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="N84" s="4" t="n">
+      <c r="N84" s="5" t="n">
         <f aca="false">VAR(N24:N33)/1000000000000</f>
         <v>2.49701193888889E-005</v>
       </c>
-      <c r="O84" s="4" t="n">
+      <c r="O84" s="5" t="n">
         <f aca="false">VAR(O24:O33)/1000000000000</f>
         <v>0.0101278853009889</v>
       </c>
-      <c r="P84" s="4" t="n">
+      <c r="P84" s="5" t="n">
         <f aca="false">VAR(P24:P33)/1000000000000</f>
         <v>0.00257674913493333</v>
       </c>
-      <c r="Q84" s="4" t="n">
+      <c r="Q84" s="5" t="n">
         <f aca="false">VAR(Q24:Q33)/1000000000000</f>
         <v>2.22810849E-005</v>
       </c>
-      <c r="R84" s="4" t="n">
+      <c r="R84" s="5" t="n">
         <f aca="false">VAR(R24:R33)/1000000000000</f>
         <v>0.000376087441788889</v>
       </c>
-      <c r="S84" s="4" t="n">
+      <c r="S84" s="5" t="n">
         <f aca="false">VAR(S24:S33)/1000000000000</f>
         <v>0.00155605753048889</v>
       </c>
-      <c r="T84" s="4" t="n">
+      <c r="T84" s="5" t="n">
         <f aca="false">VAR(T24:T33)/1000000000000</f>
         <v>39.8095636802308</v>
       </c>
-      <c r="U84" s="4"/>
+      <c r="U84" s="5"/>
       <c r="W84" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X84" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="Y84" s="4" t="n">
+      <c r="Y84" s="5" t="n">
         <f aca="false">VAR(Y24:Y33)/1000000000000</f>
         <v>1.64447807111111E-005</v>
       </c>
-      <c r="Z84" s="4" t="n">
+      <c r="Z84" s="5" t="n">
         <f aca="false">VAR(Z24:Z33)/1000000000000</f>
         <v>0.1596525806609</v>
       </c>
-      <c r="AA84" s="4" t="n">
+      <c r="AA84" s="5" t="n">
         <f aca="false">VAR(AA24:AA33)/1000000000000</f>
         <v>0.00465781214893333</v>
       </c>
-      <c r="AB84" s="4" t="n">
+      <c r="AB84" s="5" t="n">
         <f aca="false">VAR(AB24:AB33)/1000000000000</f>
         <v>1.58337854333333E-005</v>
       </c>
-      <c r="AC84" s="4" t="n">
+      <c r="AC84" s="5" t="n">
         <f aca="false">VAR(AC24:AC33)/1000000000000</f>
         <v>0.0325265190720444</v>
       </c>
-      <c r="AD84" s="4" t="n">
+      <c r="AD84" s="5" t="n">
         <f aca="false">VAR(AD24:AD33)/1000000000000</f>
         <v>0.00225595620528889</v>
       </c>
-      <c r="AE84" s="4" t="n">
+      <c r="AE84" s="5" t="n">
         <f aca="false">VAR(AE24:AE33)/1000000000000</f>
         <v>93.6402437474289</v>
       </c>
-      <c r="AF84" s="4"/>
+      <c r="AF84" s="5"/>
       <c r="AH84" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI84" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="AJ84" s="4" t="n">
+      <c r="AJ84" s="5" t="n">
         <f aca="false">VAR(AJ24:AJ33)/1000000000000</f>
         <v>1.07195073888889E-005</v>
       </c>
-      <c r="AK84" s="4" t="n">
+      <c r="AK84" s="5" t="n">
         <f aca="false">VAR(AK24:AK33)/1000000000000</f>
         <v>0.285845261208444</v>
       </c>
-      <c r="AL84" s="4" t="n">
+      <c r="AL84" s="5" t="n">
         <f aca="false">VAR(AL24:AL33)/1000000000000</f>
         <v>0.00377858813395556</v>
       </c>
-      <c r="AM84" s="4" t="n">
+      <c r="AM84" s="5" t="n">
         <f aca="false">VAR(AM24:AM33)/1000000000000</f>
         <v>1.16977733777778E-005</v>
       </c>
-      <c r="AN84" s="4" t="n">
+      <c r="AN84" s="5" t="n">
         <f aca="false">VAR(AN24:AN33)/1000000000000</f>
         <v>0.0103996132060556</v>
       </c>
-      <c r="AO84" s="4" t="n">
+      <c r="AO84" s="5" t="n">
         <f aca="false">VAR(AO24:AO33)/1000000000000</f>
         <v>0.00629609962617778</v>
       </c>
-      <c r="AP84" s="4" t="n">
+      <c r="AP84" s="5" t="n">
         <f aca="false">VAR(AP24:AP33)/1000000000000</f>
         <v>14.3291903426594</v>
       </c>
-      <c r="AQ84" s="4"/>
+      <c r="AQ84" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="85">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="85">
       <c r="A85" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B85" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="C85" s="4" t="n">
+      <c r="C85" s="5" t="n">
         <f aca="false">VAR(C35:C44)/1000000000000</f>
         <v>1.34388200444444E-005</v>
       </c>
-      <c r="D85" s="4" t="n">
+      <c r="D85" s="5" t="n">
         <f aca="false">VAR(D35:D44)/1000000000000</f>
         <v>0.00588887193205556</v>
       </c>
-      <c r="E85" s="4" t="n">
+      <c r="E85" s="5" t="n">
         <f aca="false">VAR(E35:E44)/1000000000000</f>
         <v>0.00190189099217778</v>
       </c>
-      <c r="F85" s="4" t="n">
+      <c r="F85" s="5" t="n">
         <f aca="false">VAR(F35:F44)/1000000000000</f>
         <v>1.97867089444444E-005</v>
       </c>
-      <c r="G85" s="4" t="n">
+      <c r="G85" s="5" t="n">
         <f aca="false">VAR(G35:G44)/1000000000000</f>
         <v>0.00202798702432222</v>
       </c>
-      <c r="H85" s="4" t="n">
+      <c r="H85" s="5" t="n">
         <f aca="false">VAR(H35:H44)/1000000000000</f>
         <v>0.0043002795385</v>
       </c>
-      <c r="I85" s="4" t="n">
+      <c r="I85" s="5" t="n">
         <f aca="false">VAR(I35:I44)/1000000000000</f>
         <v>478.833364474971</v>
       </c>
-      <c r="J85" s="4"/>
+      <c r="J85" s="5"/>
       <c r="L85" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M85" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="N85" s="4" t="n">
+      <c r="N85" s="5" t="n">
         <f aca="false">VAR(N35:N44)/1000000000000</f>
         <v>4.93331783333333E-006</v>
       </c>
-      <c r="O85" s="4" t="n">
+      <c r="O85" s="5" t="n">
         <f aca="false">VAR(O35:O44)/1000000000000</f>
         <v>0.0206372789670667</v>
       </c>
-      <c r="P85" s="4" t="n">
+      <c r="P85" s="5" t="n">
         <f aca="false">VAR(P35:P44)/1000000000000</f>
         <v>0.00456607712582222</v>
       </c>
-      <c r="Q85" s="4" t="n">
+      <c r="Q85" s="5" t="n">
         <f aca="false">VAR(Q35:Q44)/1000000000000</f>
         <v>1.97867089444444E-005</v>
       </c>
-      <c r="R85" s="4" t="n">
+      <c r="R85" s="5" t="n">
         <f aca="false">VAR(R35:R44)/1000000000000</f>
         <v>0.00302438082862222</v>
       </c>
-      <c r="S85" s="4" t="n">
+      <c r="S85" s="5" t="n">
         <f aca="false">VAR(S35:S44)/1000000000000</f>
         <v>0.00379100519023333</v>
       </c>
-      <c r="T85" s="4" t="n">
+      <c r="T85" s="5" t="n">
         <f aca="false">VAR(T35:T44)/1000000000000</f>
         <v>37.729365567358</v>
       </c>
-      <c r="U85" s="4"/>
+      <c r="U85" s="5"/>
       <c r="W85" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X85" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="Y85" s="4" t="n">
+      <c r="Y85" s="5" t="n">
         <f aca="false">VAR(Y35:Y44)/1000000000000</f>
         <v>0.001477902102</v>
       </c>
-      <c r="Z85" s="4" t="n">
+      <c r="Z85" s="5" t="n">
         <f aca="false">VAR(Z35:Z44)/1000000000000</f>
         <v>0.7949146323861</v>
       </c>
-      <c r="AA85" s="4" t="n">
+      <c r="AA85" s="5" t="n">
         <f aca="false">VAR(AA35:AA44)/1000000000000</f>
         <v>0.00636642596334444</v>
       </c>
-      <c r="AB85" s="4" t="n">
+      <c r="AB85" s="5" t="n">
         <f aca="false">VAR(AB35:AB44)/1000000000000</f>
         <v>5.31185693333333E-005</v>
       </c>
-      <c r="AC85" s="4" t="n">
+      <c r="AC85" s="5" t="n">
         <f aca="false">VAR(AC35:AC44)/1000000000000</f>
         <v>0.0311864461358778</v>
       </c>
-      <c r="AD85" s="4" t="n">
+      <c r="AD85" s="5" t="n">
         <f aca="false">VAR(AD35:AD44)/1000000000000</f>
         <v>0.00992419967982223</v>
       </c>
-      <c r="AE85" s="4" t="n">
+      <c r="AE85" s="5" t="n">
         <f aca="false">VAR(AE35:AE44)/1000000000000</f>
         <v>47.7997506285634</v>
       </c>
-      <c r="AF85" s="4"/>
+      <c r="AF85" s="5"/>
       <c r="AH85" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI85" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="AJ85" s="4" t="n">
+      <c r="AJ85" s="5" t="n">
         <f aca="false">VAR(AJ35:AJ44)/1000000000000</f>
         <v>6.65623426222222E-005</v>
       </c>
-      <c r="AK85" s="4" t="n">
+      <c r="AK85" s="5" t="n">
         <f aca="false">VAR(AK35:AK44)/1000000000000</f>
         <v>0.846825660532056</v>
       </c>
-      <c r="AL85" s="4" t="n">
+      <c r="AL85" s="5" t="n">
         <f aca="false">VAR(AL35:AL44)/1000000000000</f>
         <v>0.0130587010480111</v>
       </c>
-      <c r="AM85" s="4" t="n">
+      <c r="AM85" s="5" t="n">
         <f aca="false">VAR(AM35:AM44)/1000000000000</f>
         <v>7.18221169E-005</v>
       </c>
-      <c r="AN85" s="4" t="n">
+      <c r="AN85" s="5" t="n">
         <f aca="false">VAR(AN35:AN44)/1000000000000</f>
         <v>0.107430844583378</v>
       </c>
-      <c r="AO85" s="4" t="n">
+      <c r="AO85" s="5" t="n">
         <f aca="false">VAR(AO35:AO44)/1000000000000</f>
         <v>0.003701872424</v>
       </c>
-      <c r="AP85" s="4" t="n">
+      <c r="AP85" s="5" t="n">
         <f aca="false">VAR(AP35:AP44)/1000000000000</f>
         <v>42.8619573528857</v>
       </c>
-      <c r="AQ85" s="4"/>
+      <c r="AQ85" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="86">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="86">
       <c r="A86" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B86" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="C86" s="4" t="n">
+      <c r="C86" s="5" t="n">
         <f aca="false">VAR(C46:C55)/1000000000000</f>
         <v>8.29060060555555E-005</v>
       </c>
-      <c r="D86" s="4" t="n">
+      <c r="D86" s="5" t="n">
         <f aca="false">VAR(D46:D55)/1000000000000</f>
         <v>0.0823944895925444</v>
       </c>
-      <c r="E86" s="4" t="n">
+      <c r="E86" s="5" t="n">
         <f aca="false">VAR(E46:E55)/1000000000000</f>
         <v>0.167771687593789</v>
       </c>
-      <c r="F86" s="4" t="n">
+      <c r="F86" s="5" t="n">
         <f aca="false">VAR(F46:F55)/1000000000000</f>
         <v>2.33294067666667E-005</v>
       </c>
-      <c r="G86" s="4" t="n">
+      <c r="G86" s="5" t="n">
         <f aca="false">VAR(G46:G55)/1000000000000</f>
         <v>0.00846810240817778</v>
       </c>
-      <c r="H86" s="4" t="n">
+      <c r="H86" s="5" t="n">
         <f aca="false">VAR(H46:H55)/1000000000000</f>
         <v>0.155327720731956</v>
       </c>
-      <c r="I86" s="4" t="n">
+      <c r="I86" s="5" t="n">
         <f aca="false">VAR(I46:I55)/1000000000000</f>
         <v>394.49578867921</v>
       </c>
-      <c r="J86" s="4"/>
+      <c r="J86" s="5"/>
       <c r="L86" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M86" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="N86" s="4" t="n">
+      <c r="N86" s="5" t="n">
         <f aca="false">VAR(N46:N55)/1000000000000</f>
         <v>1.08440058777778E-005</v>
       </c>
-      <c r="O86" s="4" t="n">
+      <c r="O86" s="5" t="n">
         <f aca="false">VAR(O46:O55)/1000000000000</f>
         <v>0.568941569318322</v>
       </c>
-      <c r="P86" s="4" t="n">
+      <c r="P86" s="5" t="n">
         <f aca="false">VAR(P46:P55)/1000000000000</f>
         <v>0.167081369126267</v>
       </c>
-      <c r="Q86" s="4" t="n">
+      <c r="Q86" s="5" t="n">
         <f aca="false">VAR(Q46:Q55)/1000000000000</f>
         <v>8.03942242777778E-005</v>
       </c>
-      <c r="R86" s="4" t="n">
+      <c r="R86" s="5" t="n">
         <f aca="false">VAR(R46:R55)/1000000000000</f>
         <v>0.0135317252576556</v>
       </c>
-      <c r="S86" s="4" t="n">
+      <c r="S86" s="5" t="n">
         <f aca="false">VAR(S46:S55)/1000000000000</f>
         <v>0.258300650912011</v>
       </c>
-      <c r="T86" s="4" t="n">
+      <c r="T86" s="5" t="n">
         <f aca="false">VAR(T46:T55)/1000000000000</f>
         <v>666.972085457035</v>
       </c>
-      <c r="U86" s="4"/>
+      <c r="U86" s="5"/>
       <c r="W86" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X86" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="Y86" s="4" t="n">
+      <c r="Y86" s="5" t="n">
         <f aca="false">VAR(Y46:Y55)/1000000</f>
-        <v>1375.78392432222</v>
-      </c>
-      <c r="Z86" s="4" t="n">
+        <v>1375.78392432292</v>
+      </c>
+      <c r="Z86" s="5" t="n">
         <f aca="false">VAR(Z46:Z55)/1000000000000</f>
         <v>0.698224673404711</v>
       </c>
-      <c r="AA86" s="4" t="n">
+      <c r="AA86" s="5" t="n">
         <f aca="false">VAR(AA46:AA55)/1000000000000</f>
         <v>0.0320301724831556</v>
       </c>
-      <c r="AB86" s="4" t="n">
+      <c r="AB86" s="5" t="n">
         <f aca="false">VAR(AB46:AB55)/1000000000000</f>
         <v>0.0002450627909</v>
       </c>
-      <c r="AC86" s="4" t="n">
+      <c r="AC86" s="5" t="n">
         <f aca="false">VAR(AC46:AC55)/1000000000000</f>
         <v>0.218334290484178</v>
       </c>
-      <c r="AD86" s="4" t="n">
+      <c r="AD86" s="5" t="n">
         <f aca="false">VAR(AD46:AD55)/1000000000000</f>
         <v>0.0157847144091111</v>
       </c>
-      <c r="AE86" s="4" t="n">
+      <c r="AE86" s="5" t="n">
         <f aca="false">VAR(AE46:AE55)/1000000000000</f>
         <v>818.583956628292</v>
       </c>
-      <c r="AF86" s="4"/>
+      <c r="AF86" s="5"/>
       <c r="AH86" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI86" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="AJ86" s="4" t="n">
+      <c r="AJ86" s="5" t="n">
         <f aca="false">VAR(AJ46:AJ55)/1000000</f>
-        <v>32.1689811222222</v>
-      </c>
-      <c r="AK86" s="4" t="n">
+        <v>32.1689811388889</v>
+      </c>
+      <c r="AK86" s="5" t="n">
         <f aca="false">VAR(AK46:AK55)/1000000000000</f>
         <v>3.69990163131418</v>
       </c>
-      <c r="AL86" s="4" t="n">
+      <c r="AL86" s="5" t="n">
         <f aca="false">VAR(AL46:AL55)/1000000000000</f>
         <v>0.178141179657878</v>
       </c>
-      <c r="AM86" s="4" t="n">
+      <c r="AM86" s="5" t="n">
         <f aca="false">VAR(AM46:AM55)/1000000000000</f>
         <v>0.0001398220041</v>
       </c>
-      <c r="AN86" s="4" t="n">
+      <c r="AN86" s="5" t="n">
         <f aca="false">VAR(AN46:AN55)/1000000000000</f>
         <v>0.2268657553549</v>
       </c>
-      <c r="AO86" s="4" t="n">
+      <c r="AO86" s="5" t="n">
         <f aca="false">VAR(AO46:AO55)/1000000000000</f>
         <v>0.613109658426056</v>
       </c>
-      <c r="AP86" s="4" t="n">
+      <c r="AP86" s="5" t="n">
         <f aca="false">VAR(AP46:AP55)/1000000000000</f>
         <v>6754.23736326218</v>
       </c>
-      <c r="AQ86" s="4"/>
+      <c r="AQ86" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="87">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="87">
       <c r="A87" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B87" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="C87" s="4" t="n">
+      <c r="C87" s="5" t="n">
         <f aca="false">VAR(C57:C66)/1000000000000</f>
         <v>5.45325006777778E-005</v>
       </c>
-      <c r="D87" s="4" t="n">
+      <c r="D87" s="5" t="n">
         <f aca="false">VAR(D57:D66)/1000000000000</f>
         <v>0.279275303577378</v>
       </c>
-      <c r="E87" s="4" t="n">
+      <c r="E87" s="5" t="n">
         <f aca="false">VAR(E57:E66)/1000000000000</f>
         <v>0.5111187077025</v>
       </c>
-      <c r="F87" s="4" t="n">
+      <c r="F87" s="5" t="n">
         <f aca="false">VAR(F57:F66)/1000000000000</f>
         <v>0.0001283851276</v>
       </c>
-      <c r="G87" s="4" t="n">
+      <c r="G87" s="5" t="n">
         <f aca="false">VAR(G57:G66)/1000000000000</f>
         <v>0.0268191828989444</v>
       </c>
-      <c r="H87" s="4" t="n">
+      <c r="H87" s="5" t="n">
         <f aca="false">VAR(H57:H66)/1000000000000</f>
         <v>0.257753576082456</v>
       </c>
-      <c r="I87" s="4" t="n">
+      <c r="I87" s="5" t="n">
         <f aca="false">VAR(I57:I66)/1000000000000</f>
         <v>41299.2099210174</v>
       </c>
-      <c r="J87" s="4"/>
+      <c r="J87" s="5"/>
       <c r="L87" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M87" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="N87" s="4" t="n">
+      <c r="N87" s="5" t="n">
         <f aca="false">VAR(N57:N66)/1000000000000</f>
         <v>0.000415744406266667</v>
       </c>
-      <c r="O87" s="4" t="n">
+      <c r="O87" s="5" t="n">
         <f aca="false">VAR(O57:O66)/1000000000000</f>
         <v>0.439019853101656</v>
       </c>
-      <c r="P87" s="4" t="n">
+      <c r="P87" s="5" t="n">
         <f aca="false">VAR(P57:P66)/1000000000000</f>
         <v>0.435133983930267</v>
       </c>
-      <c r="Q87" s="4" t="n">
+      <c r="Q87" s="5" t="n">
         <f aca="false">VAR(Q57:Q66)/1000000000000</f>
         <v>0.000408579511833333</v>
       </c>
-      <c r="R87" s="4" t="n">
+      <c r="R87" s="5" t="n">
         <f aca="false">VAR(R57:R66)/1000000000000</f>
         <v>0.0434994837949333</v>
       </c>
-      <c r="S87" s="4" t="n">
+      <c r="S87" s="5" t="n">
         <f aca="false">VAR(S57:S66)/1000000000000</f>
         <v>0.4821623939425</v>
       </c>
-      <c r="T87" s="4" t="n">
+      <c r="T87" s="5" t="n">
         <f aca="false">VAR(T57:T66)/1000000000000</f>
         <v>2898.9694312628</v>
       </c>
-      <c r="U87" s="4"/>
+      <c r="U87" s="5"/>
       <c r="W87" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X87" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="Y87" s="4" t="n">
+      <c r="Y87" s="5" t="n">
         <f aca="false">VAR(Y57:Y66)/1000000000000</f>
         <v>0.000302221562666667</v>
       </c>
-      <c r="Z87" s="4" t="n">
+      <c r="Z87" s="5" t="n">
         <f aca="false">VAR(Z57:Z66)/1000000000000</f>
         <v>3.36106444275423</v>
       </c>
-      <c r="AA87" s="4" t="n">
+      <c r="AA87" s="5" t="n">
         <f aca="false">VAR(AA57:AA66)/1000000000000</f>
         <v>0.193088265991389</v>
       </c>
-      <c r="AB87" s="4" t="n">
+      <c r="AB87" s="5" t="n">
         <f aca="false">VAR(AB57:AB66)/1000000000000</f>
         <v>0.000400886553155556</v>
       </c>
-      <c r="AC87" s="4" t="n">
+      <c r="AC87" s="5" t="n">
         <f aca="false">VAR(AC57:AC66)/1000000000000</f>
         <v>0.579471268362056</v>
       </c>
-      <c r="AD87" s="4" t="n">
+      <c r="AD87" s="5" t="n">
         <f aca="false">VAR(AD57:AD66)/1000000000000</f>
         <v>3.12602684473884</v>
       </c>
-      <c r="AE87" s="4" t="n">
+      <c r="AE87" s="5" t="n">
         <f aca="false">VAR(AE57:AE66)/1000000000000</f>
         <v>3433.56018673511</v>
       </c>
-      <c r="AF87" s="4"/>
+      <c r="AF87" s="5"/>
       <c r="AH87" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI87" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="AJ87" s="4" t="n">
+      <c r="AJ87" s="5" t="n">
         <f aca="false">VAR(AJ57:AJ66)/1000000000000</f>
         <v>0.000134242975733333</v>
       </c>
-      <c r="AK87" s="4" t="n">
+      <c r="AK87" s="5" t="n">
         <f aca="false">VAR(AK57:AK66)/1000000000000</f>
         <v>11.2926030943372</v>
       </c>
-      <c r="AL87" s="4" t="n">
+      <c r="AL87" s="5" t="n">
         <f aca="false">VAR(AL57:AL66)/1000000000000</f>
         <v>2.17989592800917</v>
       </c>
-      <c r="AM87" s="4" t="n">
+      <c r="AM87" s="5" t="n">
         <f aca="false">VAR(AM57:AM66)/1000000000000</f>
         <v>0.000229683068277778</v>
       </c>
-      <c r="AN87" s="4" t="n">
+      <c r="AN87" s="5" t="n">
         <f aca="false">VAR(AN57:AN66)/1000000000000</f>
         <v>0.572574218063878</v>
       </c>
-      <c r="AO87" s="4" t="n">
+      <c r="AO87" s="5" t="n">
         <f aca="false">VAR(AO57:AO66)/1000000000000</f>
         <v>2.1091722392149</v>
       </c>
-      <c r="AP87" s="4" t="n">
+      <c r="AP87" s="5" t="n">
         <f aca="false">VAR(AP57:AP66)/1000000000000</f>
         <v>8614.94096901103</v>
       </c>
-      <c r="AQ87" s="4"/>
+      <c r="AQ87" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="88">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="88">
       <c r="A88" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B88" s="0" t="n">
         <v>5000000</v>
       </c>
-      <c r="C88" s="4" t="n">
+      <c r="C88" s="5" t="n">
         <f aca="false">VAR(C68:C77)/1000000000000</f>
         <v>0.000261560344888889</v>
       </c>
-      <c r="D88" s="4" t="n">
+      <c r="D88" s="5" t="n">
         <f aca="false">VAR(D68:D77)/1000000000000</f>
         <v>1.02896127322068</v>
       </c>
-      <c r="E88" s="4" t="n">
+      <c r="E88" s="5" t="n">
         <f aca="false">VAR(E68:E77)/1000000000000</f>
         <v>3.69326798666716</v>
       </c>
-      <c r="F88" s="4" t="n">
+      <c r="F88" s="5" t="n">
         <f aca="false">VAR(F68:F77)/1000000000000</f>
         <v>0.000699824653111111</v>
       </c>
-      <c r="G88" s="4" t="n">
+      <c r="G88" s="5" t="n">
         <f aca="false">VAR(G68:G77)/1000000000000</f>
         <v>0.0992358097662333</v>
       </c>
-      <c r="H88" s="4" t="n">
+      <c r="H88" s="5" t="n">
         <f aca="false">VAR(H68:H77)/1000000000000</f>
         <v>18.9766569872956</v>
       </c>
-      <c r="I88" s="4" t="n">
+      <c r="I88" s="5" t="n">
         <f aca="false">VAR(I68:I77)/1000000000000</f>
         <v>111421.164378055</v>
       </c>
-      <c r="J88" s="4"/>
+      <c r="J88" s="5"/>
       <c r="L88" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M88" s="0" t="n">
         <v>5000000</v>
       </c>
-      <c r="N88" s="4" t="n">
+      <c r="N88" s="5" t="n">
         <f aca="false">VAR(N68:N77)/1000000000000</f>
         <v>0.000323255788622222</v>
       </c>
-      <c r="O88" s="4" t="n">
+      <c r="O88" s="5" t="n">
         <f aca="false">VAR(O68:O77)/1000000000000</f>
         <v>1.24017314199254</v>
       </c>
-      <c r="P88" s="4" t="n">
+      <c r="P88" s="5" t="n">
         <f aca="false">VAR(P68:P77)/1000000000000</f>
         <v>8.20403746534267</v>
       </c>
-      <c r="Q88" s="4" t="n">
+      <c r="Q88" s="5" t="n">
         <f aca="false">VAR(Q68:Q77)/1000000000000</f>
         <v>0.0012877095944</v>
       </c>
-      <c r="R88" s="4" t="n">
+      <c r="R88" s="5" t="n">
         <f aca="false">VAR(R68:R77)/1000000000000</f>
         <v>0.106920566639956</v>
       </c>
-      <c r="S88" s="4" t="n">
+      <c r="S88" s="5" t="n">
         <f aca="false">VAR(S68:S77)/1000000000000</f>
         <v>15.4841314801665</v>
       </c>
-      <c r="T88" s="4" t="n">
+      <c r="T88" s="5" t="n">
         <f aca="false">VAR(T68:T77)/1000000000000</f>
         <v>876401.439829111</v>
       </c>
-      <c r="U88" s="4"/>
+      <c r="U88" s="5"/>
       <c r="W88" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X88" s="0" t="n">
         <v>5000000</v>
       </c>
-      <c r="Y88" s="4" t="n">
+      <c r="Y88" s="5" t="n">
         <f aca="false">VAR(Y68:Y77)/1000000000000</f>
         <v>0.00175971663017778</v>
       </c>
-      <c r="Z88" s="4" t="n">
+      <c r="Z88" s="5" t="n">
         <f aca="false">VAR(Z68:Z77)/1000000000000</f>
         <v>39.8340870349034</v>
       </c>
-      <c r="AA88" s="4" t="n">
+      <c r="AA88" s="5" t="n">
         <f aca="false">VAR(AA68:AA77)/1000000000000</f>
         <v>10.9369748061314</v>
       </c>
-      <c r="AB88" s="4" t="n">
+      <c r="AB88" s="5" t="n">
         <f aca="false">VAR(AB68:AB77)/1000000000000</f>
         <v>0.00976732005787778</v>
       </c>
-      <c r="AC88" s="4" t="n">
+      <c r="AC88" s="5" t="n">
         <f aca="false">VAR(AC68:AC77)/1000000000000</f>
         <v>2.26969592728627</v>
       </c>
-      <c r="AD88" s="4" t="n">
+      <c r="AD88" s="5" t="n">
         <f aca="false">VAR(AD68:AD77)/1000000000000</f>
         <v>11.1828411264879</v>
       </c>
-      <c r="AE88" s="4" t="n">
+      <c r="AE88" s="5" t="n">
         <f aca="false">VAR(AE68:AE77)/1000000000000</f>
         <v>3166490.33345205</v>
       </c>
-      <c r="AF88" s="4"/>
+      <c r="AF88" s="5"/>
       <c r="AH88" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI88" s="0" t="n">
         <v>5000000</v>
       </c>
-      <c r="AJ88" s="4" t="n">
+      <c r="AJ88" s="5" t="n">
         <f aca="false">VAR(AJ68:AJ77)/1000000000000</f>
         <v>0.00464615083538889</v>
       </c>
-      <c r="AK88" s="4" t="n">
+      <c r="AK88" s="5" t="n">
         <f aca="false">VAR(AK68:AK77)/1000000000000</f>
         <v>184.505965854464</v>
       </c>
-      <c r="AL88" s="4" t="n">
+      <c r="AL88" s="5" t="n">
         <f aca="false">VAR(AL68:AL77)/1000000000000</f>
         <v>2.14093268890249</v>
       </c>
-      <c r="AM88" s="4" t="n">
+      <c r="AM88" s="5" t="n">
         <f aca="false">VAR(AM68:AM77)/1000000000000</f>
         <v>0.0018806294064</v>
       </c>
-      <c r="AN88" s="4" t="n">
+      <c r="AN88" s="5" t="n">
         <f aca="false">VAR(AN68:AN77)/1000000000000</f>
         <v>4.56312567283179</v>
       </c>
-      <c r="AO88" s="4" t="n">
+      <c r="AO88" s="5" t="n">
         <f aca="false">VAR(AO68:AO77)/1000000000000</f>
         <v>76.0624814795987</v>
       </c>
-      <c r="AP88" s="4" t="n">
+      <c r="AP88" s="5" t="n">
         <f aca="false">VAR(AP68:AP77)/1000000000000</f>
         <v>431671.447146292</v>
       </c>
-      <c r="AQ88" s="4"/>
+      <c r="AQ88" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="89">
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="89">
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="6"/>
+      <c r="P89" s="6"/>
+      <c r="Q89" s="6"/>
+      <c r="R89" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="90">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="90">
       <c r="A90" s="2" t="s">
         <v>12</v>
       </c>
@@ -19098,7 +19104,7 @@
         <v>12</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="91">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="91">
       <c r="A91" s="1" t="s">
         <v>0</v>
       </c>
@@ -19220,1011 +19226,1011 @@
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="92">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="92">
       <c r="A92" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B92" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="C92" s="4" t="n">
-        <f aca="false">STDEV(C2:C11)/1000000</f>
+      <c r="C92" s="5" t="n">
+        <f aca="false">DESVPAD(C2:C11)/1000000</f>
         <v>7.99242002010516E-005</v>
       </c>
-      <c r="D92" s="4" t="n">
-        <f aca="false">STDEV(D2:D11)/1000000</f>
+      <c r="D92" s="5" t="n">
+        <f aca="false">DESVPAD(D2:D11)/1000000</f>
         <v>0.0221818745688657</v>
       </c>
-      <c r="E92" s="4" t="n">
-        <f aca="false">STDEV(E2:E11)/1000000</f>
+      <c r="E92" s="5" t="n">
+        <f aca="false">DESVPAD(E2:E11)/1000000</f>
         <v>0.0168239242865629</v>
       </c>
-      <c r="F92" s="4" t="n">
-        <f aca="false">STDEV(F2:F11)/1000000</f>
+      <c r="F92" s="5" t="n">
+        <f aca="false">DESVPAD(F2:F11)/1000000</f>
         <v>2.6494443861979E-005</v>
       </c>
-      <c r="G92" s="4" t="n">
-        <f aca="false">STDEV(G2:G11)/1000000</f>
+      <c r="G92" s="5" t="n">
+        <f aca="false">DESVPAD(G2:G11)/1000000</f>
         <v>0.0044820217412334</v>
       </c>
-      <c r="H92" s="4" t="n">
-        <f aca="false">STDEV(H2:H11)/1000000</f>
+      <c r="H92" s="5" t="n">
+        <f aca="false">DESVPAD(H2:H11)/1000000</f>
         <v>0.0134958659991372</v>
       </c>
-      <c r="I92" s="4" t="n">
-        <f aca="false">STDEV(I2:I11)/1000000</f>
+      <c r="I92" s="5" t="n">
+        <f aca="false">DESVPAD(I2:I11)/1000000</f>
         <v>0.512916071851006</v>
       </c>
-      <c r="J92" s="4"/>
+      <c r="J92" s="5"/>
       <c r="L92" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M92" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="N92" s="4" t="n">
-        <f aca="false">STDEV(N2:N11)/1000000</f>
+      <c r="N92" s="5" t="n">
+        <f aca="false">DESVPAD(N2:N11)/1000000</f>
         <v>0.000185804437215285</v>
       </c>
-      <c r="O92" s="4" t="n">
-        <f aca="false">STDEV(O2:O11)/1000000</f>
+      <c r="O92" s="5" t="n">
+        <f aca="false">DESVPAD(O2:O11)/1000000</f>
         <v>0.0703384972639055</v>
       </c>
-      <c r="P92" s="4" t="n">
-        <f aca="false">STDEV(P2:P11)/1000000</f>
+      <c r="P92" s="5" t="n">
+        <f aca="false">DESVPAD(P2:P11)/1000000</f>
         <v>0.0154506942990347</v>
       </c>
-      <c r="Q92" s="4" t="n">
-        <f aca="false">STDEV(Q2:Q11)/1000000</f>
+      <c r="Q92" s="5" t="n">
+        <f aca="false">DESVPAD(Q2:Q11)/1000000</f>
         <v>5.87990929635257E-005</v>
       </c>
-      <c r="R92" s="4" t="n">
-        <f aca="false">STDEV(R2:R11)/1000000</f>
+      <c r="R92" s="5" t="n">
+        <f aca="false">DESVPAD(R2:R11)/1000000</f>
         <v>0.000351020559701755</v>
       </c>
-      <c r="S92" s="4" t="n">
-        <f aca="false">STDEV(S2:S11)/1000000</f>
+      <c r="S92" s="5" t="n">
+        <f aca="false">DESVPAD(S2:S11)/1000000</f>
         <v>0.0151926844987243</v>
       </c>
-      <c r="T92" s="4" t="n">
-        <f aca="false">STDEV(T2:T11)/1000000</f>
+      <c r="T92" s="5" t="n">
+        <f aca="false">DESVPAD(T2:T11)/1000000</f>
         <v>0.303077506117953</v>
       </c>
-      <c r="U92" s="4"/>
+      <c r="U92" s="5"/>
       <c r="W92" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X92" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="Y92" s="4" t="n">
-        <f aca="false">STDEV(Y2:Y11)/1000000</f>
+      <c r="Y92" s="5" t="n">
+        <f aca="false">DESVPAD(Y2:Y11)/1000000</f>
         <v>0.000143452237502398</v>
       </c>
-      <c r="Z92" s="4" t="n">
-        <f aca="false">STDEV(Z2:Z11)/1000000</f>
+      <c r="Z92" s="5" t="n">
+        <f aca="false">DESVPAD(Z2:Z11)/1000000</f>
         <v>0.0863981183838321</v>
       </c>
-      <c r="AA92" s="4" t="n">
-        <f aca="false">STDEV(AA2:AA11)/1000000</f>
+      <c r="AA92" s="5" t="n">
+        <f aca="false">DESVPAD(AA2:AA11)/1000000</f>
         <v>0.0227338559541589</v>
       </c>
-      <c r="AB92" s="4" t="n">
-        <f aca="false">STDEV(AB2:AB11)/1000000</f>
+      <c r="AB92" s="5" t="n">
+        <f aca="false">DESVPAD(AB2:AB11)/1000000</f>
         <v>8.25569836873632E-005</v>
       </c>
-      <c r="AC92" s="4" t="n">
-        <f aca="false">STDEV(AC2:AC11)/1000000</f>
+      <c r="AC92" s="5" t="n">
+        <f aca="false">DESVPAD(AC2:AC11)/1000000</f>
         <v>0.0333952484512726</v>
       </c>
-      <c r="AD92" s="4" t="n">
-        <f aca="false">STDEV(AD2:AD11)/1000000</f>
+      <c r="AD92" s="5" t="n">
+        <f aca="false">DESVPAD(AD2:AD11)/1000000</f>
         <v>0.0204340088471809</v>
       </c>
-      <c r="AE92" s="4" t="n">
-        <f aca="false">STDEV(AE2:AE11)/1000000</f>
+      <c r="AE92" s="5" t="n">
+        <f aca="false">DESVPAD(AE2:AE11)/1000000</f>
         <v>0.28967581880419</v>
       </c>
-      <c r="AF92" s="4"/>
+      <c r="AF92" s="5"/>
       <c r="AH92" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI92" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="AJ92" s="4" t="n">
-        <f aca="false">STDEV(AJ2:AJ11)/1000000</f>
+      <c r="AJ92" s="5" t="n">
+        <f aca="false">DESVPAD(AJ2:AJ11)/1000000</f>
         <v>0.000357210255545199</v>
       </c>
-      <c r="AK92" s="4" t="n">
-        <f aca="false">STDEV(AK2:AK11)/1000000</f>
+      <c r="AK92" s="5" t="n">
+        <f aca="false">DESVPAD(AK2:AK11)/1000000</f>
         <v>0.0855744001523431</v>
       </c>
-      <c r="AL92" s="4" t="n">
-        <f aca="false">STDEV(AL2:AL11)/1000000</f>
+      <c r="AL92" s="5" t="n">
+        <f aca="false">DESVPAD(AL2:AL11)/1000000</f>
         <v>0.0224777923530463</v>
       </c>
-      <c r="AM92" s="4" t="n">
-        <f aca="false">STDEV(AM2:AM11)/1000000</f>
+      <c r="AM92" s="5" t="n">
+        <f aca="false">DESVPAD(AM2:AM11)/1000000</f>
         <v>0.00012187520940153</v>
       </c>
-      <c r="AN92" s="4" t="n">
-        <f aca="false">STDEV(AN2:AN11)/1000000</f>
+      <c r="AN92" s="5" t="n">
+        <f aca="false">DESVPAD(AN2:AN11)/1000000</f>
         <v>0.0378710691431394</v>
       </c>
-      <c r="AO92" s="4" t="n">
-        <f aca="false">STDEV(AO2:AO11)/1000000</f>
+      <c r="AO92" s="5" t="n">
+        <f aca="false">DESVPAD(AO2:AO11)/1000000</f>
         <v>0.0159000618940095</v>
       </c>
-      <c r="AP92" s="4" t="n">
-        <f aca="false">STDEV(AP2:AP11)/1000000</f>
+      <c r="AP92" s="5" t="n">
+        <f aca="false">DESVPAD(AP2:AP11)/1000000</f>
         <v>0.555592034113651</v>
       </c>
-      <c r="AQ92" s="4"/>
+      <c r="AQ92" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="93">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="93">
       <c r="A93" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B93" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="C93" s="4" t="n">
-        <f aca="false">STDEV(C13:C22)/1000000</f>
+      <c r="C93" s="5" t="n">
+        <f aca="false">DESVPAD(C13:C22)/1000000</f>
         <v>0.000130988591530374</v>
       </c>
-      <c r="D93" s="4" t="n">
-        <f aca="false">STDEV(D13:D22)/1000000</f>
+      <c r="D93" s="5" t="n">
+        <f aca="false">DESVPAD(D13:D22)/1000000</f>
         <v>0.061576502364403</v>
       </c>
-      <c r="E93" s="4" t="n">
-        <f aca="false">STDEV(E13:E22)/1000000</f>
+      <c r="E93" s="5" t="n">
+        <f aca="false">DESVPAD(E13:E22)/1000000</f>
         <v>0.0218049942161576</v>
       </c>
-      <c r="F93" s="4" t="n">
-        <f aca="false">STDEV(F13:F22)/1000000</f>
+      <c r="F93" s="5" t="n">
+        <f aca="false">DESVPAD(F13:F22)/1000000</f>
         <v>0.000127382233193383</v>
       </c>
-      <c r="G93" s="4" t="n">
-        <f aca="false">STDEV(G13:G22)/1000000</f>
+      <c r="G93" s="5" t="n">
+        <f aca="false">DESVPAD(G13:G22)/1000000</f>
         <v>0.00182580755040369</v>
       </c>
-      <c r="H93" s="4" t="n">
-        <f aca="false">STDEV(H13:H22)/1000000</f>
+      <c r="H93" s="5" t="n">
+        <f aca="false">DESVPAD(H13:H22)/1000000</f>
         <v>0.0203236132679862</v>
       </c>
-      <c r="I93" s="4" t="n">
-        <f aca="false">STDEV(I13:I22)/1000000</f>
+      <c r="I93" s="5" t="n">
+        <f aca="false">DESVPAD(I13:I22)/1000000</f>
         <v>1.59700765571479</v>
       </c>
-      <c r="J93" s="4"/>
+      <c r="J93" s="5"/>
       <c r="L93" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M93" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="N93" s="4" t="n">
-        <f aca="false">STDEV(N13:N22)/1000000</f>
+      <c r="N93" s="5" t="n">
+        <f aca="false">DESVPAD(N13:N22)/1000000</f>
         <v>9.27086835199379E-005</v>
       </c>
-      <c r="O93" s="4" t="n">
-        <f aca="false">STDEV(O13:O22)/1000000</f>
+      <c r="O93" s="5" t="n">
+        <f aca="false">DESVPAD(O13:O22)/1000000</f>
         <v>0.0496316866461784</v>
       </c>
-      <c r="P93" s="4" t="n">
-        <f aca="false">STDEV(P13:P22)/1000000</f>
+      <c r="P93" s="5" t="n">
+        <f aca="false">DESVPAD(P13:P22)/1000000</f>
         <v>0.0141625269151456</v>
       </c>
-      <c r="Q93" s="4" t="n">
-        <f aca="false">STDEV(Q13:Q22)/1000000</f>
+      <c r="Q93" s="5" t="n">
+        <f aca="false">DESVPAD(Q13:Q22)/1000000</f>
         <v>8.95148032450499E-005</v>
       </c>
-      <c r="R93" s="4" t="n">
-        <f aca="false">STDEV(R13:R22)/1000000</f>
+      <c r="R93" s="5" t="n">
+        <f aca="false">DESVPAD(R13:R22)/1000000</f>
         <v>0.00307561199871939</v>
       </c>
-      <c r="S93" s="4" t="n">
-        <f aca="false">STDEV(S13:S22)/1000000</f>
+      <c r="S93" s="5" t="n">
+        <f aca="false">DESVPAD(S13:S22)/1000000</f>
         <v>0.0202598924643411</v>
       </c>
-      <c r="T93" s="4" t="n">
-        <f aca="false">STDEV(T13:T22)/1000000</f>
+      <c r="T93" s="5" t="n">
+        <f aca="false">DESVPAD(T13:T22)/1000000</f>
         <v>0.911000601077153</v>
       </c>
-      <c r="U93" s="4"/>
+      <c r="U93" s="5"/>
       <c r="W93" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X93" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="Y93" s="4" t="n">
-        <f aca="false">STDEV(Y13:Y22)/1000000</f>
+      <c r="Y93" s="5" t="n">
+        <f aca="false">DESVPAD(Y13:Y22)/1000000</f>
         <v>0.000588300612876709</v>
       </c>
-      <c r="Z93" s="4" t="n">
-        <f aca="false">STDEV(Z13:Z22)/1000000</f>
+      <c r="Z93" s="5" t="n">
+        <f aca="false">DESVPAD(Z13:Z22)/1000000</f>
         <v>0.152501797653667</v>
       </c>
-      <c r="AA93" s="4" t="n">
-        <f aca="false">STDEV(AA13:AA22)/1000000</f>
+      <c r="AA93" s="5" t="n">
+        <f aca="false">DESVPAD(AA13:AA22)/1000000</f>
         <v>0.0446293409237565</v>
       </c>
-      <c r="AB93" s="4" t="n">
-        <f aca="false">STDEV(AB13:AB22)/1000000</f>
+      <c r="AB93" s="5" t="n">
+        <f aca="false">DESVPAD(AB13:AB22)/1000000</f>
         <v>0.000478935961852475</v>
       </c>
-      <c r="AC93" s="4" t="n">
-        <f aca="false">STDEV(AC13:AC22)/1000000</f>
+      <c r="AC93" s="5" t="n">
+        <f aca="false">DESVPAD(AC13:AC22)/1000000</f>
         <v>0.0284527156298149</v>
       </c>
-      <c r="AD93" s="4" t="n">
-        <f aca="false">STDEV(AD13:AD22)/1000000</f>
+      <c r="AD93" s="5" t="n">
+        <f aca="false">DESVPAD(AD13:AD22)/1000000</f>
         <v>0.0211244170836078</v>
       </c>
-      <c r="AE93" s="4" t="n">
-        <f aca="false">STDEV(AE13:AE22)/1000000</f>
+      <c r="AE93" s="5" t="n">
+        <f aca="false">DESVPAD(AE13:AE22)/1000000</f>
         <v>3.29736706545708</v>
       </c>
-      <c r="AF93" s="4"/>
+      <c r="AF93" s="5"/>
       <c r="AH93" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI93" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="AJ93" s="4" t="n">
-        <f aca="false">STDEV(AJ13:AJ22)/1000000</f>
+      <c r="AJ93" s="5" t="n">
+        <f aca="false">DESVPAD(AJ13:AJ22)/1000000</f>
         <v>0.00111206684950941</v>
       </c>
-      <c r="AK93" s="4" t="n">
-        <f aca="false">STDEV(AK13:AK22)/1000000</f>
+      <c r="AK93" s="5" t="n">
+        <f aca="false">DESVPAD(AK13:AK22)/1000000</f>
         <v>0.109362289079361</v>
       </c>
-      <c r="AL93" s="4" t="n">
-        <f aca="false">STDEV(AL13:AL22)/1000000</f>
+      <c r="AL93" s="5" t="n">
+        <f aca="false">DESVPAD(AL13:AL22)/1000000</f>
         <v>0.0364871030420339</v>
       </c>
-      <c r="AM93" s="4" t="n">
-        <f aca="false">STDEV(AM13:AM22)/1000000</f>
+      <c r="AM93" s="5" t="n">
+        <f aca="false">DESVPAD(AM13:AM22)/1000000</f>
         <v>0.00724224389414098</v>
       </c>
-      <c r="AN93" s="4" t="n">
-        <f aca="false">STDEV(AN13:AN22)/1000000</f>
+      <c r="AN93" s="5" t="n">
+        <f aca="false">DESVPAD(AN13:AN22)/1000000</f>
         <v>0.0673418829770069</v>
       </c>
-      <c r="AO93" s="4" t="n">
-        <f aca="false">STDEV(AO13:AO22)/1000000</f>
+      <c r="AO93" s="5" t="n">
+        <f aca="false">DESVPAD(AO13:AO22)/1000000</f>
         <v>0.0323975007136182</v>
       </c>
-      <c r="AP93" s="4" t="n">
-        <f aca="false">STDEV(AP13:AP22)/1000000</f>
+      <c r="AP93" s="5" t="n">
+        <f aca="false">DESVPAD(AP13:AP22)/1000000</f>
         <v>0.493494188348804</v>
       </c>
-      <c r="AQ93" s="4"/>
+      <c r="AQ93" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="94">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="94">
       <c r="A94" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B94" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="C94" s="4" t="n">
-        <f aca="false">STDEV(C24:C33)/1000000</f>
+      <c r="C94" s="5" t="n">
+        <f aca="false">DESVPAD(C24:C33)/1000000</f>
         <v>0.00710136231140038</v>
       </c>
-      <c r="D94" s="4" t="n">
-        <f aca="false">STDEV(D24:D33)/1000000</f>
+      <c r="D94" s="5" t="n">
+        <f aca="false">DESVPAD(D24:D33)/1000000</f>
         <v>0.0907824969659778</v>
       </c>
-      <c r="E94" s="4" t="n">
-        <f aca="false">STDEV(E24:E33)/1000000</f>
+      <c r="E94" s="5" t="n">
+        <f aca="false">DESVPAD(E24:E33)/1000000</f>
         <v>0.0218122416416409</v>
       </c>
-      <c r="F94" s="4" t="n">
-        <f aca="false">STDEV(F24:F33)/1000000</f>
+      <c r="F94" s="5" t="n">
+        <f aca="false">DESVPAD(F24:F33)/1000000</f>
         <v>0.00390324359276288</v>
       </c>
-      <c r="G94" s="4" t="n">
-        <f aca="false">STDEV(G24:G33)/1000000</f>
+      <c r="G94" s="5" t="n">
+        <f aca="false">DESVPAD(G24:G33)/1000000</f>
         <v>0.0414026507660507</v>
       </c>
-      <c r="H94" s="4" t="n">
-        <f aca="false">STDEV(H24:H33)/1000000</f>
+      <c r="H94" s="5" t="n">
+        <f aca="false">DESVPAD(H24:H33)/1000000</f>
         <v>0.0464770607117102</v>
       </c>
-      <c r="I94" s="4" t="n">
-        <f aca="false">STDEV(I24:I33)/1000000</f>
+      <c r="I94" s="5" t="n">
+        <f aca="false">DESVPAD(I24:I33)/1000000</f>
         <v>10.1559666883128</v>
       </c>
-      <c r="J94" s="4"/>
+      <c r="J94" s="5"/>
       <c r="L94" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M94" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="N94" s="4" t="n">
-        <f aca="false">STDEV(N24:N33)/1000000</f>
+      <c r="N94" s="5" t="n">
+        <f aca="false">DESVPAD(N24:N33)/1000000</f>
         <v>0.00499701104550399</v>
       </c>
-      <c r="O94" s="4" t="n">
-        <f aca="false">STDEV(O24:O33)/1000000</f>
+      <c r="O94" s="5" t="n">
+        <f aca="false">DESVPAD(O24:O33)/1000000</f>
         <v>0.100637395142109</v>
       </c>
-      <c r="P94" s="4" t="n">
-        <f aca="false">STDEV(P24:P33)/1000000</f>
+      <c r="P94" s="5" t="n">
+        <f aca="false">DESVPAD(P24:P33)/1000000</f>
         <v>0.0507616896382827</v>
       </c>
-      <c r="Q94" s="4" t="n">
-        <f aca="false">STDEV(Q24:Q33)/1000000</f>
+      <c r="Q94" s="5" t="n">
+        <f aca="false">DESVPAD(Q24:Q33)/1000000</f>
         <v>0.0047202844088042</v>
       </c>
-      <c r="R94" s="4" t="n">
-        <f aca="false">STDEV(R24:R33)/1000000</f>
+      <c r="R94" s="5" t="n">
+        <f aca="false">DESVPAD(R24:R33)/1000000</f>
         <v>0.0193929740315633</v>
       </c>
-      <c r="S94" s="4" t="n">
-        <f aca="false">STDEV(S24:S33)/1000000</f>
+      <c r="S94" s="5" t="n">
+        <f aca="false">DESVPAD(S24:S33)/1000000</f>
         <v>0.0394468950677856</v>
       </c>
-      <c r="T94" s="4" t="n">
-        <f aca="false">STDEV(T24:T33)/1000000</f>
+      <c r="T94" s="5" t="n">
+        <f aca="false">DESVPAD(T24:T33)/1000000</f>
         <v>6.30948204532122</v>
       </c>
-      <c r="U94" s="4"/>
+      <c r="U94" s="5"/>
       <c r="W94" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X94" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="Y94" s="4" t="n">
-        <f aca="false">STDEV(Y24:Y33)/1000000</f>
+      <c r="Y94" s="5" t="n">
+        <f aca="false">DESVPAD(Y24:Y33)/1000000</f>
         <v>0.00405521648141146</v>
       </c>
-      <c r="Z94" s="4" t="n">
-        <f aca="false">STDEV(Z24:Z33)/1000000</f>
+      <c r="Z94" s="5" t="n">
+        <f aca="false">DESVPAD(Z24:Z33)/1000000</f>
         <v>0.399565489827262</v>
       </c>
-      <c r="AA94" s="4" t="n">
-        <f aca="false">STDEV(AA24:AA33)/1000000</f>
+      <c r="AA94" s="5" t="n">
+        <f aca="false">DESVPAD(AA24:AA33)/1000000</f>
         <v>0.0682481659016074</v>
       </c>
-      <c r="AB94" s="4" t="n">
-        <f aca="false">STDEV(AB24:AB33)/1000000</f>
+      <c r="AB94" s="5" t="n">
+        <f aca="false">DESVPAD(AB24:AB33)/1000000</f>
         <v>0.00397916893752117</v>
       </c>
-      <c r="AC94" s="4" t="n">
-        <f aca="false">STDEV(AC24:AC33)/1000000</f>
+      <c r="AC94" s="5" t="n">
+        <f aca="false">DESVPAD(AC24:AC33)/1000000</f>
         <v>0.180351099447839</v>
       </c>
-      <c r="AD94" s="4" t="n">
-        <f aca="false">STDEV(AD24:AD33)/1000000</f>
+      <c r="AD94" s="5" t="n">
+        <f aca="false">DESVPAD(AD24:AD33)/1000000</f>
         <v>0.0474969073234131</v>
       </c>
-      <c r="AE94" s="4" t="n">
-        <f aca="false">STDEV(AE24:AE33)/1000000</f>
+      <c r="AE94" s="5" t="n">
+        <f aca="false">DESVPAD(AE24:AE33)/1000000</f>
         <v>9.67678891716818</v>
       </c>
-      <c r="AF94" s="4"/>
+      <c r="AF94" s="5"/>
       <c r="AH94" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI94" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="AJ94" s="4" t="n">
-        <f aca="false">STDEV(AJ24:AJ33)/1000000</f>
+      <c r="AJ94" s="5" t="n">
+        <f aca="false">DESVPAD(AJ24:AJ33)/1000000</f>
         <v>0.00327406588035258</v>
       </c>
-      <c r="AK94" s="4" t="n">
-        <f aca="false">STDEV(AK24:AK33)/1000000</f>
+      <c r="AK94" s="5" t="n">
+        <f aca="false">DESVPAD(AK24:AK33)/1000000</f>
         <v>0.534644986143557</v>
       </c>
-      <c r="AL94" s="4" t="n">
-        <f aca="false">STDEV(AL24:AL33)/1000000</f>
+      <c r="AL94" s="5" t="n">
+        <f aca="false">DESVPAD(AL24:AL33)/1000000</f>
         <v>0.0614702215219333</v>
       </c>
-      <c r="AM94" s="4" t="n">
-        <f aca="false">STDEV(AM24:AM33)/1000000</f>
+      <c r="AM94" s="5" t="n">
+        <f aca="false">DESVPAD(AM24:AM33)/1000000</f>
         <v>0.00342020078033115</v>
       </c>
-      <c r="AN94" s="4" t="n">
-        <f aca="false">STDEV(AN24:AN33)/1000000</f>
+      <c r="AN94" s="5" t="n">
+        <f aca="false">DESVPAD(AN24:AN33)/1000000</f>
         <v>0.101978493840886</v>
       </c>
-      <c r="AO94" s="4" t="n">
-        <f aca="false">STDEV(AO24:AO33)/1000000</f>
+      <c r="AO94" s="5" t="n">
+        <f aca="false">DESVPAD(AO24:AO33)/1000000</f>
         <v>0.0793479654822843</v>
       </c>
-      <c r="AP94" s="4" t="n">
-        <f aca="false">STDEV(AP24:AP33)/1000000</f>
+      <c r="AP94" s="5" t="n">
+        <f aca="false">DESVPAD(AP24:AP33)/1000000</f>
         <v>3.78539170267218</v>
       </c>
-      <c r="AQ94" s="4"/>
+      <c r="AQ94" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="95">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="95">
       <c r="A95" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B95" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="C95" s="4" t="n">
-        <f aca="false">STDEV(C35:C44)/1000000</f>
+      <c r="C95" s="5" t="n">
+        <f aca="false">DESVPAD(C35:C44)/1000000</f>
         <v>0.0036658996227999</v>
       </c>
-      <c r="D95" s="4" t="n">
-        <f aca="false">STDEV(D35:D44)/1000000</f>
+      <c r="D95" s="5" t="n">
+        <f aca="false">DESVPAD(D35:D44)/1000000</f>
         <v>0.0767389857377302</v>
       </c>
-      <c r="E95" s="4" t="n">
-        <f aca="false">STDEV(E35:E44)/1000000</f>
+      <c r="E95" s="5" t="n">
+        <f aca="false">DESVPAD(E35:E44)/1000000</f>
         <v>0.0436106752089185</v>
       </c>
-      <c r="F95" s="4" t="n">
-        <f aca="false">STDEV(F35:F44)/1000000</f>
+      <c r="F95" s="5" t="n">
+        <f aca="false">DESVPAD(F35:F44)/1000000</f>
         <v>0.00444822537023974</v>
       </c>
-      <c r="G95" s="4" t="n">
-        <f aca="false">STDEV(G35:G44)/1000000</f>
+      <c r="G95" s="5" t="n">
+        <f aca="false">DESVPAD(G35:G44)/1000000</f>
         <v>0.04503317692904</v>
       </c>
-      <c r="H95" s="4" t="n">
-        <f aca="false">STDEV(H35:H44)/1000000</f>
+      <c r="H95" s="5" t="n">
+        <f aca="false">DESVPAD(H35:H44)/1000000</f>
         <v>0.0655765166694603</v>
       </c>
-      <c r="I95" s="4" t="n">
-        <f aca="false">STDEV(I35:I44)/1000000</f>
+      <c r="I95" s="5" t="n">
+        <f aca="false">DESVPAD(I35:I44)/1000000</f>
         <v>21.8822614113572</v>
       </c>
-      <c r="J95" s="4"/>
+      <c r="J95" s="5"/>
       <c r="L95" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M95" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="N95" s="4" t="n">
-        <f aca="false">STDEV(N35:N44)/1000000</f>
+      <c r="N95" s="5" t="n">
+        <f aca="false">DESVPAD(N35:N44)/1000000</f>
         <v>0.00222110734394656</v>
       </c>
-      <c r="O95" s="4" t="n">
-        <f aca="false">STDEV(O35:O44)/1000000</f>
+      <c r="O95" s="5" t="n">
+        <f aca="false">DESVPAD(O35:O44)/1000000</f>
         <v>0.143656809678715</v>
       </c>
-      <c r="P95" s="4" t="n">
-        <f aca="false">STDEV(P35:P44)/1000000</f>
+      <c r="P95" s="5" t="n">
+        <f aca="false">DESVPAD(P35:P44)/1000000</f>
         <v>0.0675727543157908</v>
       </c>
-      <c r="Q95" s="4" t="n">
-        <f aca="false">STDEV(Q35:Q44)/1000000</f>
+      <c r="Q95" s="5" t="n">
+        <f aca="false">DESVPAD(Q35:Q44)/1000000</f>
         <v>0.00444822537023974</v>
       </c>
-      <c r="R95" s="4" t="n">
-        <f aca="false">STDEV(R35:R44)/1000000</f>
+      <c r="R95" s="5" t="n">
+        <f aca="false">DESVPAD(R35:R44)/1000000</f>
         <v>0.0549943708812295</v>
       </c>
-      <c r="S95" s="4" t="n">
-        <f aca="false">STDEV(S35:S44)/1000000</f>
+      <c r="S95" s="5" t="n">
+        <f aca="false">DESVPAD(S35:S44)/1000000</f>
         <v>0.0615711392637276</v>
       </c>
-      <c r="T95" s="4" t="n">
-        <f aca="false">STDEV(T35:T44)/1000000</f>
+      <c r="T95" s="5" t="n">
+        <f aca="false">DESVPAD(T35:T44)/1000000</f>
         <v>6.14242342787909</v>
       </c>
-      <c r="U95" s="4"/>
+      <c r="U95" s="5"/>
       <c r="W95" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X95" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="Y95" s="4" t="n">
-        <f aca="false">STDEV(Y35:Y44)/1000000</f>
+      <c r="Y95" s="5" t="n">
+        <f aca="false">DESVPAD(Y35:Y44)/1000000</f>
         <v>0.0384434923231488</v>
       </c>
-      <c r="Z95" s="4" t="n">
-        <f aca="false">STDEV(Z35:Z44)/1000000</f>
+      <c r="Z95" s="5" t="n">
+        <f aca="false">DESVPAD(Z35:Z44)/1000000</f>
         <v>0.891579851940419</v>
       </c>
-      <c r="AA95" s="4" t="n">
-        <f aca="false">STDEV(AA35:AA44)/1000000</f>
+      <c r="AA95" s="5" t="n">
+        <f aca="false">DESVPAD(AA35:AA44)/1000000</f>
         <v>0.0797898863474842</v>
       </c>
-      <c r="AB95" s="4" t="n">
-        <f aca="false">STDEV(AB35:AB44)/1000000</f>
+      <c r="AB95" s="5" t="n">
+        <f aca="false">DESVPAD(AB35:AB44)/1000000</f>
         <v>0.00728824871511211</v>
       </c>
-      <c r="AC95" s="4" t="n">
-        <f aca="false">STDEV(AC35:AC44)/1000000</f>
+      <c r="AC95" s="5" t="n">
+        <f aca="false">DESVPAD(AC35:AC44)/1000000</f>
         <v>0.176596846336161</v>
       </c>
-      <c r="AD95" s="4" t="n">
-        <f aca="false">STDEV(AD35:AD44)/1000000</f>
+      <c r="AD95" s="5" t="n">
+        <f aca="false">DESVPAD(AD35:AD44)/1000000</f>
         <v>0.0996202774530478</v>
       </c>
-      <c r="AE95" s="4" t="n">
-        <f aca="false">STDEV(AE35:AE44)/1000000</f>
+      <c r="AE95" s="5" t="n">
+        <f aca="false">DESVPAD(AE35:AE44)/1000000</f>
         <v>6.91373637250968</v>
       </c>
-      <c r="AF95" s="4"/>
+      <c r="AF95" s="5"/>
       <c r="AH95" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI95" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="AJ95" s="4" t="n">
-        <f aca="false">STDEV(AJ35:AJ44)/1000000</f>
+      <c r="AJ95" s="5" t="n">
+        <f aca="false">DESVPAD(AJ35:AJ44)/1000000</f>
         <v>0.00815857479111531</v>
       </c>
-      <c r="AK95" s="4" t="n">
-        <f aca="false">STDEV(AK35:AK44)/1000000</f>
+      <c r="AK95" s="5" t="n">
+        <f aca="false">DESVPAD(AK35:AK44)/1000000</f>
         <v>0.92023130816771</v>
       </c>
-      <c r="AL95" s="4" t="n">
-        <f aca="false">STDEV(AL35:AL44)/1000000</f>
+      <c r="AL95" s="5" t="n">
+        <f aca="false">DESVPAD(AL35:AL44)/1000000</f>
         <v>0.114274673694617</v>
       </c>
-      <c r="AM95" s="4" t="n">
-        <f aca="false">STDEV(AM35:AM44)/1000000</f>
+      <c r="AM95" s="5" t="n">
+        <f aca="false">DESVPAD(AM35:AM44)/1000000</f>
         <v>0.00847479302992114</v>
       </c>
-      <c r="AN95" s="4" t="n">
-        <f aca="false">STDEV(AN35:AN44)/1000000</f>
+      <c r="AN95" s="5" t="n">
+        <f aca="false">DESVPAD(AN35:AN44)/1000000</f>
         <v>0.327766448227054</v>
       </c>
-      <c r="AO95" s="4" t="n">
-        <f aca="false">STDEV(AO35:AO44)/1000000</f>
+      <c r="AO95" s="5" t="n">
+        <f aca="false">DESVPAD(AO35:AO44)/1000000</f>
         <v>0.0608430145867215</v>
       </c>
-      <c r="AP95" s="4" t="n">
-        <f aca="false">STDEV(AP35:AP44)/1000000</f>
+      <c r="AP95" s="5" t="n">
+        <f aca="false">DESVPAD(AP35:AP44)/1000000</f>
         <v>6.54690440993953</v>
       </c>
-      <c r="AQ95" s="4"/>
+      <c r="AQ95" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="96">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="96">
       <c r="A96" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B96" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="C96" s="4" t="n">
-        <f aca="false">STDEV(C46:C55)/1000000</f>
+      <c r="C96" s="5" t="n">
+        <f aca="false">DESVPAD(C46:C55)/1000000</f>
         <v>0.00910527352996908</v>
       </c>
-      <c r="D96" s="4" t="n">
-        <f aca="false">STDEV(D46:D55)/1000000</f>
+      <c r="D96" s="5" t="n">
+        <f aca="false">DESVPAD(D46:D55)/1000000</f>
         <v>0.287044403520683</v>
       </c>
-      <c r="E96" s="4" t="n">
-        <f aca="false">STDEV(E46:E55)/1000000</f>
+      <c r="E96" s="5" t="n">
+        <f aca="false">DESVPAD(E46:E55)/1000000</f>
         <v>0.409599423331856</v>
       </c>
-      <c r="F96" s="4" t="n">
-        <f aca="false">STDEV(F46:F55)/1000000</f>
+      <c r="F96" s="5" t="n">
+        <f aca="false">DESVPAD(F46:F55)/1000000</f>
         <v>0.00483005246003257</v>
       </c>
-      <c r="G96" s="4" t="n">
-        <f aca="false">STDEV(G46:G55)/1000000</f>
+      <c r="G96" s="5" t="n">
+        <f aca="false">DESVPAD(G46:G55)/1000000</f>
         <v>0.0920222929956528</v>
       </c>
-      <c r="H96" s="4" t="n">
-        <f aca="false">STDEV(H46:H55)/1000000</f>
+      <c r="H96" s="5" t="n">
+        <f aca="false">DESVPAD(H46:H55)/1000000</f>
         <v>0.394116379679855</v>
       </c>
-      <c r="I96" s="4" t="n">
-        <f aca="false">STDEV(I46:I55)/1000000</f>
+      <c r="I96" s="5" t="n">
+        <f aca="false">DESVPAD(I46:I55)/1000000</f>
         <v>19.8619180513668</v>
       </c>
-      <c r="J96" s="4"/>
+      <c r="J96" s="5"/>
       <c r="L96" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M96" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="N96" s="4" t="n">
-        <f aca="false">STDEV(N46:N55)/1000000</f>
+      <c r="N96" s="5" t="n">
+        <f aca="false">DESVPAD(N46:N55)/1000000</f>
         <v>0.00329302381980115</v>
       </c>
-      <c r="O96" s="4" t="n">
-        <f aca="false">STDEV(O46:O55)/1000000</f>
+      <c r="O96" s="5" t="n">
+        <f aca="false">DESVPAD(O46:O55)/1000000</f>
         <v>0.754282154978044</v>
       </c>
-      <c r="P96" s="4" t="n">
-        <f aca="false">STDEV(P46:P55)/1000000</f>
+      <c r="P96" s="5" t="n">
+        <f aca="false">DESVPAD(P46:P55)/1000000</f>
         <v>0.408755879622871</v>
       </c>
-      <c r="Q96" s="4" t="n">
-        <f aca="false">STDEV(Q46:Q55)/1000000</f>
+      <c r="Q96" s="5" t="n">
+        <f aca="false">DESVPAD(Q46:Q55)/1000000</f>
         <v>0.00896628263427926</v>
       </c>
-      <c r="R96" s="4" t="n">
-        <f aca="false">STDEV(R46:R55)/1000000</f>
+      <c r="R96" s="5" t="n">
+        <f aca="false">DESVPAD(R46:R55)/1000000</f>
         <v>0.116325944043689</v>
       </c>
-      <c r="S96" s="4" t="n">
-        <f aca="false">STDEV(S46:S55)/1000000</f>
+      <c r="S96" s="5" t="n">
+        <f aca="false">DESVPAD(S46:S55)/1000000</f>
         <v>0.508232870751205</v>
       </c>
-      <c r="T96" s="4" t="n">
-        <f aca="false">STDEV(T46:T55)/1000000</f>
+      <c r="T96" s="5" t="n">
+        <f aca="false">DESVPAD(T46:T55)/1000000</f>
         <v>25.8258027069254</v>
       </c>
-      <c r="U96" s="4"/>
+      <c r="U96" s="5"/>
       <c r="W96" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X96" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="Y96" s="4" t="n">
-        <f aca="false">STDEV(Y46:Y55)/1000000</f>
+      <c r="Y96" s="5" t="n">
+        <f aca="false">DESVPAD(Y46:Y55)/1000000</f>
         <v>0.0370915613626903</v>
       </c>
-      <c r="Z96" s="4" t="n">
-        <f aca="false">STDEV(Z46:Z55)/1000000</f>
+      <c r="Z96" s="5" t="n">
+        <f aca="false">DESVPAD(Z46:Z55)/1000000</f>
         <v>0.83559839241391</v>
       </c>
-      <c r="AA96" s="4" t="n">
-        <f aca="false">STDEV(AA46:AA55)/1000000</f>
+      <c r="AA96" s="5" t="n">
+        <f aca="false">DESVPAD(AA46:AA55)/1000000</f>
         <v>0.178969752984004</v>
       </c>
-      <c r="AB96" s="4" t="n">
-        <f aca="false">STDEV(AB46:AB55)/1000000</f>
+      <c r="AB96" s="5" t="n">
+        <f aca="false">DESVPAD(AB46:AB55)/1000000</f>
         <v>0.0156544814957251</v>
       </c>
-      <c r="AC96" s="4" t="n">
-        <f aca="false">STDEV(AC46:AC55)/1000000</f>
+      <c r="AC96" s="5" t="n">
+        <f aca="false">DESVPAD(AC46:AC55)/1000000</f>
         <v>0.467262549841283</v>
       </c>
-      <c r="AD96" s="4" t="n">
-        <f aca="false">STDEV(AD46:AD55)/1000000</f>
+      <c r="AD96" s="5" t="n">
+        <f aca="false">DESVPAD(AD46:AD55)/1000000</f>
         <v>0.125637233370968</v>
       </c>
-      <c r="AE96" s="4" t="n">
-        <f aca="false">STDEV(AE46:AE55)/1000000</f>
+      <c r="AE96" s="5" t="n">
+        <f aca="false">DESVPAD(AE46:AE55)/1000000</f>
         <v>28.6109062531807</v>
       </c>
-      <c r="AF96" s="4"/>
+      <c r="AF96" s="5"/>
       <c r="AH96" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI96" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="AJ96" s="4" t="n">
-        <f aca="false">STDEV(AJ46:AJ55)/1000000</f>
+      <c r="AJ96" s="5" t="n">
+        <f aca="false">DESVPAD(AJ46:AJ55)/1000000</f>
         <v>0.00567177054562526</v>
       </c>
-      <c r="AK96" s="4" t="n">
-        <f aca="false">STDEV(AK46:AK55)/1000000</f>
+      <c r="AK96" s="5" t="n">
+        <f aca="false">DESVPAD(AK46:AK55)/1000000</f>
         <v>1.92351283627487</v>
       </c>
-      <c r="AL96" s="4" t="n">
-        <f aca="false">STDEV(AL46:AL55)/1000000</f>
+      <c r="AL96" s="5" t="n">
+        <f aca="false">DESVPAD(AL46:AL55)/1000000</f>
         <v>0.422067742972473</v>
       </c>
-      <c r="AM96" s="4" t="n">
-        <f aca="false">STDEV(AM46:AM55)/1000000</f>
+      <c r="AM96" s="5" t="n">
+        <f aca="false">DESVPAD(AM46:AM55)/1000000</f>
         <v>0.0118246354742969</v>
       </c>
-      <c r="AN96" s="4" t="n">
-        <f aca="false">STDEV(AN46:AN55)/1000000</f>
+      <c r="AN96" s="5" t="n">
+        <f aca="false">DESVPAD(AN46:AN55)/1000000</f>
         <v>0.476304267621969</v>
       </c>
-      <c r="AO96" s="4" t="n">
-        <f aca="false">STDEV(AO46:AO55)/1000000</f>
+      <c r="AO96" s="5" t="n">
+        <f aca="false">DESVPAD(AO46:AO55)/1000000</f>
         <v>0.783013191731822</v>
       </c>
-      <c r="AP96" s="4" t="n">
-        <f aca="false">STDEV(AP46:AP55)/1000000</f>
+      <c r="AP96" s="5" t="n">
+        <f aca="false">DESVPAD(AP46:AP55)/1000000</f>
         <v>82.1841673515172</v>
       </c>
-      <c r="AQ96" s="4"/>
+      <c r="AQ96" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="97">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="97">
       <c r="A97" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B97" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="C97" s="4" t="n">
-        <f aca="false">STDEV(C57:C66)/1000000</f>
+      <c r="C97" s="5" t="n">
+        <f aca="false">DESVPAD(C57:C66)/1000000</f>
         <v>0.0073846124256983</v>
       </c>
-      <c r="D97" s="4" t="n">
-        <f aca="false">STDEV(D57:D66)/1000000</f>
+      <c r="D97" s="5" t="n">
+        <f aca="false">DESVPAD(D57:D66)/1000000</f>
         <v>0.528465044801809</v>
       </c>
-      <c r="E97" s="4" t="n">
-        <f aca="false">STDEV(E57:E66)/1000000</f>
+      <c r="E97" s="5" t="n">
+        <f aca="false">DESVPAD(E57:E66)/1000000</f>
         <v>0.714925665857997</v>
       </c>
-      <c r="F97" s="4" t="n">
-        <f aca="false">STDEV(F57:F66)/1000000</f>
+      <c r="F97" s="5" t="n">
+        <f aca="false">DESVPAD(F57:F66)/1000000</f>
         <v>0.0113307161115262</v>
       </c>
-      <c r="G97" s="4" t="n">
-        <f aca="false">STDEV(G57:G66)/1000000</f>
+      <c r="G97" s="5" t="n">
+        <f aca="false">DESVPAD(G57:G66)/1000000</f>
         <v>0.163765634059605</v>
       </c>
-      <c r="H97" s="4" t="n">
-        <f aca="false">STDEV(H57:H66)/1000000</f>
+      <c r="H97" s="5" t="n">
+        <f aca="false">DESVPAD(H57:H66)/1000000</f>
         <v>0.507694372711039</v>
       </c>
-      <c r="I97" s="4" t="n">
-        <f aca="false">STDEV(I57:I66)/1000000</f>
+      <c r="I97" s="5" t="n">
+        <f aca="false">DESVPAD(I57:I66)/1000000</f>
         <v>203.222070457461</v>
       </c>
-      <c r="J97" s="4"/>
+      <c r="J97" s="5"/>
       <c r="L97" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M97" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="N97" s="4" t="n">
-        <f aca="false">STDEV(N57:N66)/1000000</f>
+      <c r="N97" s="5" t="n">
+        <f aca="false">DESVPAD(N57:N66)/1000000</f>
         <v>0.0203898113347492</v>
       </c>
-      <c r="O97" s="4" t="n">
-        <f aca="false">STDEV(O57:O66)/1000000</f>
+      <c r="O97" s="5" t="n">
+        <f aca="false">DESVPAD(O57:O66)/1000000</f>
         <v>0.662585732642694</v>
       </c>
-      <c r="P97" s="4" t="n">
-        <f aca="false">STDEV(P57:P66)/1000000</f>
+      <c r="P97" s="5" t="n">
+        <f aca="false">DESVPAD(P57:P66)/1000000</f>
         <v>0.659646863048909</v>
       </c>
-      <c r="Q97" s="4" t="n">
-        <f aca="false">STDEV(Q57:Q66)/1000000</f>
+      <c r="Q97" s="5" t="n">
+        <f aca="false">DESVPAD(Q57:Q66)/1000000</f>
         <v>0.0202133498419568</v>
       </c>
-      <c r="R97" s="4" t="n">
-        <f aca="false">STDEV(R57:R66)/1000000</f>
+      <c r="R97" s="5" t="n">
+        <f aca="false">DESVPAD(R57:R66)/1000000</f>
         <v>0.208565298635543</v>
       </c>
-      <c r="S97" s="4" t="n">
-        <f aca="false">STDEV(S57:S66)/1000000</f>
+      <c r="S97" s="5" t="n">
+        <f aca="false">DESVPAD(S57:S66)/1000000</f>
         <v>0.694379142790522</v>
       </c>
-      <c r="T97" s="4" t="n">
-        <f aca="false">STDEV(T57:T66)/1000000</f>
+      <c r="T97" s="5" t="n">
+        <f aca="false">DESVPAD(T57:T66)/1000000</f>
         <v>53.8420786305915</v>
       </c>
-      <c r="U97" s="4"/>
+      <c r="U97" s="5"/>
       <c r="W97" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X97" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="Y97" s="4" t="n">
-        <f aca="false">STDEV(Y57:Y66)/1000000</f>
+      <c r="Y97" s="5" t="n">
+        <f aca="false">DESVPAD(Y57:Y66)/1000000</f>
         <v>0.017384520777596</v>
       </c>
-      <c r="Z97" s="4" t="n">
-        <f aca="false">STDEV(Z57:Z66)/1000000</f>
+      <c r="Z97" s="5" t="n">
+        <f aca="false">DESVPAD(Z57:Z66)/1000000</f>
         <v>1.83332060555546</v>
       </c>
-      <c r="AA97" s="4" t="n">
-        <f aca="false">STDEV(AA57:AA66)/1000000</f>
+      <c r="AA97" s="5" t="n">
+        <f aca="false">DESVPAD(AA57:AA66)/1000000</f>
         <v>0.439418099298821</v>
       </c>
-      <c r="AB97" s="4" t="n">
-        <f aca="false">STDEV(AB57:AB66)/1000000</f>
+      <c r="AB97" s="5" t="n">
+        <f aca="false">DESVPAD(AB57:AB66)/1000000</f>
         <v>0.0200221515615969</v>
       </c>
-      <c r="AC97" s="4" t="n">
-        <f aca="false">STDEV(AC57:AC66)/1000000</f>
+      <c r="AC97" s="5" t="n">
+        <f aca="false">DESVPAD(AC57:AC66)/1000000</f>
         <v>0.7612301021124</v>
       </c>
-      <c r="AD97" s="4" t="n">
-        <f aca="false">STDEV(AD57:AD66)/1000000</f>
+      <c r="AD97" s="5" t="n">
+        <f aca="false">DESVPAD(AD57:AD66)/1000000</f>
         <v>1.76805736466294</v>
       </c>
-      <c r="AE97" s="4" t="n">
-        <f aca="false">STDEV(AE57:AE66)/1000000</f>
+      <c r="AE97" s="5" t="n">
+        <f aca="false">DESVPAD(AE57:AE66)/1000000</f>
         <v>58.596588524718</v>
       </c>
-      <c r="AF97" s="4"/>
+      <c r="AF97" s="5"/>
       <c r="AH97" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI97" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="AJ97" s="4" t="n">
-        <f aca="false">STDEV(AJ57:AJ66)/1000000</f>
+      <c r="AJ97" s="5" t="n">
+        <f aca="false">DESVPAD(AJ57:AJ66)/1000000</f>
         <v>0.011586327102811</v>
       </c>
-      <c r="AK97" s="4" t="n">
-        <f aca="false">STDEV(AK57:AK66)/1000000</f>
+      <c r="AK97" s="5" t="n">
+        <f aca="false">DESVPAD(AK57:AK66)/1000000</f>
         <v>3.3604468593235</v>
       </c>
-      <c r="AL97" s="4" t="n">
-        <f aca="false">STDEV(AL57:AL66)/1000000</f>
+      <c r="AL97" s="5" t="n">
+        <f aca="false">DESVPAD(AL57:AL66)/1000000</f>
         <v>1.47644706237954</v>
       </c>
-      <c r="AM97" s="4" t="n">
-        <f aca="false">STDEV(AM57:AM66)/1000000</f>
+      <c r="AM97" s="5" t="n">
+        <f aca="false">DESVPAD(AM57:AM66)/1000000</f>
         <v>0.0151552983566071</v>
       </c>
-      <c r="AN97" s="4" t="n">
-        <f aca="false">STDEV(AN57:AN66)/1000000</f>
+      <c r="AN97" s="5" t="n">
+        <f aca="false">DESVPAD(AN57:AN66)/1000000</f>
         <v>0.756686340608761</v>
       </c>
-      <c r="AO97" s="4" t="n">
-        <f aca="false">STDEV(AO57:AO66)/1000000</f>
+      <c r="AO97" s="5" t="n">
+        <f aca="false">DESVPAD(AO57:AO66)/1000000</f>
         <v>1.4522989496708</v>
       </c>
-      <c r="AP97" s="4" t="n">
-        <f aca="false">STDEV(AP57:AP66)/1000000</f>
+      <c r="AP97" s="5" t="n">
+        <f aca="false">DESVPAD(AP57:AP66)/1000000</f>
         <v>92.8167063033968</v>
       </c>
-      <c r="AQ97" s="4"/>
+      <c r="AQ97" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="98">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="98">
       <c r="A98" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B98" s="0" t="n">
         <v>5000000</v>
       </c>
-      <c r="C98" s="4" t="n">
-        <f aca="false">STDEV(C68:C77)/1000000</f>
+      <c r="C98" s="5" t="n">
+        <f aca="false">DESVPAD(C68:C77)/1000000</f>
         <v>0.0161728273622422</v>
       </c>
-      <c r="D98" s="4" t="n">
-        <f aca="false">STDEV(D68:D77)/1000000</f>
+      <c r="D98" s="5" t="n">
+        <f aca="false">DESVPAD(D68:D77)/1000000</f>
         <v>1.01437728347035</v>
       </c>
-      <c r="E98" s="4" t="n">
-        <f aca="false">STDEV(E68:E77)/1000000</f>
+      <c r="E98" s="5" t="n">
+        <f aca="false">DESVPAD(E68:E77)/1000000</f>
         <v>1.9217877059309</v>
       </c>
-      <c r="F98" s="4" t="n">
-        <f aca="false">STDEV(F68:F77)/1000000</f>
+      <c r="F98" s="5" t="n">
+        <f aca="false">DESVPAD(F68:F77)/1000000</f>
         <v>0.0264541991583777</v>
       </c>
-      <c r="G98" s="4" t="n">
-        <f aca="false">STDEV(G68:G77)/1000000</f>
+      <c r="G98" s="5" t="n">
+        <f aca="false">DESVPAD(G68:G77)/1000000</f>
         <v>0.31501715789181</v>
       </c>
-      <c r="H98" s="4" t="n">
-        <f aca="false">STDEV(H68:H77)/1000000</f>
+      <c r="H98" s="5" t="n">
+        <f aca="false">DESVPAD(H68:H77)/1000000</f>
         <v>4.35622049342037</v>
       </c>
-      <c r="I98" s="4" t="n">
-        <f aca="false">STDEV(I68:I77)/1000000</f>
+      <c r="I98" s="5" t="n">
+        <f aca="false">DESVPAD(I68:I77)/1000000</f>
         <v>333.798089236675</v>
       </c>
-      <c r="J98" s="4"/>
+      <c r="J98" s="5"/>
       <c r="L98" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M98" s="0" t="n">
         <v>5000000</v>
       </c>
-      <c r="N98" s="4" t="n">
-        <f aca="false">STDEV(N68:N77)/1000000</f>
+      <c r="N98" s="5" t="n">
+        <f aca="false">DESVPAD(N68:N77)/1000000</f>
         <v>0.0179793155771354</v>
       </c>
-      <c r="O98" s="4" t="n">
-        <f aca="false">STDEV(O68:O77)/1000000</f>
+      <c r="O98" s="5" t="n">
+        <f aca="false">DESVPAD(O68:O77)/1000000</f>
         <v>1.11363061290203</v>
       </c>
-      <c r="P98" s="4" t="n">
-        <f aca="false">STDEV(P68:P77)/1000000</f>
+      <c r="P98" s="5" t="n">
+        <f aca="false">DESVPAD(P68:P77)/1000000</f>
         <v>2.86426909792754</v>
       </c>
-      <c r="Q98" s="4" t="n">
-        <f aca="false">STDEV(Q68:Q77)/1000000</f>
+      <c r="Q98" s="5" t="n">
+        <f aca="false">DESVPAD(Q68:Q77)/1000000</f>
         <v>0.0358846707439263</v>
       </c>
-      <c r="R98" s="4" t="n">
-        <f aca="false">STDEV(R68:R77)/1000000</f>
+      <c r="R98" s="5" t="n">
+        <f aca="false">DESVPAD(R68:R77)/1000000</f>
         <v>0.326987104699796</v>
       </c>
-      <c r="S98" s="4" t="n">
-        <f aca="false">STDEV(S68:S77)/1000000</f>
+      <c r="S98" s="5" t="n">
+        <f aca="false">DESVPAD(S68:S77)/1000000</f>
         <v>3.93498811690283</v>
       </c>
-      <c r="T98" s="4" t="n">
-        <f aca="false">STDEV(T68:T77)/1000000</f>
+      <c r="T98" s="5" t="n">
+        <f aca="false">DESVPAD(T68:T77)/1000000</f>
         <v>936.163148083234</v>
       </c>
-      <c r="U98" s="4"/>
+      <c r="U98" s="5"/>
       <c r="W98" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X98" s="0" t="n">
         <v>5000000</v>
       </c>
-      <c r="Y98" s="4" t="n">
-        <f aca="false">STDEV(Y68:Y77)/1000000</f>
+      <c r="Y98" s="5" t="n">
+        <f aca="false">DESVPAD(Y68:Y77)/1000000</f>
         <v>0.0419489765092997</v>
       </c>
-      <c r="Z98" s="4" t="n">
-        <f aca="false">STDEV(Z68:Z77)/1000000</f>
+      <c r="Z98" s="5" t="n">
+        <f aca="false">DESVPAD(Z68:Z77)/1000000</f>
         <v>6.31142511917106</v>
       </c>
-      <c r="AA98" s="4" t="n">
-        <f aca="false">STDEV(AA68:AA77)/1000000</f>
+      <c r="AA98" s="5" t="n">
+        <f aca="false">DESVPAD(AA68:AA77)/1000000</f>
         <v>3.30710973602803</v>
       </c>
-      <c r="AB98" s="4" t="n">
-        <f aca="false">STDEV(AB68:AB77)/1000000</f>
+      <c r="AB98" s="5" t="n">
+        <f aca="false">DESVPAD(AB68:AB77)/1000000</f>
         <v>0.0988297528979901</v>
       </c>
-      <c r="AC98" s="4" t="n">
-        <f aca="false">STDEV(AC68:AC77)/1000000</f>
+      <c r="AC98" s="5" t="n">
+        <f aca="false">DESVPAD(AC68:AC77)/1000000</f>
         <v>1.50655100387815</v>
       </c>
-      <c r="AD98" s="4" t="n">
-        <f aca="false">STDEV(AD68:AD77)/1000000</f>
+      <c r="AD98" s="5" t="n">
+        <f aca="false">DESVPAD(AD68:AD77)/1000000</f>
         <v>3.34407552643296</v>
       </c>
-      <c r="AE98" s="4" t="n">
-        <f aca="false">STDEV(AE68:AE77)/1000000</f>
+      <c r="AE98" s="5" t="n">
+        <f aca="false">DESVPAD(AE68:AE77)/1000000</f>
         <v>1779.4634959594</v>
       </c>
-      <c r="AF98" s="4"/>
+      <c r="AF98" s="5"/>
       <c r="AH98" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI98" s="0" t="n">
         <v>5000000</v>
       </c>
-      <c r="AJ98" s="4" t="n">
-        <f aca="false">STDEV(AJ68:AJ77)/1000000</f>
+      <c r="AJ98" s="5" t="n">
+        <f aca="false">DESVPAD(AJ68:AJ77)/1000000</f>
         <v>0.0681626791975557</v>
       </c>
-      <c r="AK98" s="4" t="n">
-        <f aca="false">STDEV(AK68:AK77)/1000000</f>
+      <c r="AK98" s="5" t="n">
+        <f aca="false">DESVPAD(AK68:AK77)/1000000</f>
         <v>13.5832973115685</v>
       </c>
-      <c r="AL98" s="4" t="n">
-        <f aca="false">STDEV(AL68:AL77)/1000000</f>
+      <c r="AL98" s="5" t="n">
+        <f aca="false">DESVPAD(AL68:AL77)/1000000</f>
         <v>1.46319263560971</v>
       </c>
-      <c r="AM98" s="4" t="n">
-        <f aca="false">STDEV(AM68:AM77)/1000000</f>
+      <c r="AM98" s="5" t="n">
+        <f aca="false">DESVPAD(AM68:AM77)/1000000</f>
         <v>0.0433662242580559</v>
       </c>
-      <c r="AN98" s="4" t="n">
-        <f aca="false">STDEV(AN68:AN77)/1000000</f>
+      <c r="AN98" s="5" t="n">
+        <f aca="false">DESVPAD(AN68:AN77)/1000000</f>
         <v>2.13614739024061</v>
       </c>
-      <c r="AO98" s="4" t="n">
-        <f aca="false">STDEV(AO68:AO77)/1000000</f>
+      <c r="AO98" s="5" t="n">
+        <f aca="false">DESVPAD(AO68:AO77)/1000000</f>
         <v>8.72138070947477</v>
       </c>
-      <c r="AP98" s="4" t="n">
-        <f aca="false">STDEV(AP68:AP77)/1000000</f>
+      <c r="AP98" s="5" t="n">
+        <f aca="false">DESVPAD(AP68:AP77)/1000000</f>
         <v>657.017082842062</v>
       </c>
-      <c r="AQ98" s="4"/>
+      <c r="AQ98" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="99">
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="5"/>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="99">
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="6"/>
+      <c r="O99" s="6"/>
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6"/>
+      <c r="R99" s="6"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="100">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="100">
       <c r="A100" s="2" t="s">
         <v>13</v>
       </c>
@@ -20238,7 +20244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="101">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="101">
       <c r="A101" s="1" t="s">
         <v>0</v>
       </c>
@@ -20360,999 +20366,999 @@
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="102">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="102">
       <c r="A102" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B102" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="C102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,C92,10)</f>
+      <c r="C102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;C92;10)</f>
         <v>4.9536622245527E-005</v>
       </c>
-      <c r="D102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,D92,10)</f>
+      <c r="D102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;D92;10)</f>
         <v>0.0137482156649858</v>
       </c>
-      <c r="E102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,E92,10)</f>
+      <c r="E102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;E92;10)</f>
         <v>0.0104273846966797</v>
       </c>
-      <c r="F102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,F92,10)</f>
+      <c r="F102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;F92;10)</f>
         <v>1.64211246893266E-005</v>
       </c>
-      <c r="G102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,G92,10)</f>
+      <c r="G102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;G92;10)</f>
         <v>0.0027779348098975</v>
       </c>
-      <c r="H102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,H92,10)</f>
+      <c r="H102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;H92;10)</f>
         <v>0.00836467070291325</v>
       </c>
-      <c r="I102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,I92,10)</f>
+      <c r="I102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;I92;10)</f>
         <v>0.317902833322423</v>
       </c>
-      <c r="J102" s="4"/>
+      <c r="J102" s="5"/>
       <c r="L102" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M102" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="N102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,N92,10)</f>
+      <c r="N102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;N92;10)</f>
         <v>0.000115160667166179</v>
       </c>
-      <c r="O102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,O92,10)</f>
+      <c r="O102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;O92;10)</f>
         <v>0.0435954511839366</v>
       </c>
-      <c r="P102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,P92,10)</f>
+      <c r="P102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;P92;10)</f>
         <v>0.00957626357219809</v>
       </c>
-      <c r="Q102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Q92,10)</f>
+      <c r="Q102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Q92;10)</f>
         <v>3.64433857228073E-005</v>
       </c>
-      <c r="R102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,R92,10)</f>
+      <c r="R102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;R92;10)</f>
         <v>0.000217560799139914</v>
       </c>
-      <c r="S102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,S92,10)</f>
+      <c r="S102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;S92;10)</f>
         <v>0.00941635037967984</v>
       </c>
-      <c r="T102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,T92,10)</f>
+      <c r="T102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;T92;10)</f>
         <v>0.187845932695163</v>
       </c>
-      <c r="U102" s="4"/>
+      <c r="U102" s="5"/>
       <c r="W102" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X102" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="Y102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Y92,10)</f>
+      <c r="Y102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Y92;10)</f>
         <v>8.89109841769605E-005</v>
       </c>
-      <c r="Z102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Z92,10)</f>
+      <c r="Z102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Z92;10)</f>
         <v>0.0535491245747605</v>
       </c>
-      <c r="AA102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AA92,10)</f>
+      <c r="AA102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AA92;10)</f>
         <v>0.0140903309855151</v>
       </c>
-      <c r="AB102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AB92,10)</f>
+      <c r="AB102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AB92;10)</f>
         <v>5.11684083714764E-005</v>
       </c>
-      <c r="AC102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AC92,10)</f>
+      <c r="AC102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AC92;10)</f>
         <v>0.0206982090926753</v>
       </c>
-      <c r="AD102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AD92,10)</f>
+      <c r="AD102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AD92;10)</f>
         <v>0.0126648971735502</v>
       </c>
-      <c r="AE102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AE92,10)</f>
+      <c r="AE102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AE92;10)</f>
         <v>0.179539633473593</v>
       </c>
-      <c r="AF102" s="4"/>
+      <c r="AF102" s="5"/>
       <c r="AH102" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI102" s="0" t="n">
         <v>5000</v>
       </c>
-      <c r="AJ102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AJ92,10)</f>
+      <c r="AJ102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AJ92;10)</f>
         <v>0.000221397141875157</v>
       </c>
-      <c r="AK102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AK92,10)</f>
+      <c r="AK102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AK92;10)</f>
         <v>0.0530385881068649</v>
       </c>
-      <c r="AL102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AL92,10)</f>
+      <c r="AL102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AL92;10)</f>
         <v>0.0139316240375916</v>
       </c>
-      <c r="AM102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AM92,10)</f>
+      <c r="AM102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AM92;10)</f>
         <v>7.55376493481462E-005</v>
       </c>
-      <c r="AN102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AN92,10)</f>
+      <c r="AN102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AN92;10)</f>
         <v>0.0234723005229804</v>
       </c>
-      <c r="AO102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AO92,10)</f>
+      <c r="AO102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AO92;10)</f>
         <v>0.00985477937524215</v>
       </c>
-      <c r="AP102" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AP92,10)</f>
+      <c r="AP102" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AP92;10)</f>
         <v>0.344353182731627</v>
       </c>
-      <c r="AQ102" s="4"/>
+      <c r="AQ102" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="103">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="103">
       <c r="A103" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B103" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="C103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,C93,10)</f>
+      <c r="C103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;C93;10)</f>
         <v>8.1186078319097E-005</v>
       </c>
-      <c r="D103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,D93,10)</f>
+      <c r="D103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;D93;10)</f>
         <v>0.0381648102721471</v>
       </c>
-      <c r="E103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,E93,10)</f>
+      <c r="E103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;E93;10)</f>
         <v>0.0135146270946042</v>
       </c>
-      <c r="F103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,F93,10)</f>
+      <c r="F103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;F93;10)</f>
         <v>7.89508753371198E-005</v>
       </c>
-      <c r="G103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,G93,10)</f>
+      <c r="G103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;G93;10)</f>
         <v>0.00113162644968437</v>
       </c>
-      <c r="H103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,H93,10)</f>
+      <c r="H103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;H93;10)</f>
         <v>0.012596474541977</v>
       </c>
-      <c r="I103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,I93,10)</f>
+      <c r="I103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;I93;10)</f>
         <v>0.989817411564382</v>
       </c>
-      <c r="J103" s="4"/>
+      <c r="J103" s="5"/>
       <c r="L103" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M103" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="N103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,N93,10)</f>
+      <c r="N103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;N93;10)</f>
         <v>5.74603814971532E-005</v>
       </c>
-      <c r="O103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,O93,10)</f>
+      <c r="O103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;O93;10)</f>
         <v>0.030761472828198</v>
       </c>
-      <c r="P103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,P93,10)</f>
+      <c r="P103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;P93;10)</f>
         <v>0.00877786382688686</v>
       </c>
-      <c r="Q103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Q93,10)</f>
+      <c r="Q103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Q93;10)</f>
         <v>5.54808303690022E-005</v>
       </c>
-      <c r="R103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,R93,10)</f>
+      <c r="R103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;R93;10)</f>
         <v>0.00190624903810258</v>
       </c>
-      <c r="S103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,S93,10)</f>
+      <c r="S103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;S93;10)</f>
         <v>0.0125569807044233</v>
       </c>
-      <c r="T103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,T93,10)</f>
+      <c r="T103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;T93;10)</f>
         <v>0.564633646974089</v>
       </c>
-      <c r="U103" s="4"/>
+      <c r="U103" s="5"/>
       <c r="W103" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X103" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="Y103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Y93,10)</f>
+      <c r="Y103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Y93;10)</f>
         <v>0.000364625797362713</v>
       </c>
-      <c r="Z103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Z93,10)</f>
+      <c r="Z103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Z93;10)</f>
         <v>0.0945198566032582</v>
       </c>
-      <c r="AA103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AA93,10)</f>
+      <c r="AA103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AA93;10)</f>
         <v>0.027661043799571</v>
       </c>
-      <c r="AB103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AB93,10)</f>
+      <c r="AB103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AB93;10)</f>
         <v>0.000296842129948171</v>
       </c>
-      <c r="AC103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AC93,10)</f>
+      <c r="AC103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AC93;10)</f>
         <v>0.0176348518029336</v>
       </c>
-      <c r="AD103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AD93,10)</f>
+      <c r="AD103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AD93;10)</f>
         <v>0.0130928087687497</v>
       </c>
-      <c r="AE103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AE93,10)</f>
+      <c r="AE103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AE93;10)</f>
         <v>2.04369172685497</v>
       </c>
-      <c r="AF103" s="4"/>
+      <c r="AF103" s="5"/>
       <c r="AH103" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI103" s="0" t="n">
         <v>10000</v>
       </c>
-      <c r="AJ103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AJ93,10)</f>
+      <c r="AJ103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AJ93;10)</f>
         <v>0.000689253508916515</v>
       </c>
-      <c r="AK103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AK93,10)</f>
+      <c r="AK103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AK93;10)</f>
         <v>0.0677822034928435</v>
       </c>
-      <c r="AL103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AL93,10)</f>
+      <c r="AL103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AL93;10)</f>
         <v>0.0226145252086373</v>
       </c>
-      <c r="AM103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AM93,10)</f>
+      <c r="AM103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AM93;10)</f>
         <v>0.00448870678832662</v>
       </c>
-      <c r="AN103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AN93,10)</f>
+      <c r="AN103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AN93;10)</f>
         <v>0.041738164535184</v>
       </c>
-      <c r="AO103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AO93,10)</f>
+      <c r="AO103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AO93;10)</f>
         <v>0.020079810001384</v>
       </c>
-      <c r="AP103" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AP93,10)</f>
+      <c r="AP103" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AP93;10)</f>
         <v>0.30586524640976</v>
       </c>
-      <c r="AQ103" s="4"/>
+      <c r="AQ103" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="104">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="104">
       <c r="A104" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B104" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="C104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,C94,10)</f>
+      <c r="C104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;C94;10)</f>
         <v>0.0044013890832008</v>
       </c>
-      <c r="D104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,D94,10)</f>
+      <c r="D104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;D94;10)</f>
         <v>0.056266540639717</v>
       </c>
-      <c r="E104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,E94,10)</f>
+      <c r="E104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;E94;10)</f>
         <v>0.0135191190129157</v>
       </c>
-      <c r="F104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,F94,10)</f>
+      <c r="F104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;F94;10)</f>
         <v>0.00241921098866904</v>
       </c>
-      <c r="G104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,G94,10)</f>
+      <c r="G104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;G94;10)</f>
         <v>0.0256611572690388</v>
       </c>
-      <c r="H104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,H94,10)</f>
+      <c r="H104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;H94;10)</f>
         <v>0.0288062513452355</v>
       </c>
-      <c r="I104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,I94,10)</f>
+      <c r="I104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;I94;10)</f>
         <v>6.29461770166687</v>
       </c>
-      <c r="J104" s="4"/>
+      <c r="J104" s="5"/>
       <c r="L104" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M104" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="N104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,N94,10)</f>
+      <c r="N104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;N94;10)</f>
         <v>0.0030971226223744</v>
       </c>
-      <c r="O104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,O94,10)</f>
+      <c r="O104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;O94;10)</f>
         <v>0.0623745575731501</v>
       </c>
-      <c r="P104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,P94,10)</f>
+      <c r="P104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;P94;10)</f>
         <v>0.0314618430691935</v>
       </c>
-      <c r="Q104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Q94,10)</f>
+      <c r="Q104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Q94;10)</f>
         <v>0.00292560882764152</v>
       </c>
-      <c r="R104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,R94,10)</f>
+      <c r="R104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;R94;10)</f>
         <v>0.0120196689663743</v>
       </c>
-      <c r="S104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,S94,10)</f>
+      <c r="S104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;S94;10)</f>
         <v>0.0244489896028528</v>
       </c>
-      <c r="T104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,T94,10)</f>
+      <c r="T104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;T94;10)</f>
         <v>3.91058562810492</v>
       </c>
-      <c r="U104" s="4"/>
+      <c r="U104" s="5"/>
       <c r="W104" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X104" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="Y104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Y94,10)</f>
+      <c r="Y104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Y94;10)</f>
         <v>0.0025134030300984</v>
       </c>
-      <c r="Z104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Z94,10)</f>
+      <c r="Z104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Z94;10)</f>
         <v>0.247648705675276</v>
       </c>
-      <c r="AA104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AA94,10)</f>
+      <c r="AA104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AA94;10)</f>
         <v>0.0422998741897139</v>
       </c>
-      <c r="AB104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AB94,10)</f>
+      <c r="AB104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AB94;10)</f>
         <v>0.00246626914017624</v>
       </c>
-      <c r="AC104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AC94,10)</f>
+      <c r="AC104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AC94;10)</f>
         <v>0.111780715508437</v>
       </c>
-      <c r="AD104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AD94,10)</f>
+      <c r="AD104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AD94;10)</f>
         <v>0.0294383472088816</v>
       </c>
-      <c r="AE104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AE94,10)</f>
+      <c r="AE104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AE94;10)</f>
         <v>5.99762569952067</v>
       </c>
-      <c r="AF104" s="4"/>
+      <c r="AF104" s="5"/>
       <c r="AH104" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI104" s="0" t="n">
         <v>50000</v>
       </c>
-      <c r="AJ104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AJ94,10)</f>
+      <c r="AJ104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AJ94;10)</f>
         <v>0.00202924976808039</v>
       </c>
-      <c r="AK104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AK94,10)</f>
+      <c r="AK104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AK94;10)</f>
         <v>0.331370306458318</v>
       </c>
-      <c r="AL104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AL94,10)</f>
+      <c r="AL104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AL94;10)</f>
         <v>0.0380989379339552</v>
       </c>
-      <c r="AM104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AM94,10)</f>
+      <c r="AM104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AM94;10)</f>
         <v>0.00211982345313343</v>
       </c>
-      <c r="AN104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AN94,10)</f>
+      <c r="AN104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AN94;10)</f>
         <v>0.0632057638844822</v>
       </c>
-      <c r="AO104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AO94,10)</f>
+      <c r="AO104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AO94;10)</f>
         <v>0.0491794748293936</v>
       </c>
-      <c r="AP104" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AP94,10)</f>
+      <c r="AP104" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AP94;10)</f>
         <v>2.34616697264312</v>
       </c>
-      <c r="AQ104" s="4"/>
+      <c r="AQ104" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="105">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="105">
       <c r="A105" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B105" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="C105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,C95,10)</f>
+      <c r="C105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;C95;10)</f>
         <v>0.00227210637513854</v>
       </c>
-      <c r="D105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,D95,10)</f>
+      <c r="D105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;D95;10)</f>
         <v>0.0475624421443358</v>
       </c>
-      <c r="E105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,E95,10)</f>
+      <c r="E105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;E95;10)</f>
         <v>0.0270296798499354</v>
       </c>
-      <c r="F105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,F95,10)</f>
+      <c r="F105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;F95;10)</f>
         <v>0.00275698798704571</v>
       </c>
-      <c r="G105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,G95,10)</f>
+      <c r="G105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;G95;10)</f>
         <v>0.0279113393495114</v>
       </c>
-      <c r="H105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,H95,10)</f>
+      <c r="H105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;H95;10)</f>
         <v>0.0406439992675687</v>
       </c>
-      <c r="I105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,I95,10)</f>
+      <c r="I105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;I95;10)</f>
         <v>13.562516918349</v>
       </c>
-      <c r="J105" s="4"/>
+      <c r="J105" s="5"/>
       <c r="L105" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M105" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="N105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,N95,10)</f>
+      <c r="N105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;N95;10)</f>
         <v>0.00137663129799326</v>
       </c>
-      <c r="O105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,O95,10)</f>
+      <c r="O105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;O95;10)</f>
         <v>0.0890377769955897</v>
       </c>
-      <c r="P105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,P95,10)</f>
+      <c r="P105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;P95;10)</f>
         <v>0.0418812574440638</v>
       </c>
-      <c r="Q105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Q95,10)</f>
+      <c r="Q105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Q95;10)</f>
         <v>0.00275698798704571</v>
       </c>
-      <c r="R105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,R95,10)</f>
+      <c r="R105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;R95;10)</f>
         <v>0.0340852378769007</v>
       </c>
-      <c r="S105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,S95,10)</f>
+      <c r="S105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;S95;10)</f>
         <v>0.0381614862489907</v>
       </c>
-      <c r="T105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,T95,10)</f>
+      <c r="T105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;T95;10)</f>
         <v>3.80704352691062</v>
       </c>
-      <c r="U105" s="4"/>
+      <c r="U105" s="5"/>
       <c r="W105" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X105" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="Y105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Y95,10)</f>
+      <c r="Y105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Y95;10)</f>
         <v>0.0238270855663262</v>
       </c>
-      <c r="Z105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Z95,10)</f>
+      <c r="Z105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Z95;10)</f>
         <v>0.552596763135508</v>
       </c>
-      <c r="AA105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AA95,10)</f>
+      <c r="AA105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AA95;10)</f>
         <v>0.0494533751863163</v>
       </c>
-      <c r="AB105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AB95,10)</f>
+      <c r="AB105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AB95;10)</f>
         <v>0.00451722034782659</v>
       </c>
-      <c r="AC105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AC95,10)</f>
+      <c r="AC105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AC95;10)</f>
         <v>0.109453848079805</v>
       </c>
-      <c r="AD105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AD95,10)</f>
+      <c r="AD105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AD95;10)</f>
         <v>0.0617441530822011</v>
       </c>
-      <c r="AE105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AE95,10)</f>
+      <c r="AE105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AE95;10)</f>
         <v>4.28509945834486</v>
       </c>
-      <c r="AF105" s="4"/>
+      <c r="AF105" s="5"/>
       <c r="AH105" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI105" s="0" t="n">
         <v>100000</v>
       </c>
-      <c r="AJ105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AJ95,10)</f>
+      <c r="AJ105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AJ95;10)</f>
         <v>0.00505664412621849</v>
       </c>
-      <c r="AK105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AK95,10)</f>
+      <c r="AK105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AK95;10)</f>
         <v>0.570354793373475</v>
       </c>
-      <c r="AL105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AL95,10)</f>
+      <c r="AL105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AL95;10)</f>
         <v>0.0708268750741481</v>
       </c>
-      <c r="AM105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AM95,10)</f>
+      <c r="AM105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AM95;10)</f>
         <v>0.00525263461975445</v>
       </c>
-      <c r="AN105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AN95,10)</f>
+      <c r="AN105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AN95;10)</f>
         <v>0.203148016367238</v>
       </c>
-      <c r="AO105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AO95,10)</f>
+      <c r="AO105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AO95;10)</f>
         <v>0.0377101981912839</v>
       </c>
-      <c r="AP105" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AP95,10)</f>
+      <c r="AP105" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AP95;10)</f>
         <v>4.05773883025335</v>
       </c>
-      <c r="AQ105" s="4"/>
+      <c r="AQ105" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="106">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="106">
       <c r="A106" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B106" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="C106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,C96,10)</f>
+      <c r="C106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;C96;10)</f>
         <v>0.00564340330164905</v>
       </c>
-      <c r="D106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,D96,10)</f>
+      <c r="D106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;D96;10)</f>
         <v>0.177908695352945</v>
       </c>
-      <c r="E106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,E96,10)</f>
+      <c r="E106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;E96;10)</f>
         <v>0.253867687815897</v>
       </c>
-      <c r="F106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,F96,10)</f>
+      <c r="F106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;F96;10)</f>
         <v>0.00299364252049861</v>
       </c>
-      <c r="G106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,G96,10)</f>
+      <c r="G106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;G96;10)</f>
         <v>0.0570349600599805</v>
       </c>
-      <c r="H106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,H96,10)</f>
+      <c r="H106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;H96;10)</f>
         <v>0.244271374275432</v>
       </c>
-      <c r="I106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,I96,10)</f>
+      <c r="I106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;I96;10)</f>
         <v>12.3103181402774</v>
       </c>
-      <c r="J106" s="4"/>
+      <c r="J106" s="5"/>
       <c r="L106" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M106" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="N106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,N96,10)</f>
+      <c r="N106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;N96;10)</f>
         <v>0.00204099980477335</v>
       </c>
-      <c r="O106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,O96,10)</f>
+      <c r="O106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;O96;10)</f>
         <v>0.467500332611371</v>
       </c>
-      <c r="P106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,P96,10)</f>
+      <c r="P106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;P96;10)</f>
         <v>0.253344863615536</v>
       </c>
-      <c r="Q106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Q96,10)</f>
+      <c r="Q106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Q96;10)</f>
         <v>0.00555725743496494</v>
       </c>
-      <c r="R106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,R96,10)</f>
+      <c r="R106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;R96;10)</f>
         <v>0.0720982422464171</v>
       </c>
-      <c r="S106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,S96,10)</f>
+      <c r="S106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;S96;10)</f>
         <v>0.315000208545483</v>
       </c>
-      <c r="T106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,T96,10)</f>
+      <c r="T106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;T96;10)</f>
         <v>16.00670422303</v>
       </c>
-      <c r="U106" s="4"/>
+      <c r="U106" s="5"/>
       <c r="W106" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X106" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="Y106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Y96,10)</f>
+      <c r="Y106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Y96;10)</f>
         <v>0.0229891654730153</v>
       </c>
-      <c r="Z106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Z96,10)</f>
+      <c r="Z106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Z96;10)</f>
         <v>0.517899732619819</v>
       </c>
-      <c r="AA106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AA96,10)</f>
+      <c r="AA106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AA96;10)</f>
         <v>0.11092456383226</v>
       </c>
-      <c r="AB106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AB96,10)</f>
+      <c r="AB106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AB96;10)</f>
         <v>0.0097025698643541</v>
       </c>
-      <c r="AC106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AC96,10)</f>
+      <c r="AC106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AC96;10)</f>
         <v>0.28960700717359</v>
       </c>
-      <c r="AD106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AD96,10)</f>
+      <c r="AD106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AD96;10)</f>
         <v>0.0778693331158149</v>
       </c>
-      <c r="AE106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AE96,10)</f>
+      <c r="AE106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AE96;10)</f>
         <v>17.7328975654529</v>
       </c>
-      <c r="AF106" s="4"/>
+      <c r="AF106" s="5"/>
       <c r="AH106" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI106" s="0" t="n">
         <v>500000</v>
       </c>
-      <c r="AJ106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AJ96,10)</f>
+      <c r="AJ106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AJ96;10)</f>
         <v>0.00351533520854987</v>
       </c>
-      <c r="AK106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AK96,10)</f>
+      <c r="AK106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AK96;10)</f>
         <v>1.19218370049722</v>
       </c>
-      <c r="AL106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AL96,10)</f>
+      <c r="AL106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AL96;10)</f>
         <v>0.261595490390337</v>
       </c>
-      <c r="AM106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AM96,10)</f>
+      <c r="AM106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AM96;10)</f>
         <v>0.00732885032578149</v>
       </c>
-      <c r="AN106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AN96,10)</f>
+      <c r="AN106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AN96;10)</f>
         <v>0.295211018937559</v>
       </c>
-      <c r="AO106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AO96,10)</f>
+      <c r="AO106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AO96;10)</f>
         <v>0.485307686464323</v>
       </c>
-      <c r="AP106" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AP96,10)</f>
+      <c r="AP106" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AP96;10)</f>
         <v>50.9373386585571</v>
       </c>
-      <c r="AQ106" s="4"/>
+      <c r="AQ106" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="107">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="107">
       <c r="A107" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B107" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="C107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,C97,10)</f>
+      <c r="C107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;C97;10)</f>
         <v>0.00457694609694235</v>
       </c>
-      <c r="D107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,D97,10)</f>
+      <c r="D107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;D97;10)</f>
         <v>0.327540009514769</v>
       </c>
-      <c r="E107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,E97,10)</f>
+      <c r="E107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;E97;10)</f>
         <v>0.443107376165817</v>
       </c>
-      <c r="F107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,F97,10)</f>
+      <c r="F107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;F97;10)</f>
         <v>0.00702272155837721</v>
       </c>
-      <c r="G107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,G97,10)</f>
+      <c r="G107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;G97;10)</f>
         <v>0.10150112645235</v>
       </c>
-      <c r="H107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,H97,10)</f>
+      <c r="H107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;H97;10)</f>
         <v>0.314666450135283</v>
       </c>
-      <c r="I107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,I97,10)</f>
+      <c r="I107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;I97;10)</f>
         <v>125.956029724182</v>
       </c>
-      <c r="J107" s="4"/>
+      <c r="J107" s="5"/>
       <c r="L107" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M107" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="N107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,N97,10)</f>
+      <c r="N107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;N97;10)</f>
         <v>0.0126375037749048</v>
       </c>
-      <c r="O107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,O97,10)</f>
+      <c r="O107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;O97;10)</f>
         <v>0.41066734556782</v>
       </c>
-      <c r="P107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,P97,10)</f>
+      <c r="P107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;P97;10)</f>
         <v>0.408845848793002</v>
       </c>
-      <c r="Q107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Q97,10)</f>
+      <c r="Q107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Q97;10)</f>
         <v>0.012528133818279</v>
       </c>
-      <c r="R107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,R97,10)</f>
+      <c r="R107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;R97;10)</f>
         <v>0.129267736005427</v>
       </c>
-      <c r="S107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,S97,10)</f>
+      <c r="S107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;S97;10)</f>
         <v>0.430372743237465</v>
       </c>
-      <c r="T107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,T97,10)</f>
+      <c r="T107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;T97;10)</f>
         <v>33.3710528641922</v>
       </c>
-      <c r="U107" s="4"/>
+      <c r="U107" s="5"/>
       <c r="W107" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X107" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="Y107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Y97,10)</f>
+      <c r="Y107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Y97;10)</f>
         <v>0.0107748396169494</v>
       </c>
-      <c r="Z107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Z97,10)</f>
+      <c r="Z107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Z97;10)</f>
         <v>1.13628300394486</v>
       </c>
-      <c r="AA107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AA97,10)</f>
+      <c r="AA107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AA97;10)</f>
         <v>0.272349155050122</v>
       </c>
-      <c r="AB107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AB97,10)</f>
+      <c r="AB107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AB97;10)</f>
         <v>0.0124096300739268</v>
       </c>
-      <c r="AC107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AC97,10)</f>
+      <c r="AC107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AC97;10)</f>
         <v>0.47180663572996</v>
       </c>
-      <c r="AD107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AD97,10)</f>
+      <c r="AD107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AD97;10)</f>
         <v>1.09583317144758</v>
       </c>
-      <c r="AE107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AE97,10)</f>
+      <c r="AE107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AE97;10)</f>
         <v>36.3178744776147</v>
       </c>
-      <c r="AF107" s="4"/>
+      <c r="AF107" s="5"/>
       <c r="AH107" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI107" s="0" t="n">
         <v>1000000</v>
       </c>
-      <c r="AJ107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AJ97,10)</f>
+      <c r="AJ107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AJ97;10)</f>
         <v>0.00718114798097797</v>
       </c>
-      <c r="AK107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AK97,10)</f>
+      <c r="AK107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AK97;10)</f>
         <v>2.08278826973217</v>
       </c>
-      <c r="AL107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AL97,10)</f>
+      <c r="AL107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AL97;10)</f>
         <v>0.9150945547235</v>
       </c>
-      <c r="AM107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AM97,10)</f>
+      <c r="AM107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AM97;10)</f>
         <v>0.00939317863451856</v>
       </c>
-      <c r="AN107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AN97,10)</f>
+      <c r="AN107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AN97;10)</f>
         <v>0.468990434922027</v>
       </c>
-      <c r="AO107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AO97,10)</f>
+      <c r="AO107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AO97;10)</f>
         <v>0.900127674427092</v>
       </c>
-      <c r="AP107" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AP97,10)</f>
+      <c r="AP107" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AP97;10)</f>
         <v>57.5273334817168</v>
       </c>
-      <c r="AQ107" s="4"/>
+      <c r="AQ107" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="108">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="108">
       <c r="A108" s="0" t="n">
         <v>5000</v>
       </c>
       <c r="B108" s="0" t="n">
         <v>5000000</v>
       </c>
-      <c r="C108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,C98,10)</f>
+      <c r="C108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;C98;10)</f>
         <v>0.010023838057437</v>
       </c>
-      <c r="D108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,D98,10)</f>
+      <c r="D108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;D98;10)</f>
         <v>0.628706001177516</v>
       </c>
-      <c r="E108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,E98,10)</f>
+      <c r="E108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;E98;10)</f>
         <v>1.19111447327995</v>
       </c>
-      <c r="F108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,F98,10)</f>
+      <c r="F108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;F98;10)</f>
         <v>0.016396181221958</v>
       </c>
-      <c r="G108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,G98,10)</f>
+      <c r="G108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;G98;10)</f>
         <v>0.195246069552045</v>
       </c>
-      <c r="H108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,H98,10)</f>
+      <c r="H108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;H98;10)</f>
         <v>2.69996382144527</v>
       </c>
-      <c r="I108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,I98,10)</f>
+      <c r="I108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;I98;10)</f>
         <v>206.886397501646</v>
       </c>
-      <c r="J108" s="4"/>
+      <c r="J108" s="5"/>
       <c r="L108" s="0" t="n">
         <v>10000</v>
       </c>
       <c r="M108" s="0" t="n">
         <v>5000000</v>
       </c>
-      <c r="N108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,N98,10)</f>
+      <c r="N108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;N98;10)</f>
         <v>0.0111434904789445</v>
       </c>
-      <c r="O108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,O98,10)</f>
+      <c r="O108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;O98;10)</f>
         <v>0.69022272169896</v>
       </c>
-      <c r="P108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,P98,10)</f>
+      <c r="P108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;P98;10)</f>
         <v>1.77525975807896</v>
       </c>
-      <c r="Q108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Q98,10)</f>
+      <c r="Q108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Q98;10)</f>
         <v>0.0222411406629703</v>
       </c>
-      <c r="R108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,R98,10)</f>
+      <c r="R108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;R98;10)</f>
         <v>0.202664983120585</v>
       </c>
-      <c r="S108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,S98,10)</f>
+      <c r="S108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;S98;10)</f>
         <v>2.43888608703386</v>
       </c>
-      <c r="T108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,T98,10)</f>
+      <c r="T108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;T98;10)</f>
         <v>580.229268608588</v>
       </c>
-      <c r="U108" s="4"/>
+      <c r="U108" s="5"/>
       <c r="W108" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="X108" s="0" t="n">
         <v>5000000</v>
       </c>
-      <c r="Y108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Y98,10)</f>
+      <c r="Y108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Y98;10)</f>
         <v>0.0259997672507247</v>
       </c>
-      <c r="Z108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,Z98,10)</f>
+      <c r="Z108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;Z98;10)</f>
         <v>3.91178993562445</v>
       </c>
-      <c r="AA108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AA98,10)</f>
+      <c r="AA108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AA98;10)</f>
         <v>2.04973018567622</v>
       </c>
-      <c r="AB108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AB98,10)</f>
+      <c r="AB108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AB98;10)</f>
         <v>0.0612541898900616</v>
       </c>
-      <c r="AC108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AC98,10)</f>
+      <c r="AC108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AC98;10)</f>
         <v>0.933752828117128</v>
       </c>
-      <c r="AD108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AD98,10)</f>
+      <c r="AD108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AD98;10)</f>
         <v>2.07264139893441</v>
       </c>
-      <c r="AE108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AE98,10)</f>
+      <c r="AE108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AE98;10)</f>
         <v>1102.90263496294</v>
       </c>
-      <c r="AF108" s="4"/>
+      <c r="AF108" s="5"/>
       <c r="AH108" s="0" t="n">
         <v>50000</v>
       </c>
       <c r="AI108" s="0" t="n">
         <v>5000000</v>
       </c>
-      <c r="AJ108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AJ98,10)</f>
+      <c r="AJ108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AJ98;10)</f>
         <v>0.0422468899552145</v>
       </c>
-      <c r="AK108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AK98,10)</f>
+      <c r="AK108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AK98;10)</f>
         <v>8.41886019602606</v>
       </c>
-      <c r="AL108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AL98,10)</f>
+      <c r="AL108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AL98;10)</f>
         <v>0.906879526855516</v>
       </c>
-      <c r="AM108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AM98,10)</f>
+      <c r="AM108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AM98;10)</f>
         <v>0.0268781703649486</v>
       </c>
-      <c r="AN108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AN98,10)</f>
+      <c r="AN108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AN98;10)</f>
         <v>1.32397354074149</v>
       </c>
-      <c r="AO108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AO98,10)</f>
+      <c r="AO108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AO98;10)</f>
         <v>5.4054684385693</v>
       </c>
-      <c r="AP108" s="4" t="n">
-        <f aca="false">CONFIDENCE(0.05,AP98,10)</f>
+      <c r="AP108" s="5" t="n">
+        <f aca="false">INT.CONFIANÇA(0,05;AP98;10)</f>
         <v>407.215924084744</v>
       </c>
-      <c r="AQ108" s="4"/>
+      <c r="AQ108" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Testes/PingPong/PingPong.xlsx
+++ b/Testes/PingPong/PingPong.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2556" yWindow="3684" windowWidth="16380" windowHeight="8196" tabRatio="463"/>
+    <workbookView xWindow="2556" yWindow="3696" windowWidth="16380" windowHeight="8196" tabRatio="463"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -209,10 +209,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -226,14 +226,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PingPong </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>- 10KB Mensagem</a:t>
+              <a:t>PingPong - 10KB Mensagem</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -789,11 +783,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70425216"/>
-        <c:axId val="70443776"/>
+        <c:axId val="212465152"/>
+        <c:axId val="212467072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70425216"/>
+        <c:axId val="212465152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -822,7 +816,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70443776"/>
+        <c:crossAx val="212467072"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -830,7 +824,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70443776"/>
+        <c:axId val="212467072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +854,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70425216"/>
+        <c:crossAx val="212465152"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -876,7 +870,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -889,10 +883,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -906,14 +900,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PingPong </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>- 10KB Mensagem</a:t>
+              <a:t>PingPong - 10KB Mensagem</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1089,11 +1077,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71190016"/>
-        <c:axId val="71191936"/>
+        <c:axId val="213510400"/>
+        <c:axId val="213389696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71190016"/>
+        <c:axId val="213510400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1122,7 +1110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71191936"/>
+        <c:crossAx val="213389696"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1130,7 +1118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71191936"/>
+        <c:axId val="213389696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1160,7 +1148,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71190016"/>
+        <c:crossAx val="213510400"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1176,7 +1164,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1189,10 +1177,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1206,14 +1194,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PingPong </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>- 50KB Mensagem</a:t>
+              <a:t>PingPong - 50KB Mensagem</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1693,11 +1675,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71266304"/>
-        <c:axId val="71268224"/>
+        <c:axId val="213449728"/>
+        <c:axId val="213537920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71266304"/>
+        <c:axId val="213449728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1726,7 +1708,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71268224"/>
+        <c:crossAx val="213537920"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1734,7 +1716,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71268224"/>
+        <c:axId val="213537920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1764,7 +1746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71266304"/>
+        <c:crossAx val="213449728"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1780,7 +1762,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1793,10 +1775,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1810,14 +1792,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PingPong </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>- 50KB Mensagem</a:t>
+              <a:t>PingPong - 50KB Mensagem</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2145,11 +2121,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71300224"/>
-        <c:axId val="71302144"/>
+        <c:axId val="213575552"/>
+        <c:axId val="213000192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71300224"/>
+        <c:axId val="213575552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2178,7 +2154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71302144"/>
+        <c:crossAx val="213000192"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2186,7 +2162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71302144"/>
+        <c:axId val="213000192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +2192,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71300224"/>
+        <c:crossAx val="213575552"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2232,7 +2208,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2245,10 +2221,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2262,14 +2238,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PingPong </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>- 50KB Mensagem</a:t>
+              <a:t>PingPong - 50KB Mensagem</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2445,11 +2415,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70549888"/>
-        <c:axId val="70551808"/>
+        <c:axId val="213034880"/>
+        <c:axId val="213037056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70549888"/>
+        <c:axId val="213034880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2478,7 +2448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70551808"/>
+        <c:crossAx val="213037056"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2486,7 +2456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70551808"/>
+        <c:axId val="213037056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2516,7 +2486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70549888"/>
+        <c:crossAx val="213034880"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2532,7 +2502,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2545,10 +2515,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -2562,14 +2532,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PingPong </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>- 100KB Mensagem</a:t>
+              <a:t>PingPong - 100KB Mensagem</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3049,11 +3013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70670976"/>
-        <c:axId val="70685440"/>
+        <c:axId val="213170816"/>
+        <c:axId val="213058304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70670976"/>
+        <c:axId val="213170816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3082,7 +3046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70685440"/>
+        <c:crossAx val="213058304"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3090,7 +3054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70685440"/>
+        <c:axId val="213058304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3120,7 +3084,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70670976"/>
+        <c:crossAx val="213170816"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3136,7 +3100,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3149,10 +3113,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3166,14 +3130,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PingPong </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>- 100KB Mensagem</a:t>
+              <a:t>PingPong - 100KB Mensagem</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3501,11 +3459,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70598656"/>
-        <c:axId val="70600576"/>
+        <c:axId val="213100032"/>
+        <c:axId val="213101952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70598656"/>
+        <c:axId val="213100032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3534,7 +3492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70600576"/>
+        <c:crossAx val="213101952"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3542,7 +3500,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70600576"/>
+        <c:axId val="213101952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3572,7 +3530,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70598656"/>
+        <c:crossAx val="213100032"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3588,7 +3546,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3601,10 +3559,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3618,14 +3576,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PingPong </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>- 100KB Mensagem</a:t>
+              <a:t>PingPong - 100KB Mensagem</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3801,11 +3753,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70626304"/>
-        <c:axId val="70632576"/>
+        <c:axId val="213599744"/>
+        <c:axId val="213601664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70626304"/>
+        <c:axId val="213599744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3834,7 +3786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70632576"/>
+        <c:crossAx val="213601664"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3842,7 +3794,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70632576"/>
+        <c:axId val="213601664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3872,7 +3824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70626304"/>
+        <c:crossAx val="213599744"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3888,7 +3840,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3901,10 +3853,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -3918,14 +3870,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PingPong </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>- 50KB Mensagem</a:t>
+              <a:t>PingPong - 50KB Mensagem</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4481,11 +4427,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70231936"/>
-        <c:axId val="70234112"/>
+        <c:axId val="212331904"/>
+        <c:axId val="212813312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70231936"/>
+        <c:axId val="212331904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4514,7 +4460,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70234112"/>
+        <c:crossAx val="212813312"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4522,7 +4468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70234112"/>
+        <c:axId val="212813312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4552,7 +4498,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70231936"/>
+        <c:crossAx val="212331904"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4568,7 +4514,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4581,10 +4527,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -4598,14 +4544,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PingPong </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>- 100KB Mensagem</a:t>
+              <a:t>PingPong - 100KB Mensagem</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5161,11 +5101,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70747264"/>
-        <c:axId val="70749184"/>
+        <c:axId val="212874752"/>
+        <c:axId val="212876672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70747264"/>
+        <c:axId val="212874752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5194,7 +5134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70749184"/>
+        <c:crossAx val="212876672"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5202,7 +5142,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70749184"/>
+        <c:axId val="212876672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5232,7 +5172,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70747264"/>
+        <c:crossAx val="212874752"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5248,7 +5188,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5261,10 +5201,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -5763,18 +5703,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:ln>
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
           <c:cat>
             <c:numRef>
               <c:f>Sheet1!$AT$3:$AT$9</c:f>
@@ -5847,11 +5775,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70858240"/>
-        <c:axId val="70864896"/>
+        <c:axId val="212626816"/>
+        <c:axId val="212628992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70858240"/>
+        <c:axId val="212626816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5880,7 +5808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70864896"/>
+        <c:crossAx val="212628992"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5888,7 +5816,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70864896"/>
+        <c:axId val="212628992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5918,7 +5846,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70858240"/>
+        <c:crossAx val="212626816"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5932,14 +5860,9 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:prstDash val="sysDot"/>
-    </a:ln>
-  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5952,10 +5875,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -6450,11 +6373,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70910720"/>
-        <c:axId val="70912640"/>
+        <c:axId val="212760832"/>
+        <c:axId val="212775296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70910720"/>
+        <c:axId val="212760832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6483,7 +6406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70912640"/>
+        <c:crossAx val="212775296"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6491,7 +6414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70912640"/>
+        <c:axId val="212775296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6521,7 +6444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70910720"/>
+        <c:crossAx val="212760832"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6537,7 +6460,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6550,10 +6473,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -6567,14 +6490,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PingPong </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>- 5KB Mensagem</a:t>
+              <a:t>PingPong - 5KB Mensagem</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6902,11 +6819,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70956928"/>
-        <c:axId val="70967296"/>
+        <c:axId val="212698240"/>
+        <c:axId val="212700160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70956928"/>
+        <c:axId val="212698240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6935,7 +6852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70967296"/>
+        <c:crossAx val="212700160"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6943,7 +6860,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70967296"/>
+        <c:axId val="212700160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6973,7 +6890,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70956928"/>
+        <c:crossAx val="212698240"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6989,7 +6906,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7002,10 +6919,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -7019,14 +6936,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PingPong </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>- 5KB Mensagem</a:t>
+              <a:t>PingPong - 5KB Mensagem</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7202,11 +7113,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="70983040"/>
-        <c:axId val="70993408"/>
+        <c:axId val="213204352"/>
+        <c:axId val="213214720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="70983040"/>
+        <c:axId val="213204352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7235,7 +7146,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70993408"/>
+        <c:crossAx val="213214720"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7243,7 +7154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70993408"/>
+        <c:axId val="213214720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7273,7 +7184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70983040"/>
+        <c:crossAx val="213204352"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7289,7 +7200,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7302,10 +7213,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -7319,14 +7230,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PingPong </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>- 10KB Mensagem</a:t>
+              <a:t>PingPong - 10KB Mensagem</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -7806,11 +7711,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71116288"/>
-        <c:axId val="71118208"/>
+        <c:axId val="213348352"/>
+        <c:axId val="213350272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71116288"/>
+        <c:axId val="213348352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7839,7 +7744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71118208"/>
+        <c:crossAx val="213350272"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7847,7 +7752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71118208"/>
+        <c:axId val="213350272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7877,7 +7782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71116288"/>
+        <c:crossAx val="213348352"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7893,7 +7798,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7906,10 +7811,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="101"/>
+      <c14:style val="118"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="1"/>
+      <c:style val="18"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -7923,14 +7828,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>PingPong </a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>- 10KB Mensagem</a:t>
+              <a:t>PingPong - 10KB Mensagem</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -8258,11 +8157,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="71153920"/>
-        <c:axId val="71168384"/>
+        <c:axId val="213477632"/>
+        <c:axId val="213479808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71153920"/>
+        <c:axId val="213477632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8291,7 +8190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71168384"/>
+        <c:crossAx val="213479808"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8299,7 +8198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71168384"/>
+        <c:axId val="213479808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8329,7 +8228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71153920"/>
+        <c:crossAx val="213477632"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8345,7 +8244,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000008" footer="0.31496062000000008"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9147,7 +9046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CI232"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="BR67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CK102" sqref="CK102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
